--- a/data ice.xlsx
+++ b/data ice.xlsx
@@ -5,28 +5,44 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dqlab\Fast Track Program\Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02825EBE-8873-42F3-9E6D-5CD0B3708E00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E58250-8BD2-41FD-B88A-A2B8FAA5951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
-    <sheet name="Engagement Rate" sheetId="2" r:id="rId2"/>
+    <sheet name="Total Event" sheetId="6" r:id="rId2"/>
+    <sheet name="Jumlah Pengunjung" sheetId="7" r:id="rId3"/>
+    <sheet name="Engagement Rate" sheetId="2" r:id="rId4"/>
+    <sheet name="ig_ICE" sheetId="3" r:id="rId5"/>
+    <sheet name="ig_JIEXPO" sheetId="4" r:id="rId6"/>
+    <sheet name="ig_JCC" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="68">
   <si>
     <t>Bulan</t>
   </si>
@@ -69,6 +85,168 @@
   <si>
     <t>Engagement Rate</t>
   </si>
+  <si>
+    <t>Tanggal Upload</t>
+  </si>
+  <si>
+    <t>Isi Konten</t>
+  </si>
+  <si>
+    <t>Jumlah Like</t>
+  </si>
+  <si>
+    <t>Jumlah Komentar</t>
+  </si>
+  <si>
+    <t>Pameran</t>
+  </si>
+  <si>
+    <t>Promosi</t>
+  </si>
+  <si>
+    <t>Seminar</t>
+  </si>
+  <si>
+    <t>Wisuda</t>
+  </si>
+  <si>
+    <t>Repost</t>
+  </si>
+  <si>
+    <t>Peringatan Hari Raya</t>
+  </si>
+  <si>
+    <t>Olahraga</t>
+  </si>
+  <si>
+    <t>Konser</t>
+  </si>
+  <si>
+    <t>Gedung</t>
+  </si>
+  <si>
+    <t>Nikahan</t>
+  </si>
+  <si>
+    <t>Perayaan</t>
+  </si>
+  <si>
+    <t>Seminar &amp; Workshop</t>
+  </si>
+  <si>
+    <t>Festival</t>
+  </si>
+  <si>
+    <t>Peringatan HUT Jakarta</t>
+  </si>
+  <si>
+    <t>Kunjungan Menteri PUPR</t>
+  </si>
+  <si>
+    <t>Notifikasi Renovasi</t>
+  </si>
+  <si>
+    <t>Perayaan Waisak</t>
+  </si>
+  <si>
+    <t>Kontes</t>
+  </si>
+  <si>
+    <t>Konferensi</t>
+  </si>
+  <si>
+    <t>Halal Bihalal</t>
+  </si>
+  <si>
+    <t>Turnamen</t>
+  </si>
+  <si>
+    <t>Santunan Anak Yatim Piatu</t>
+  </si>
+  <si>
+    <t>Notifikasi Acara</t>
+  </si>
+  <si>
+    <t>Buka Bersama</t>
+  </si>
+  <si>
+    <t>Peringatan Idul adha</t>
+  </si>
+  <si>
+    <t>Festival Jakarta Fair</t>
+  </si>
+  <si>
+    <t>Ucapan Ultah Jokowi</t>
+  </si>
+  <si>
+    <t>Pameran EXPO</t>
+  </si>
+  <si>
+    <t>Peringatan Hari Raya Waisak</t>
+  </si>
+  <si>
+    <t>Event Calendar</t>
+  </si>
+  <si>
+    <t>Peringatan Hari Lahir Pancasila</t>
+  </si>
+  <si>
+    <t>Konser Calendar</t>
+  </si>
+  <si>
+    <t>Pameran Calendar</t>
+  </si>
+  <si>
+    <t>Pameran SEA</t>
+  </si>
+  <si>
+    <t>Pameran PEVS</t>
+  </si>
+  <si>
+    <t>Peringatan Isa Almasih</t>
+  </si>
+  <si>
+    <t>Pameran Food</t>
+  </si>
+  <si>
+    <t>Konser atau Festival</t>
+  </si>
+  <si>
+    <t>Pameran GPPE</t>
+  </si>
+  <si>
+    <t>Festival Wedding</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Total Event</t>
+  </si>
+  <si>
+    <t>Tahun</t>
+  </si>
+  <si>
+    <t>Visitor</t>
+  </si>
+  <si>
+    <t>ICE</t>
+  </si>
+  <si>
+    <t>Festifal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pertanyaan </t>
+  </si>
+  <si>
+    <t>Perusahaan</t>
+  </si>
+  <si>
+    <t>JIEXPO</t>
+  </si>
+  <si>
+    <t>JCC</t>
+  </si>
 </sst>
 </file>
 
@@ -103,9 +281,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -422,13 +601,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E53AB01-5690-494B-B4D3-E31437ADDDA1}">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -457,7 +636,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -486,7 +665,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -515,7 +694,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -544,7 +723,7 @@
         <v>30890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -573,7 +752,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -602,7 +781,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -631,7 +810,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -660,7 +839,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -689,7 +868,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -718,7 +897,7 @@
         <v>67150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -747,7 +926,7 @@
         <v>72874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -776,7 +955,7 @@
         <v>63256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -805,7 +984,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -834,7 +1013,7 @@
         <v>19765</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -863,7 +1042,7 @@
         <v>36555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -898,6 +1077,188 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{694B1C92-7055-4968-9AB0-07215E7B8EAE}">
+  <dimension ref="A1:B10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2023</v>
+      </c>
+      <c r="B10">
+        <v>221</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35AB9420-36EB-40C8-8619-A726D1DFD6B1}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+      <c r="B2">
+        <v>235595</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2016</v>
+      </c>
+      <c r="B3">
+        <v>1499357</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2017</v>
+      </c>
+      <c r="B4">
+        <v>2530150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>2018</v>
+      </c>
+      <c r="B5">
+        <v>2947567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2019</v>
+      </c>
+      <c r="B6">
+        <v>2728421</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2020</v>
+      </c>
+      <c r="B7">
+        <v>1165343</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2021</v>
+      </c>
+      <c r="B8">
+        <v>345093</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2022</v>
+      </c>
+      <c r="B9">
+        <v>232014</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{740AD6FF-78F7-4A40-A9AC-4E19A5B9B131}">
   <dimension ref="A1:E18"/>
   <sheetViews>
@@ -905,9 +1266,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -924,7 +1285,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -942,7 +1303,7 @@
         <v>6.8300475978720954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -960,7 +1321,7 @@
         <v>6.8225896584596173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -978,7 +1339,7 @@
         <v>14.913402873450107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -996,7 +1357,7 @@
         <v>7.879569611572812</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -1014,7 +1375,7 @@
         <v>4.9306068818263942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -1032,7 +1393,7 @@
         <v>12.788722271227417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -1050,7 +1411,7 @@
         <v>9.0671047067625139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1068,7 +1429,7 @@
         <v>16.135623523402082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1086,7 +1447,7 @@
         <v>30.989394383809067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1104,7 +1465,7 @@
         <v>28.21288901541827</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1122,7 +1483,7 @@
         <v>18.460997994642621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1140,7 +1501,7 @@
         <v>15.12099108486743</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1158,7 +1519,7 @@
         <v>13.856976056967408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1176,7 +1537,7 @@
         <v>19.158865367855839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1194,7 +1555,7 @@
         <v>60.546177568576532</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45017</v>
       </c>
@@ -1212,7 +1573,7 @@
         <v>10.337609723160027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45047</v>
       </c>
@@ -1233,4 +1594,5438 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F2EAE-4643-4EEB-BCC2-1FDB6DC397DA}">
+  <dimension ref="A1:E162"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="G131" sqref="G131"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>3</v>
+      </c>
+      <c r="E2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C3">
+        <v>135</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>60</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5">
+        <v>485</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6">
+        <v>66</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45118</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>107</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45116</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9">
+        <v>70</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>226</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45115</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>122</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45114</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>628</v>
+      </c>
+      <c r="D12">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45113</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>93</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+      <c r="E13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45112</v>
+      </c>
+      <c r="B14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14">
+        <v>80</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15">
+        <v>62</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C16">
+        <v>265</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45110</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17">
+        <v>78</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18">
+        <v>230</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>158</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>78</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C21">
+        <v>528</v>
+      </c>
+      <c r="D21">
+        <v>9</v>
+      </c>
+      <c r="E21" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>63</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>80</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24">
+        <v>74</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B25" t="s">
+        <v>21</v>
+      </c>
+      <c r="C25">
+        <v>119</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B26" t="s">
+        <v>40</v>
+      </c>
+      <c r="C26">
+        <v>591</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>90</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28">
+        <v>75</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>186</v>
+      </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
+      <c r="E29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30">
+        <v>180</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31">
+        <v>107</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B32" t="s">
+        <v>27</v>
+      </c>
+      <c r="C32">
+        <v>119</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45095</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33">
+        <v>517</v>
+      </c>
+      <c r="D33">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45094</v>
+      </c>
+      <c r="B34" t="s">
+        <v>40</v>
+      </c>
+      <c r="C34">
+        <v>108</v>
+      </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B35" t="s">
+        <v>19</v>
+      </c>
+      <c r="C35">
+        <v>526</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45093</v>
+      </c>
+      <c r="B36" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>215</v>
+      </c>
+      <c r="D36">
+        <v>3</v>
+      </c>
+      <c r="E36" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45091</v>
+      </c>
+      <c r="B37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C37">
+        <v>75</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38">
+        <v>276</v>
+      </c>
+      <c r="D38">
+        <v>2</v>
+      </c>
+      <c r="E38" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B39" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39">
+        <v>241</v>
+      </c>
+      <c r="D39">
+        <v>13</v>
+      </c>
+      <c r="E39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45090</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40">
+        <v>63</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45089</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>42</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45088</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42">
+        <v>250</v>
+      </c>
+      <c r="D42">
+        <v>2</v>
+      </c>
+      <c r="E42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43">
+        <v>157</v>
+      </c>
+      <c r="D43">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45087</v>
+      </c>
+      <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="C44">
+        <v>76</v>
+      </c>
+      <c r="D44">
+        <v>4</v>
+      </c>
+      <c r="E44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B45" t="s">
+        <v>19</v>
+      </c>
+      <c r="C45">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46">
+        <v>113</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B47" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45083</v>
+      </c>
+      <c r="B48" t="s">
+        <v>19</v>
+      </c>
+      <c r="C48">
+        <v>67</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
+        <v>165</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50">
+        <v>310</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>155</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>76</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>157</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B54" t="s">
+        <v>40</v>
+      </c>
+      <c r="C54">
+        <v>263</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>134</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B56" t="s">
+        <v>19</v>
+      </c>
+      <c r="C56">
+        <v>554</v>
+      </c>
+      <c r="D56">
+        <v>77</v>
+      </c>
+      <c r="E56" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B57" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57">
+        <v>385</v>
+      </c>
+      <c r="D57">
+        <v>10</v>
+      </c>
+      <c r="E57" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45075</v>
+      </c>
+      <c r="B58" t="s">
+        <v>22</v>
+      </c>
+      <c r="C58">
+        <v>801</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45074</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59">
+        <v>652</v>
+      </c>
+      <c r="D59">
+        <v>8</v>
+      </c>
+      <c r="E59" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60">
+        <v>878</v>
+      </c>
+      <c r="D60">
+        <v>4</v>
+      </c>
+      <c r="E60" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B61" t="s">
+        <v>25</v>
+      </c>
+      <c r="C61">
+        <v>954</v>
+      </c>
+      <c r="D61">
+        <v>7</v>
+      </c>
+      <c r="E61" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B62" t="s">
+        <v>25</v>
+      </c>
+      <c r="C62">
+        <v>256</v>
+      </c>
+      <c r="D62">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45070</v>
+      </c>
+      <c r="B63" t="s">
+        <v>19</v>
+      </c>
+      <c r="C63">
+        <v>192</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B64" t="s">
+        <v>40</v>
+      </c>
+      <c r="C64">
+        <v>560</v>
+      </c>
+      <c r="D64">
+        <v>31</v>
+      </c>
+      <c r="E64" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>211</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>106</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>92</v>
+      </c>
+      <c r="D67">
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C68">
+        <v>789</v>
+      </c>
+      <c r="D68">
+        <v>36</v>
+      </c>
+      <c r="E68" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>76</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45063</v>
+      </c>
+      <c r="B70" t="s">
+        <v>18</v>
+      </c>
+      <c r="C70">
+        <v>235</v>
+      </c>
+      <c r="D70">
+        <v>9</v>
+      </c>
+      <c r="E70" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>258</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B72" t="s">
+        <v>19</v>
+      </c>
+      <c r="C72">
+        <v>174</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="E72" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>45060</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>1152</v>
+      </c>
+      <c r="D73">
+        <v>3</v>
+      </c>
+      <c r="E73" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B74" t="s">
+        <v>40</v>
+      </c>
+      <c r="C74">
+        <v>1098</v>
+      </c>
+      <c r="D74">
+        <v>25</v>
+      </c>
+      <c r="E74" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75">
+        <v>121</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76">
+        <v>685</v>
+      </c>
+      <c r="D76">
+        <v>32</v>
+      </c>
+      <c r="E76" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B77" t="s">
+        <v>19</v>
+      </c>
+      <c r="C77">
+        <v>233</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78">
+        <v>450</v>
+      </c>
+      <c r="D78">
+        <v>3</v>
+      </c>
+      <c r="E78" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79">
+        <v>93</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B80" t="s">
+        <v>63</v>
+      </c>
+      <c r="C80">
+        <v>521</v>
+      </c>
+      <c r="D80">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>1044</v>
+      </c>
+      <c r="D81">
+        <v>12</v>
+      </c>
+      <c r="E81" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>771</v>
+      </c>
+      <c r="D82">
+        <v>29</v>
+      </c>
+      <c r="E82" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B83" t="s">
+        <v>40</v>
+      </c>
+      <c r="C83">
+        <v>219</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="E83" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B84" t="s">
+        <v>40</v>
+      </c>
+      <c r="C84">
+        <v>381</v>
+      </c>
+      <c r="D84">
+        <v>3</v>
+      </c>
+      <c r="E84" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>35</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B86" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86">
+        <v>71</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45046</v>
+      </c>
+      <c r="B87" t="s">
+        <v>24</v>
+      </c>
+      <c r="C87">
+        <v>96</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B88" t="s">
+        <v>19</v>
+      </c>
+      <c r="C88">
+        <v>62</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>125</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45042</v>
+      </c>
+      <c r="B90" t="s">
+        <v>19</v>
+      </c>
+      <c r="C90">
+        <v>78</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45041</v>
+      </c>
+      <c r="B91" t="s">
+        <v>40</v>
+      </c>
+      <c r="C91">
+        <v>55</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45040</v>
+      </c>
+      <c r="B92" t="s">
+        <v>40</v>
+      </c>
+      <c r="C92">
+        <v>169</v>
+      </c>
+      <c r="D92">
+        <v>2</v>
+      </c>
+      <c r="E92" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45039</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>540</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="E93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45038</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94">
+        <v>15</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
+        <v>55</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45036</v>
+      </c>
+      <c r="B96" t="s">
+        <v>64</v>
+      </c>
+      <c r="C96">
+        <v>43</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45035</v>
+      </c>
+      <c r="B97" t="s">
+        <v>22</v>
+      </c>
+      <c r="C97">
+        <v>73</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>48</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45033</v>
+      </c>
+      <c r="B99" t="s">
+        <v>19</v>
+      </c>
+      <c r="C99">
+        <v>35</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B100" t="s">
+        <v>64</v>
+      </c>
+      <c r="C100">
+        <v>488</v>
+      </c>
+      <c r="D100">
+        <v>52</v>
+      </c>
+      <c r="E100" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B101" t="s">
+        <v>22</v>
+      </c>
+      <c r="C101">
+        <v>896</v>
+      </c>
+      <c r="D101">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>117</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B103" t="s">
+        <v>22</v>
+      </c>
+      <c r="C103">
+        <v>99</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="C104">
+        <v>81</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B105" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105">
+        <v>59</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B106" t="s">
+        <v>19</v>
+      </c>
+      <c r="C106">
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B107" t="s">
+        <v>23</v>
+      </c>
+      <c r="C107">
+        <v>62</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>56</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
+        <v>113</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B110" t="s">
+        <v>19</v>
+      </c>
+      <c r="C110">
+        <v>89</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B111" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111">
+        <v>202</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B112" t="s">
+        <v>19</v>
+      </c>
+      <c r="C112">
+        <v>57</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B113" t="s">
+        <v>63</v>
+      </c>
+      <c r="C113">
+        <v>120</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B114" t="s">
+        <v>63</v>
+      </c>
+      <c r="C114">
+        <v>151</v>
+      </c>
+      <c r="D114">
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B115" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115">
+        <v>114</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B116" t="s">
+        <v>19</v>
+      </c>
+      <c r="C116">
+        <v>80</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="C117">
+        <v>959</v>
+      </c>
+      <c r="D117">
+        <v>151</v>
+      </c>
+      <c r="E117" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B118" t="s">
+        <v>19</v>
+      </c>
+      <c r="C118">
+        <v>133</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B119" t="s">
+        <v>63</v>
+      </c>
+      <c r="C119">
+        <v>86</v>
+      </c>
+      <c r="D119">
+        <v>0</v>
+      </c>
+      <c r="E119" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B120" t="s">
+        <v>19</v>
+      </c>
+      <c r="C120">
+        <v>63</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>45011</v>
+      </c>
+      <c r="B121" t="s">
+        <v>40</v>
+      </c>
+      <c r="C121">
+        <v>274</v>
+      </c>
+      <c r="D121">
+        <v>22</v>
+      </c>
+      <c r="E121" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>45009</v>
+      </c>
+      <c r="B122" t="s">
+        <v>63</v>
+      </c>
+      <c r="C122">
+        <v>90</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B123" t="s">
+        <v>40</v>
+      </c>
+      <c r="C123">
+        <v>865</v>
+      </c>
+      <c r="D123">
+        <v>28</v>
+      </c>
+      <c r="E123" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B124" t="s">
+        <v>19</v>
+      </c>
+      <c r="C124">
+        <v>76</v>
+      </c>
+      <c r="D124">
+        <v>0</v>
+      </c>
+      <c r="E124" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B125" t="s">
+        <v>23</v>
+      </c>
+      <c r="C125">
+        <v>101</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B126" t="s">
+        <v>23</v>
+      </c>
+      <c r="C126">
+        <v>81</v>
+      </c>
+      <c r="D126">
+        <v>0</v>
+      </c>
+      <c r="E126" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B127" t="s">
+        <v>19</v>
+      </c>
+      <c r="C127">
+        <v>232</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B128" t="s">
+        <v>21</v>
+      </c>
+      <c r="C128">
+        <v>105</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>264</v>
+      </c>
+      <c r="D129">
+        <v>0</v>
+      </c>
+      <c r="E129" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>152</v>
+      </c>
+      <c r="D130">
+        <v>0</v>
+      </c>
+      <c r="E130" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B131" t="s">
+        <v>18</v>
+      </c>
+      <c r="C131">
+        <v>278</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>155</v>
+      </c>
+      <c r="D132">
+        <v>0</v>
+      </c>
+      <c r="E132" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>122</v>
+      </c>
+      <c r="D133">
+        <v>5</v>
+      </c>
+      <c r="E133" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>691</v>
+      </c>
+      <c r="D134">
+        <v>13</v>
+      </c>
+      <c r="E134" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135">
+        <v>270</v>
+      </c>
+      <c r="D135">
+        <v>0</v>
+      </c>
+      <c r="E135" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B136" t="s">
+        <v>19</v>
+      </c>
+      <c r="C136">
+        <v>864</v>
+      </c>
+      <c r="D136">
+        <v>23</v>
+      </c>
+      <c r="E136" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B137" t="s">
+        <v>21</v>
+      </c>
+      <c r="C137">
+        <v>97</v>
+      </c>
+      <c r="D137">
+        <v>0</v>
+      </c>
+      <c r="E137" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>440</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A139" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B139" t="s">
+        <v>18</v>
+      </c>
+      <c r="C139">
+        <v>296</v>
+      </c>
+      <c r="D139">
+        <v>12</v>
+      </c>
+      <c r="E139" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A140" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B140" t="s">
+        <v>20</v>
+      </c>
+      <c r="C140">
+        <v>80</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B141" t="s">
+        <v>22</v>
+      </c>
+      <c r="C141">
+        <v>195</v>
+      </c>
+      <c r="D141">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A142" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B142" t="s">
+        <v>29</v>
+      </c>
+      <c r="C142">
+        <v>110</v>
+      </c>
+      <c r="D142">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B143" t="s">
+        <v>63</v>
+      </c>
+      <c r="C143">
+        <v>512</v>
+      </c>
+      <c r="D143">
+        <v>30</v>
+      </c>
+      <c r="E143" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>264</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A145" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B145" t="s">
+        <v>18</v>
+      </c>
+      <c r="C145">
+        <v>470</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B146" t="s">
+        <v>18</v>
+      </c>
+      <c r="C146">
+        <v>1143</v>
+      </c>
+      <c r="D146">
+        <v>8</v>
+      </c>
+      <c r="E146" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B147" t="s">
+        <v>18</v>
+      </c>
+      <c r="C147">
+        <v>306</v>
+      </c>
+      <c r="D147">
+        <v>7</v>
+      </c>
+      <c r="E147" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2"/>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
+    <sortCondition descending="1" ref="A118:A162"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92892356-4B9D-41CD-BE4A-8191C67F6A84}">
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2">
+        <v>105</v>
+      </c>
+      <c r="D2">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>347</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>194</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5">
+        <v>167</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45086</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>3181</v>
+      </c>
+      <c r="D6">
+        <v>188</v>
+      </c>
+      <c r="E6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>1089</v>
+      </c>
+      <c r="D7">
+        <v>37</v>
+      </c>
+      <c r="E7" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45082</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8">
+        <v>595</v>
+      </c>
+      <c r="D8">
+        <v>5</v>
+      </c>
+      <c r="E8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9">
+        <v>258</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10">
+        <v>113</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11">
+        <v>416</v>
+      </c>
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B12" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12">
+        <v>532</v>
+      </c>
+      <c r="D12">
+        <v>12</v>
+      </c>
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13">
+        <v>124</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>109</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15">
+        <v>133</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16">
+        <v>220</v>
+      </c>
+      <c r="D16">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17">
+        <v>385</v>
+      </c>
+      <c r="D17">
+        <v>2</v>
+      </c>
+      <c r="E17" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45069</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>189</v>
+      </c>
+      <c r="D18">
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45068</v>
+      </c>
+      <c r="B19" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19">
+        <v>148</v>
+      </c>
+      <c r="D19">
+        <v>20</v>
+      </c>
+      <c r="E19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45067</v>
+      </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>153</v>
+      </c>
+      <c r="D20">
+        <v>2</v>
+      </c>
+      <c r="E20" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21">
+        <v>166</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B22" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22">
+        <v>194</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23">
+        <v>3672</v>
+      </c>
+      <c r="D23">
+        <v>155</v>
+      </c>
+      <c r="E23" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25">
+        <v>121</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+      <c r="E25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26">
+        <v>161</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27">
+        <v>182</v>
+      </c>
+      <c r="D27">
+        <v>2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28">
+        <v>207</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B29" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29">
+        <v>108</v>
+      </c>
+      <c r="D29">
+        <v>10</v>
+      </c>
+      <c r="E29" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+      <c r="C30">
+        <v>153</v>
+      </c>
+      <c r="D30">
+        <v>3</v>
+      </c>
+      <c r="E30" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <v>321</v>
+      </c>
+      <c r="D31">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E981620-C8DC-4991-BE0E-1E2BBD2B0740}">
+  <dimension ref="A1:E135"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2">
+        <v>13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>63</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>29</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5">
+        <v>100</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6">
+        <v>75</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7">
+        <v>65</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8">
+        <v>134</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>28</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>52</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>17</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12">
+        <v>34</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B13" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13">
+        <v>20</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14">
+        <v>69</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15">
+        <v>69</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16">
+        <v>191</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17">
+        <v>43</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>57</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19">
+        <v>32</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>44</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21">
+        <v>27</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22">
+        <v>100</v>
+      </c>
+      <c r="D22">
+        <v>3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23">
+        <v>104</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45084</v>
+      </c>
+      <c r="B24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24">
+        <v>154</v>
+      </c>
+      <c r="D24">
+        <v>2</v>
+      </c>
+      <c r="E24" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>55</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B26" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26">
+        <v>17</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27">
+        <v>67</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B28" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28">
+        <v>59</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29">
+        <v>71</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B31" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31">
+        <v>43</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C32">
+        <v>79</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+      <c r="C33">
+        <v>80</v>
+      </c>
+      <c r="D33">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B34" t="s">
+        <v>22</v>
+      </c>
+      <c r="C34">
+        <v>87</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>25</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36">
+        <v>57</v>
+      </c>
+      <c r="D36">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B37" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37">
+        <v>55</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45059</v>
+      </c>
+      <c r="B38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C38">
+        <v>119</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45058</v>
+      </c>
+      <c r="B39" t="s">
+        <v>19</v>
+      </c>
+      <c r="C39">
+        <v>76</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C40">
+        <v>56</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45055</v>
+      </c>
+      <c r="B41" t="s">
+        <v>30</v>
+      </c>
+      <c r="C41">
+        <v>44</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B42" t="s">
+        <v>30</v>
+      </c>
+      <c r="C42">
+        <v>45</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B43" t="s">
+        <v>30</v>
+      </c>
+      <c r="C43">
+        <v>93</v>
+      </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
+      <c r="E43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44">
+        <v>88</v>
+      </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
+      <c r="E44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45">
+        <v>63</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45051</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>88</v>
+      </c>
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45050</v>
+      </c>
+      <c r="B47" t="s">
+        <v>37</v>
+      </c>
+      <c r="C47">
+        <v>113</v>
+      </c>
+      <c r="D47">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48">
+        <v>80</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>28</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B50" t="s">
+        <v>22</v>
+      </c>
+      <c r="C50">
+        <v>54</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>41</v>
+      </c>
+      <c r="D51">
+        <v>3</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52">
+        <v>22</v>
+      </c>
+      <c r="D52">
+        <v>3</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>63</v>
+      </c>
+      <c r="D53">
+        <v>3</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>44</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B55" t="s">
+        <v>22</v>
+      </c>
+      <c r="C55">
+        <v>39</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B56" t="s">
+        <v>21</v>
+      </c>
+      <c r="C56">
+        <v>95</v>
+      </c>
+      <c r="D56">
+        <v>2</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B57" t="s">
+        <v>21</v>
+      </c>
+      <c r="C57">
+        <v>102</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>54</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B59" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59">
+        <v>27</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B60" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60">
+        <v>77</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C61">
+        <v>40</v>
+      </c>
+      <c r="D61">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B62" t="s">
+        <v>21</v>
+      </c>
+      <c r="C62">
+        <v>60</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63">
+        <v>54</v>
+      </c>
+      <c r="D63">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B64" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64">
+        <v>58</v>
+      </c>
+      <c r="D64">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65">
+        <v>40</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B66" t="s">
+        <v>22</v>
+      </c>
+      <c r="C66">
+        <v>38</v>
+      </c>
+      <c r="D66">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>45029</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>73</v>
+      </c>
+      <c r="D67">
+        <v>3</v>
+      </c>
+      <c r="E67" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C68">
+        <v>85</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>45028</v>
+      </c>
+      <c r="B69" t="s">
+        <v>30</v>
+      </c>
+      <c r="C69">
+        <v>43</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="C70">
+        <v>68</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71">
+        <v>70</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>45026</v>
+      </c>
+      <c r="B72" t="s">
+        <v>30</v>
+      </c>
+      <c r="C72">
+        <v>75</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>45025</v>
+      </c>
+      <c r="B73" t="s">
+        <v>30</v>
+      </c>
+      <c r="C73">
+        <v>89</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B74" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74">
+        <v>69</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B75" t="s">
+        <v>30</v>
+      </c>
+      <c r="C75">
+        <v>72</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B76" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76">
+        <v>12</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B77" t="s">
+        <v>30</v>
+      </c>
+      <c r="C77">
+        <v>65</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B78" t="s">
+        <v>30</v>
+      </c>
+      <c r="C78">
+        <v>69</v>
+      </c>
+      <c r="D78">
+        <v>0</v>
+      </c>
+      <c r="E78" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B79" t="s">
+        <v>30</v>
+      </c>
+      <c r="C79">
+        <v>115</v>
+      </c>
+      <c r="D79">
+        <v>8</v>
+      </c>
+      <c r="E79" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B80" t="s">
+        <v>30</v>
+      </c>
+      <c r="C80">
+        <v>53</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81">
+        <v>55</v>
+      </c>
+      <c r="D81">
+        <v>0</v>
+      </c>
+      <c r="E81" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B82" t="s">
+        <v>40</v>
+      </c>
+      <c r="C82">
+        <v>34</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>54</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>67</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B85" t="s">
+        <v>22</v>
+      </c>
+      <c r="C85">
+        <v>96</v>
+      </c>
+      <c r="D85">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B86" t="s">
+        <v>22</v>
+      </c>
+      <c r="C86">
+        <v>120</v>
+      </c>
+      <c r="D86">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B87" t="s">
+        <v>22</v>
+      </c>
+      <c r="C87">
+        <v>38</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B88" t="s">
+        <v>22</v>
+      </c>
+      <c r="C88">
+        <v>170</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B89" t="s">
+        <v>30</v>
+      </c>
+      <c r="C89">
+        <v>56</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B90" t="s">
+        <v>30</v>
+      </c>
+      <c r="C90">
+        <v>52</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B91" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91">
+        <v>53</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>112</v>
+      </c>
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B93" t="s">
+        <v>40</v>
+      </c>
+      <c r="C93">
+        <v>57</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B94" t="s">
+        <v>22</v>
+      </c>
+      <c r="C94">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>51</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B96" t="s">
+        <v>22</v>
+      </c>
+      <c r="C96">
+        <v>38</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B97" t="s">
+        <v>36</v>
+      </c>
+      <c r="C97">
+        <v>75</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B98" t="s">
+        <v>22</v>
+      </c>
+      <c r="C98">
+        <v>27</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B99" t="s">
+        <v>21</v>
+      </c>
+      <c r="C99">
+        <v>219</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B100" t="s">
+        <v>21</v>
+      </c>
+      <c r="C100">
+        <v>54</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+      <c r="E100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B101" t="s">
+        <v>23</v>
+      </c>
+      <c r="C101">
+        <v>52</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B102" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102">
+        <v>35</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+      <c r="E102" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B103" t="s">
+        <v>36</v>
+      </c>
+      <c r="C103">
+        <v>57</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+      <c r="E103" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>61</v>
+      </c>
+      <c r="D104">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45004</v>
+      </c>
+      <c r="B105" t="s">
+        <v>18</v>
+      </c>
+      <c r="C105">
+        <v>31</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B106" t="s">
+        <v>25</v>
+      </c>
+      <c r="C106">
+        <v>42</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="C107">
+        <v>54</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B108" t="s">
+        <v>18</v>
+      </c>
+      <c r="C108">
+        <v>48</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B109" t="s">
+        <v>25</v>
+      </c>
+      <c r="C109">
+        <v>37</v>
+      </c>
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>70</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B111" t="s">
+        <v>25</v>
+      </c>
+      <c r="C111">
+        <v>70</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>55</v>
+      </c>
+      <c r="D112">
+        <v>0</v>
+      </c>
+      <c r="E112" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B113" t="s">
+        <v>25</v>
+      </c>
+      <c r="C113">
+        <v>55</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B114" t="s">
+        <v>18</v>
+      </c>
+      <c r="C114">
+        <v>68</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B115" t="s">
+        <v>22</v>
+      </c>
+      <c r="C115">
+        <v>52</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>37</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117">
+        <v>42</v>
+      </c>
+      <c r="D117">
+        <v>0</v>
+      </c>
+      <c r="E117" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B118" t="s">
+        <v>18</v>
+      </c>
+      <c r="C118">
+        <v>71</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44997</v>
+      </c>
+      <c r="B119" t="s">
+        <v>18</v>
+      </c>
+      <c r="C119">
+        <v>78</v>
+      </c>
+      <c r="D119">
+        <v>4</v>
+      </c>
+      <c r="E119" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B120" t="s">
+        <v>18</v>
+      </c>
+      <c r="C120">
+        <v>52</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B121" t="s">
+        <v>25</v>
+      </c>
+      <c r="C121">
+        <v>110</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>48</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="C123">
+        <v>39</v>
+      </c>
+      <c r="D123">
+        <v>2</v>
+      </c>
+      <c r="E123" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B124" t="s">
+        <v>22</v>
+      </c>
+      <c r="C124">
+        <v>136</v>
+      </c>
+      <c r="D124">
+        <v>8</v>
+      </c>
+      <c r="E124" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125">
+        <v>24</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B126" t="s">
+        <v>22</v>
+      </c>
+      <c r="C126">
+        <v>96</v>
+      </c>
+      <c r="D126">
+        <v>9</v>
+      </c>
+      <c r="E126" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B127" t="s">
+        <v>22</v>
+      </c>
+      <c r="C127">
+        <v>49</v>
+      </c>
+      <c r="D127">
+        <v>0</v>
+      </c>
+      <c r="E127" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A128" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B128" t="s">
+        <v>22</v>
+      </c>
+      <c r="C128">
+        <v>34</v>
+      </c>
+      <c r="D128">
+        <v>0</v>
+      </c>
+      <c r="E128" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B129" t="s">
+        <v>18</v>
+      </c>
+      <c r="C129">
+        <v>47</v>
+      </c>
+      <c r="D129">
+        <v>3</v>
+      </c>
+      <c r="E129" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>67</v>
+      </c>
+      <c r="D130">
+        <v>3</v>
+      </c>
+      <c r="E130" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A131" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B131" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131">
+        <v>61</v>
+      </c>
+      <c r="D131">
+        <v>0</v>
+      </c>
+      <c r="E131" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B132" t="s">
+        <v>18</v>
+      </c>
+      <c r="C132">
+        <v>66</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B133" t="s">
+        <v>18</v>
+      </c>
+      <c r="C133">
+        <v>79</v>
+      </c>
+      <c r="D133">
+        <v>2</v>
+      </c>
+      <c r="E133" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A134" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B134" t="s">
+        <v>18</v>
+      </c>
+      <c r="C134">
+        <v>136</v>
+      </c>
+      <c r="D134">
+        <v>5</v>
+      </c>
+      <c r="E134" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B135" t="s">
+        <v>40</v>
+      </c>
+      <c r="C135">
+        <v>58</v>
+      </c>
+      <c r="D135">
+        <v>3</v>
+      </c>
+      <c r="E135" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/data ice.xlsx
+++ b/data ice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dqlab\Fast Track Program\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44E58250-8BD2-41FD-B88A-A2B8FAA5951F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B1C8E-00C3-4484-868F-FDFBE898AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,17 @@
     <sheet name="ig_JIEXPO" sheetId="4" r:id="rId6"/>
     <sheet name="ig_JCC" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="653" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="123">
   <si>
     <t>Bulan</t>
   </si>
@@ -98,9 +87,18 @@
     <t>Jumlah Komentar</t>
   </si>
   <si>
+    <t>15/07/2023</t>
+  </si>
+  <si>
     <t>Pameran</t>
   </si>
   <si>
+    <t>Reminder</t>
+  </si>
+  <si>
+    <t>13/07/2023</t>
+  </si>
+  <si>
     <t>Promosi</t>
   </si>
   <si>
@@ -113,30 +111,162 @@
     <t>Repost</t>
   </si>
   <si>
+    <t>29/06/2023</t>
+  </si>
+  <si>
     <t>Peringatan Hari Raya</t>
   </si>
   <si>
+    <t>28/06/2023</t>
+  </si>
+  <si>
+    <t>27/06/2023</t>
+  </si>
+  <si>
+    <t>25/06/2023</t>
+  </si>
+  <si>
     <t>Olahraga</t>
   </si>
   <si>
+    <t>24/06/2023</t>
+  </si>
+  <si>
     <t>Konser</t>
   </si>
   <si>
+    <t>23/06/2023</t>
+  </si>
+  <si>
+    <t>22/06/2023</t>
+  </si>
+  <si>
+    <t>21/06/2023</t>
+  </si>
+  <si>
+    <t>20/06/2023</t>
+  </si>
+  <si>
     <t>Gedung</t>
   </si>
   <si>
+    <t>19/06/2023</t>
+  </si>
+  <si>
     <t>Nikahan</t>
   </si>
   <si>
     <t>Perayaan</t>
   </si>
   <si>
+    <t>31/05/2023</t>
+  </si>
+  <si>
+    <t>30/05/2023</t>
+  </si>
+  <si>
+    <t>27/05/2023</t>
+  </si>
+  <si>
+    <t>26/05/2023</t>
+  </si>
+  <si>
+    <t>23/05/2023</t>
+  </si>
+  <si>
+    <t>22/05/2023</t>
+  </si>
+  <si>
+    <t>21/05/2023</t>
+  </si>
+  <si>
+    <t>19/05/2023</t>
+  </si>
+  <si>
+    <t>18/05/2023</t>
+  </si>
+  <si>
+    <t>16/05/2023</t>
+  </si>
+  <si>
+    <t>15/05/2023</t>
+  </si>
+  <si>
+    <t>13/05/2023</t>
+  </si>
+  <si>
+    <t>29/04/2023</t>
+  </si>
+  <si>
+    <t>28/04/2023</t>
+  </si>
+  <si>
+    <t>27/04/2023</t>
+  </si>
+  <si>
+    <t>21/04/2023</t>
+  </si>
+  <si>
+    <t>16/04/2023</t>
+  </si>
+  <si>
+    <t>15/04/2023</t>
+  </si>
+  <si>
+    <t>14/04/2023</t>
+  </si>
+  <si>
+    <t>13/04/2023</t>
+  </si>
+  <si>
+    <t>31/03/2023</t>
+  </si>
+  <si>
+    <t>30/03/2023</t>
+  </si>
+  <si>
+    <t>29/03/2023</t>
+  </si>
+  <si>
+    <t>27/03/2023</t>
+  </si>
+  <si>
+    <t>22/03/2023</t>
+  </si>
+  <si>
+    <t>21/03/2023</t>
+  </si>
+  <si>
+    <t>19/03/2023</t>
+  </si>
+  <si>
+    <t>18/03/2023</t>
+  </si>
+  <si>
+    <t>17/03/2023</t>
+  </si>
+  <si>
+    <t>16/03/2023</t>
+  </si>
+  <si>
+    <t>15/03/2023</t>
+  </si>
+  <si>
+    <t>14/03/2023</t>
+  </si>
+  <si>
+    <t>13/03/2023</t>
+  </si>
+  <si>
     <t>Seminar &amp; Workshop</t>
   </si>
   <si>
     <t>Festival</t>
   </si>
   <si>
+    <t>Perayaan Idul Adha</t>
+  </si>
+  <si>
     <t>Peringatan HUT Jakarta</t>
   </si>
   <si>
@@ -149,15 +279,33 @@
     <t>Perayaan Waisak</t>
   </si>
   <si>
+    <t>Perayaan Hari Pancasila</t>
+  </si>
+  <si>
     <t>Kontes</t>
   </si>
   <si>
+    <t>Peringatan Kenaikan Isa Alamasih</t>
+  </si>
+  <si>
     <t>Konferensi</t>
   </si>
   <si>
+    <t>Perayaan HUT</t>
+  </si>
+  <si>
     <t>Halal Bihalal</t>
   </si>
   <si>
+    <t>Peringatan Hari Buruh</t>
+  </si>
+  <si>
+    <t>Perayaan Idul Fitri</t>
+  </si>
+  <si>
+    <t>Perayaan Hari Kartini</t>
+  </si>
+  <si>
     <t>Turnamen</t>
   </si>
   <si>
@@ -170,6 +318,15 @@
     <t>Buka Bersama</t>
   </si>
   <si>
+    <t>Peringatan Jumat Agung</t>
+  </si>
+  <si>
+    <t>Peringatan Bulan Ramadhan</t>
+  </si>
+  <si>
+    <t>Peringatan Nyepi</t>
+  </si>
+  <si>
     <t>Peringatan Idul adha</t>
   </si>
   <si>
@@ -230,22 +387,19 @@
     <t>Visitor</t>
   </si>
   <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>Festifal</t>
+    <t>17/07/2023</t>
+  </si>
+  <si>
+    <t>30/06/2023</t>
+  </si>
+  <si>
+    <t>26/06/2023</t>
+  </si>
+  <si>
+    <t>25/03/2023</t>
   </si>
   <si>
     <t xml:space="preserve">Pertanyaan </t>
-  </si>
-  <si>
-    <t>Perusahaan</t>
-  </si>
-  <si>
-    <t>JIEXPO</t>
-  </si>
-  <si>
-    <t>JCC</t>
   </si>
 </sst>
 </file>
@@ -281,10 +435,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -602,12 +757,12 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -636,7 +791,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -665,7 +820,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -694,7 +849,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -723,7 +878,7 @@
         <v>30890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -752,7 +907,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -781,7 +936,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -810,7 +965,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -839,7 +994,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -868,7 +1023,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -897,7 +1052,7 @@
         <v>67150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -926,7 +1081,7 @@
         <v>72874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -955,7 +1110,7 @@
         <v>63256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -984,7 +1139,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1013,7 +1168,7 @@
         <v>19765</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1042,7 +1197,7 @@
         <v>36555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1081,20 +1236,20 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="B1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1102,7 +1257,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1110,7 +1265,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1118,7 +1273,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1126,7 +1281,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1134,7 +1289,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1142,7 +1297,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1150,7 +1305,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1158,7 +1313,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1179,17 +1334,17 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>60</v>
+        <v>116</v>
       </c>
       <c r="B1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1197,7 +1352,7 @@
         <v>235595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1205,7 +1360,7 @@
         <v>1499357</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1213,7 +1368,7 @@
         <v>2530150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1221,7 +1376,7 @@
         <v>2947567</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1229,7 +1384,7 @@
         <v>2728421</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1237,7 +1392,7 @@
         <v>1165343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1245,7 +1400,7 @@
         <v>345093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1266,9 +1421,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1285,7 +1440,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1303,7 +1458,7 @@
         <v>6.8300475978720954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -1321,7 +1476,7 @@
         <v>6.8225896584596173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -1339,7 +1494,7 @@
         <v>14.913402873450107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -1357,7 +1512,7 @@
         <v>7.879569611572812</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -1375,7 +1530,7 @@
         <v>4.9306068818263942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -1393,7 +1548,7 @@
         <v>12.788722271227417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -1411,7 +1566,7 @@
         <v>9.0671047067625139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1429,7 +1584,7 @@
         <v>16.135623523402082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1447,7 +1602,7 @@
         <v>30.989394383809067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1465,7 +1620,7 @@
         <v>28.21288901541827</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1483,7 +1638,7 @@
         <v>18.460997994642621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1501,7 +1656,7 @@
         <v>15.12099108486743</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1519,7 +1674,7 @@
         <v>13.856976056967408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1537,7 +1692,7 @@
         <v>19.158865367855839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1555,7 +1710,7 @@
         <v>60.546177568576532</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45017</v>
       </c>
@@ -1573,7 +1728,7 @@
         <v>10.337609723160027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45047</v>
       </c>
@@ -1598,22 +1753,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F2EAE-4643-4EEB-BCC2-1FDB6DC397DA}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="G131" sqref="G131"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="G79" sqref="G79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1626,16 +1774,13 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45122</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>105</v>
@@ -1643,16 +1788,13 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45121</v>
       </c>
       <c r="B3" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>135</v>
@@ -1660,16 +1802,13 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45120</v>
       </c>
       <c r="B4" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -1677,16 +1816,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45119</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C5">
         <v>485</v>
@@ -1694,16 +1830,13 @@
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45119</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C6">
         <v>66</v>
@@ -1711,16 +1844,13 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45118</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1728,16 +1858,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45116</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -1745,16 +1872,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45116</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -1762,16 +1886,13 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45115</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10">
         <v>226</v>
@@ -1779,16 +1900,13 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45115</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C11">
         <v>122</v>
@@ -1796,16 +1914,13 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45114</v>
       </c>
       <c r="B12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12">
         <v>628</v>
@@ -1813,16 +1928,13 @@
       <c r="D12">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45113</v>
       </c>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13">
         <v>93</v>
@@ -1830,16 +1942,13 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45112</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -1847,16 +1956,13 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45111</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C15">
         <v>62</v>
@@ -1864,16 +1970,13 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45110</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C16">
         <v>265</v>
@@ -1881,16 +1984,13 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45110</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C17">
         <v>78</v>
@@ -1898,16 +1998,13 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45109</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C18">
         <v>230</v>
@@ -1915,16 +2012,13 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45108</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19">
         <v>158</v>
@@ -1932,16 +2026,13 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45106</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>78</v>
@@ -1949,16 +2040,13 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45105</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C21">
         <v>528</v>
@@ -1966,16 +2054,13 @@
       <c r="D21">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45105</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>63</v>
@@ -1983,16 +2068,13 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45104</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2000,16 +2082,13 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45102</v>
       </c>
       <c r="B24" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C24">
         <v>74</v>
@@ -2017,16 +2096,13 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45100</v>
       </c>
       <c r="B25" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C25">
         <v>119</v>
@@ -2034,16 +2110,13 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45099</v>
       </c>
       <c r="B26" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C26">
         <v>591</v>
@@ -2051,16 +2124,13 @@
       <c r="D26">
         <v>16</v>
       </c>
-      <c r="E26" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45099</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2068,16 +2138,13 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45099</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C28">
         <v>75</v>
@@ -2085,16 +2152,13 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45098</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>186</v>
@@ -2102,16 +2166,13 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45097</v>
       </c>
       <c r="B30" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C30">
         <v>180</v>
@@ -2119,16 +2180,13 @@
       <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45097</v>
       </c>
       <c r="B31" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="C31">
         <v>107</v>
@@ -2136,16 +2194,13 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45096</v>
       </c>
       <c r="B32" t="s">
-        <v>27</v>
+        <v>40</v>
       </c>
       <c r="C32">
         <v>119</v>
@@ -2153,16 +2208,13 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45095</v>
       </c>
       <c r="B33" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C33">
         <v>517</v>
@@ -2170,16 +2222,13 @@
       <c r="D33">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45094</v>
       </c>
       <c r="B34" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C34">
         <v>108</v>
@@ -2187,16 +2236,13 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45093</v>
       </c>
       <c r="B35" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C35">
         <v>526</v>
@@ -2204,16 +2250,13 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45093</v>
       </c>
       <c r="B36" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C36">
         <v>215</v>
@@ -2221,16 +2264,13 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45091</v>
       </c>
       <c r="B37" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -2238,16 +2278,13 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45090</v>
       </c>
       <c r="B38" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C38">
         <v>276</v>
@@ -2255,16 +2292,13 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45090</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C39">
         <v>241</v>
@@ -2272,16 +2306,13 @@
       <c r="D39">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45090</v>
       </c>
       <c r="B40" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C40">
         <v>63</v>
@@ -2289,16 +2320,13 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45089</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -2306,16 +2334,13 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45088</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>250</v>
@@ -2323,16 +2348,13 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45087</v>
       </c>
       <c r="B43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>157</v>
@@ -2340,16 +2362,13 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45087</v>
       </c>
       <c r="B44" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>76</v>
@@ -2357,16 +2376,13 @@
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45086</v>
       </c>
       <c r="B45" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C45">
         <v>58</v>
@@ -2374,16 +2390,13 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45085</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>113</v>
@@ -2391,16 +2404,13 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45084</v>
       </c>
       <c r="B47" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C47">
         <v>63</v>
@@ -2408,16 +2418,13 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45083</v>
       </c>
       <c r="B48" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C48">
         <v>67</v>
@@ -2425,16 +2432,13 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45082</v>
       </c>
       <c r="B49" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C49">
         <v>165</v>
@@ -2442,16 +2446,13 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45081</v>
       </c>
       <c r="B50" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C50">
         <v>310</v>
@@ -2459,16 +2460,13 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45081</v>
       </c>
       <c r="B51" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C51">
         <v>155</v>
@@ -2476,16 +2474,13 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45081</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C52">
         <v>76</v>
@@ -2493,16 +2488,13 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45080</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C53">
         <v>157</v>
@@ -2510,16 +2502,13 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45079</v>
       </c>
       <c r="B54" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C54">
         <v>263</v>
@@ -2527,16 +2516,13 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45078</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C55">
         <v>134</v>
@@ -2544,16 +2530,13 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45077</v>
       </c>
       <c r="B56" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C56">
         <v>554</v>
@@ -2561,16 +2544,13 @@
       <c r="D56">
         <v>77</v>
       </c>
-      <c r="E56" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45076</v>
       </c>
       <c r="B57" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C57">
         <v>385</v>
@@ -2578,16 +2558,13 @@
       <c r="D57">
         <v>10</v>
       </c>
-      <c r="E57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45075</v>
       </c>
       <c r="B58" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C58">
         <v>801</v>
@@ -2595,16 +2572,13 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45074</v>
       </c>
       <c r="B59" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C59">
         <v>652</v>
@@ -2612,16 +2586,13 @@
       <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45073</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C60">
         <v>878</v>
@@ -2629,16 +2600,13 @@
       <c r="D60">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45072</v>
       </c>
       <c r="B61" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C61">
         <v>954</v>
@@ -2646,16 +2614,13 @@
       <c r="D61">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45071</v>
       </c>
       <c r="B62" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C62">
         <v>256</v>
@@ -2663,16 +2628,13 @@
       <c r="D62">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45070</v>
       </c>
       <c r="B63" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C63">
         <v>192</v>
@@ -2680,16 +2642,13 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45069</v>
       </c>
       <c r="B64" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C64">
         <v>560</v>
@@ -2697,16 +2656,13 @@
       <c r="D64">
         <v>31</v>
       </c>
-      <c r="E64" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45069</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C65">
         <v>211</v>
@@ -2714,16 +2670,13 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45068</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C66">
         <v>106</v>
@@ -2731,16 +2684,13 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45067</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C67">
         <v>92</v>
@@ -2748,16 +2698,13 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45065</v>
       </c>
       <c r="B68" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C68">
         <v>789</v>
@@ -2765,16 +2712,13 @@
       <c r="D68">
         <v>36</v>
       </c>
-      <c r="E68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45064</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C69">
         <v>76</v>
@@ -2782,16 +2726,13 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45063</v>
       </c>
       <c r="B70" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C70">
         <v>235</v>
@@ -2799,16 +2740,13 @@
       <c r="D70">
         <v>9</v>
       </c>
-      <c r="E70" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45062</v>
       </c>
       <c r="B71" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C71">
         <v>258</v>
@@ -2816,16 +2754,13 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45061</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C72">
         <v>174</v>
@@ -2833,16 +2768,13 @@
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45060</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C73">
         <v>1152</v>
@@ -2850,16 +2782,13 @@
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45059</v>
       </c>
       <c r="B74" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C74">
         <v>1098</v>
@@ -2867,16 +2796,13 @@
       <c r="D74">
         <v>25</v>
       </c>
-      <c r="E74" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45058</v>
       </c>
       <c r="B75" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C75">
         <v>121</v>
@@ -2884,16 +2810,13 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45057</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C76">
         <v>685</v>
@@ -2901,16 +2824,13 @@
       <c r="D76">
         <v>32</v>
       </c>
-      <c r="E76" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45056</v>
       </c>
       <c r="B77" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C77">
         <v>233</v>
@@ -2918,16 +2838,13 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45055</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C78">
         <v>450</v>
@@ -2935,16 +2852,13 @@
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45054</v>
       </c>
       <c r="B79" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C79">
         <v>93</v>
@@ -2952,16 +2866,13 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45053</v>
       </c>
       <c r="B80" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>521</v>
@@ -2969,16 +2880,13 @@
       <c r="D80">
         <v>4</v>
       </c>
-      <c r="E80" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45051</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C81">
         <v>1044</v>
@@ -2986,16 +2894,13 @@
       <c r="D81">
         <v>12</v>
       </c>
-      <c r="E81" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45051</v>
       </c>
       <c r="B82" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C82">
         <v>771</v>
@@ -3003,16 +2908,13 @@
       <c r="D82">
         <v>29</v>
       </c>
-      <c r="E82" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45051</v>
       </c>
       <c r="B83" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C83">
         <v>219</v>
@@ -3020,16 +2922,13 @@
       <c r="D83">
         <v>3</v>
       </c>
-      <c r="E83" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45049</v>
       </c>
       <c r="B84" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C84">
         <v>381</v>
@@ -3037,16 +2936,13 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45048</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C85">
         <v>35</v>
@@ -3054,16 +2950,13 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45047</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C86">
         <v>71</v>
@@ -3071,16 +2964,13 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45046</v>
       </c>
       <c r="B87" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C87">
         <v>96</v>
@@ -3088,16 +2978,13 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45044</v>
       </c>
       <c r="B88" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C88">
         <v>62</v>
@@ -3105,16 +2992,13 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45043</v>
       </c>
       <c r="B89" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C89">
         <v>125</v>
@@ -3122,16 +3006,13 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45042</v>
       </c>
       <c r="B90" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C90">
         <v>78</v>
@@ -3139,16 +3020,13 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45041</v>
       </c>
       <c r="B91" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C91">
         <v>55</v>
@@ -3156,16 +3034,13 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45040</v>
       </c>
       <c r="B92" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C92">
         <v>169</v>
@@ -3173,16 +3048,13 @@
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45039</v>
       </c>
       <c r="B93" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C93">
         <v>540</v>
@@ -3190,16 +3062,13 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45038</v>
       </c>
       <c r="B94" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C94">
         <v>15</v>
@@ -3207,16 +3076,13 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45037</v>
       </c>
       <c r="B95" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C95">
         <v>55</v>
@@ -3224,16 +3090,13 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45036</v>
       </c>
       <c r="B96" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C96">
         <v>43</v>
@@ -3241,16 +3104,13 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45035</v>
       </c>
       <c r="B97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C97">
         <v>73</v>
@@ -3258,16 +3118,13 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45034</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C98">
         <v>48</v>
@@ -3275,16 +3132,13 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45033</v>
       </c>
       <c r="B99" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C99">
         <v>35</v>
@@ -3292,16 +3146,13 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45032</v>
       </c>
       <c r="B100" t="s">
-        <v>64</v>
+        <v>122</v>
       </c>
       <c r="C100">
         <v>488</v>
@@ -3309,16 +3160,13 @@
       <c r="D100">
         <v>52</v>
       </c>
-      <c r="E100" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45031</v>
       </c>
       <c r="B101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C101">
         <v>896</v>
@@ -3326,16 +3174,13 @@
       <c r="D101">
         <v>22</v>
       </c>
-      <c r="E101" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45030</v>
       </c>
       <c r="B102" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C102">
         <v>117</v>
@@ -3343,16 +3188,13 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45029</v>
       </c>
       <c r="B103" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C103">
         <v>99</v>
@@ -3360,16 +3202,13 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45028</v>
       </c>
       <c r="B104" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C104">
         <v>81</v>
@@ -3377,16 +3216,13 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45027</v>
       </c>
       <c r="B105" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C105">
         <v>59</v>
@@ -3394,16 +3230,13 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45026</v>
       </c>
       <c r="B106" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C106">
         <v>55</v>
@@ -3411,16 +3244,13 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45025</v>
       </c>
       <c r="B107" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C107">
         <v>62</v>
@@ -3428,16 +3258,13 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45024</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>56</v>
@@ -3445,16 +3272,13 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45022</v>
       </c>
       <c r="B109" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C109">
         <v>113</v>
@@ -3462,16 +3286,13 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45021</v>
       </c>
       <c r="B110" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C110">
         <v>89</v>
@@ -3479,16 +3300,13 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45020</v>
       </c>
       <c r="B111" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C111">
         <v>202</v>
@@ -3496,16 +3314,13 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45020</v>
       </c>
       <c r="B112" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C112">
         <v>57</v>
@@ -3513,16 +3328,13 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45018</v>
       </c>
       <c r="B113" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C113">
         <v>120</v>
@@ -3530,16 +3342,13 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45017</v>
       </c>
       <c r="B114" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C114">
         <v>151</v>
@@ -3547,16 +3356,13 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45016</v>
       </c>
       <c r="B115" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C115">
         <v>114</v>
@@ -3564,16 +3370,13 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45015</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C116">
         <v>80</v>
@@ -3581,16 +3384,13 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45014</v>
       </c>
       <c r="B117" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C117">
         <v>959</v>
@@ -3598,16 +3398,13 @@
       <c r="D117">
         <v>151</v>
       </c>
-      <c r="E117" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45014</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C118">
         <v>133</v>
@@ -3615,16 +3412,13 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45013</v>
       </c>
       <c r="B119" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C119">
         <v>86</v>
@@ -3632,16 +3426,13 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45012</v>
       </c>
       <c r="B120" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C120">
         <v>63</v>
@@ -3649,16 +3440,13 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45011</v>
       </c>
       <c r="B121" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C121">
         <v>274</v>
@@ -3666,16 +3454,13 @@
       <c r="D121">
         <v>22</v>
       </c>
-      <c r="E121" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45009</v>
       </c>
       <c r="B122" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -3683,16 +3468,13 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45008</v>
       </c>
       <c r="B123" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C123">
         <v>865</v>
@@ -3700,16 +3482,13 @@
       <c r="D123">
         <v>28</v>
       </c>
-      <c r="E123" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45008</v>
       </c>
       <c r="B124" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C124">
         <v>76</v>
@@ -3717,16 +3496,13 @@
       <c r="D124">
         <v>0</v>
       </c>
-      <c r="E124" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45007</v>
       </c>
       <c r="B125" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C125">
         <v>101</v>
@@ -3734,16 +3510,13 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45007</v>
       </c>
       <c r="B126" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="C126">
         <v>81</v>
@@ -3751,16 +3524,13 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45006</v>
       </c>
       <c r="B127" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C127">
         <v>232</v>
@@ -3768,16 +3538,13 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45005</v>
       </c>
       <c r="B128" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C128">
         <v>105</v>
@@ -3785,16 +3552,13 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45004</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C129">
         <v>264</v>
@@ -3802,16 +3566,13 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45004</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C130">
         <v>152</v>
@@ -3819,16 +3580,13 @@
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45003</v>
       </c>
       <c r="B131" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C131">
         <v>278</v>
@@ -3836,16 +3594,13 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45002</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <v>155</v>
@@ -3853,16 +3608,13 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45002</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C133">
         <v>122</v>
@@ -3870,16 +3622,13 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45001</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C134">
         <v>691</v>
@@ -3887,16 +3636,13 @@
       <c r="D134">
         <v>13</v>
       </c>
-      <c r="E134" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45000</v>
       </c>
       <c r="B135" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C135">
         <v>270</v>
@@ -3904,16 +3650,13 @@
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44999</v>
       </c>
       <c r="B136" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C136">
         <v>864</v>
@@ -3921,16 +3664,13 @@
       <c r="D136">
         <v>23</v>
       </c>
-      <c r="E136" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44998</v>
       </c>
       <c r="B137" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C137">
         <v>97</v>
@@ -3938,16 +3678,13 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44997</v>
       </c>
       <c r="B138" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C138">
         <v>440</v>
@@ -3955,16 +3692,13 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44995</v>
       </c>
       <c r="B139" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C139">
         <v>296</v>
@@ -3972,16 +3706,13 @@
       <c r="D139">
         <v>12</v>
       </c>
-      <c r="E139" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44994</v>
       </c>
       <c r="B140" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C140">
         <v>80</v>
@@ -3989,16 +3720,13 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44993</v>
       </c>
       <c r="B141" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C141">
         <v>195</v>
@@ -4006,16 +3734,13 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44993</v>
       </c>
       <c r="B142" t="s">
-        <v>29</v>
+        <v>75</v>
       </c>
       <c r="C142">
         <v>110</v>
@@ -4023,16 +3748,13 @@
       <c r="D142">
         <v>2</v>
       </c>
-      <c r="E142" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44991</v>
       </c>
       <c r="B143" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="C143">
         <v>512</v>
@@ -4040,16 +3762,13 @@
       <c r="D143">
         <v>30</v>
       </c>
-      <c r="E143" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44990</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C144">
         <v>264</v>
@@ -4057,16 +3776,13 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44989</v>
       </c>
       <c r="B145" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C145">
         <v>470</v>
@@ -4074,16 +3790,13 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44987</v>
       </c>
       <c r="B146" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C146">
         <v>1143</v>
@@ -4091,16 +3804,13 @@
       <c r="D146">
         <v>8</v>
       </c>
-      <c r="E146" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44986</v>
       </c>
       <c r="B147" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C147">
         <v>306</v>
@@ -4108,56 +3818,218 @@
       <c r="D147">
         <v>7</v>
       </c>
-      <c r="E147" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A149" s="2"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A150" s="2"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A151" s="2"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A152" s="2"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A153" s="2"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A154" s="2"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A155" s="2"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A156" s="2"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A157" s="2"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A158" s="2"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A159" s="2"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A160" s="2"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="2"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="2"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148" t="s">
+        <v>24</v>
+      </c>
+      <c r="C148">
+        <v>97</v>
+      </c>
+      <c r="D148">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="2">
+        <v>45263</v>
+      </c>
+      <c r="B149" t="s">
+        <v>19</v>
+      </c>
+      <c r="C149">
+        <v>440</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="2">
+        <v>45233</v>
+      </c>
+      <c r="B150" t="s">
+        <v>20</v>
+      </c>
+      <c r="C150">
+        <v>1328</v>
+      </c>
+      <c r="D150">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="2">
+        <v>45202</v>
+      </c>
+      <c r="B151" t="s">
+        <v>19</v>
+      </c>
+      <c r="C151">
+        <v>296</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2">
+        <v>45171</v>
+      </c>
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="C152">
+        <v>80</v>
+      </c>
+      <c r="D152">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B153" t="s">
+        <v>75</v>
+      </c>
+      <c r="C153">
+        <v>110</v>
+      </c>
+      <c r="D153">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="2">
+        <v>45141</v>
+      </c>
+      <c r="B154" t="s">
+        <v>25</v>
+      </c>
+      <c r="C154">
+        <v>195</v>
+      </c>
+      <c r="D154">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B155" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155">
+        <v>14514</v>
+      </c>
+      <c r="D155">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B156" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156">
+        <v>512</v>
+      </c>
+      <c r="D156">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B157" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157">
+        <v>5534</v>
+      </c>
+      <c r="D157">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="2">
+        <v>45049</v>
+      </c>
+      <c r="B158" t="s">
+        <v>19</v>
+      </c>
+      <c r="C158">
+        <v>264</v>
+      </c>
+      <c r="D158">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B159" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159">
+        <v>6715</v>
+      </c>
+      <c r="D159">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B160" t="s">
+        <v>19</v>
+      </c>
+      <c r="C160">
+        <v>470</v>
+      </c>
+      <c r="D160">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="2">
+        <v>44960</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161">
+        <v>1143</v>
+      </c>
+      <c r="D161">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="2">
+        <v>44929</v>
+      </c>
+      <c r="B162" t="s">
+        <v>19</v>
+      </c>
+      <c r="C162">
+        <v>306</v>
+      </c>
+      <c r="D162">
+        <v>7</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
-    <sortCondition descending="1" ref="A118:A162"/>
-  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4165,22 +4037,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92892356-4B9D-41CD-BE4A-8191C67F6A84}">
-  <dimension ref="A1:E31"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E15"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4193,16 +4058,13 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45106</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="C2">
         <v>105</v>
@@ -4210,16 +4072,13 @@
       <c r="D2">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45105</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>28</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C3">
         <v>347</v>
@@ -4227,16 +4086,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45100</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>34</v>
       </c>
       <c r="B4" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
       <c r="C4">
         <v>194</v>
@@ -4244,16 +4100,13 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>45098</v>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="C5">
         <v>167</v>
@@ -4261,16 +4114,13 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45086</v>
+        <v>45175</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C6">
         <v>3181</v>
@@ -4278,16 +4128,13 @@
       <c r="D6">
         <v>188</v>
       </c>
-      <c r="E6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="B7" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C7">
         <v>1089</v>
@@ -4295,16 +4142,13 @@
       <c r="D7">
         <v>37</v>
       </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
-        <v>45082</v>
+        <v>45052</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C8">
         <v>595</v>
@@ -4312,16 +4156,13 @@
       <c r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B9" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="C9">
         <v>258</v>
@@ -4329,16 +4170,13 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B10" t="s">
-        <v>46</v>
+        <v>102</v>
       </c>
       <c r="C10">
         <v>113</v>
@@ -4346,16 +4184,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
-        <v>45080</v>
+        <v>44991</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C11">
         <v>416</v>
@@ -4363,16 +4198,13 @@
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="B12" t="s">
-        <v>47</v>
+        <v>103</v>
       </c>
       <c r="C12">
         <v>532</v>
@@ -4380,16 +4212,13 @@
       <c r="D12">
         <v>12</v>
       </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="C13">
         <v>124</v>
@@ -4397,16 +4226,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45077</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14">
         <v>109</v>
@@ -4414,16 +4240,13 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45073</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>44</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15">
         <v>133</v>
@@ -4431,16 +4254,13 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45073</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>44</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C16">
         <v>220</v>
@@ -4448,16 +4268,13 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45072</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>45</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17">
         <v>385</v>
@@ -4465,16 +4282,13 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45069</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>46</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18">
         <v>189</v>
@@ -4482,16 +4296,13 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>45068</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C19">
         <v>148</v>
@@ -4499,16 +4310,13 @@
       <c r="D19">
         <v>20</v>
       </c>
-      <c r="E19" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>45067</v>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C20">
         <v>153</v>
@@ -4516,16 +4324,13 @@
       <c r="D20">
         <v>2</v>
       </c>
-      <c r="E20" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>45065</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>49</v>
       </c>
       <c r="B21" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
       <c r="C21">
         <v>166</v>
@@ -4533,16 +4338,13 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>45065</v>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>52</v>
+        <v>108</v>
       </c>
       <c r="C22">
         <v>194</v>
@@ -4550,16 +4352,13 @@
       <c r="D22">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>45065</v>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>99</v>
       </c>
       <c r="C23">
         <v>3672</v>
@@ -4567,16 +4366,13 @@
       <c r="D23">
         <v>155</v>
       </c>
-      <c r="E23" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>45064</v>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>50</v>
       </c>
       <c r="B24" t="s">
-        <v>53</v>
+        <v>109</v>
       </c>
       <c r="C24">
         <v>58</v>
@@ -4584,16 +4380,13 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
-        <v>45062</v>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="C25">
         <v>121</v>
@@ -4601,16 +4394,13 @@
       <c r="D25">
         <v>2</v>
       </c>
-      <c r="E25" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
-        <v>45062</v>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C26">
         <v>161</v>
@@ -4618,16 +4408,13 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
-        <v>45062</v>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C27">
         <v>182</v>
@@ -4635,16 +4422,13 @@
       <c r="D27">
         <v>2</v>
       </c>
-      <c r="E27" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
-        <v>45061</v>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C28">
         <v>207</v>
@@ -4652,16 +4436,13 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
-        <v>45061</v>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>52</v>
       </c>
       <c r="B29" t="s">
-        <v>50</v>
+        <v>106</v>
       </c>
       <c r="C29">
         <v>108</v>
@@ -4669,16 +4450,13 @@
       <c r="D29">
         <v>10</v>
       </c>
-      <c r="E29" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
-        <v>45061</v>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>57</v>
+        <v>113</v>
       </c>
       <c r="C30">
         <v>153</v>
@@ -4686,16 +4464,13 @@
       <c r="D30">
         <v>3</v>
       </c>
-      <c r="E30" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
-        <v>45057</v>
+        <v>45235</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>111</v>
       </c>
       <c r="C31">
         <v>321</v>
@@ -4703,33 +4478,21 @@
       <c r="D31">
         <v>4</v>
       </c>
-      <c r="E31" t="s">
-        <v>66</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E981620-C8DC-4991-BE0E-1E2BBD2B0740}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:D135"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:E15"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4742,16 +4505,13 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
-        <v>45124</v>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2">
         <v>13</v>
@@ -4759,16 +4519,13 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>45122</v>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C3">
         <v>63</v>
@@ -4776,16 +4533,13 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>45120</v>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>21</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4">
         <v>29</v>
@@ -4793,16 +4547,13 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
-        <v>45119</v>
+        <v>45267</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5">
         <v>100</v>
@@ -4810,16 +4561,13 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
-        <v>45109</v>
+        <v>44964</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C6">
         <v>75</v>
@@ -4827,16 +4575,13 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
-        <v>45108</v>
+        <v>44933</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C7">
         <v>65</v>
@@ -4844,16 +4589,13 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
-        <v>45107</v>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>119</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C8">
         <v>134</v>
@@ -4861,16 +4603,13 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>45107</v>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>119</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9">
         <v>28</v>
@@ -4878,16 +4617,13 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>45106</v>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="C10">
         <v>52</v>
@@ -4895,16 +4631,13 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="E10" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>45105</v>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -4912,16 +4645,13 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>45104</v>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12">
         <v>34</v>
@@ -4929,16 +4659,13 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
-        <v>45103</v>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>120</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C13">
         <v>20</v>
@@ -4946,16 +4673,13 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>45102</v>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C14">
         <v>69</v>
@@ -4963,16 +4687,13 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>45101</v>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C15">
         <v>69</v>
@@ -4980,16 +4701,13 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>45100</v>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>34</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C16">
         <v>191</v>
@@ -4997,16 +4715,13 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>45100</v>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C17">
         <v>43</v>
@@ -5014,16 +4729,13 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>45099</v>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C18">
         <v>57</v>
@@ -5031,16 +4743,13 @@
       <c r="D18">
         <v>0</v>
       </c>
-      <c r="E18" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>45099</v>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="C19">
         <v>32</v>
@@ -5048,16 +4757,13 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>45098</v>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C20">
         <v>44</v>
@@ -5065,16 +4771,13 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>45097</v>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>37</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C21">
         <v>27</v>
@@ -5082,16 +4785,13 @@
       <c r="D21">
         <v>3</v>
       </c>
-      <c r="E21" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>45096</v>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C22">
         <v>100</v>
@@ -5099,16 +4799,13 @@
       <c r="D22">
         <v>3</v>
       </c>
-      <c r="E22" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
-        <v>45085</v>
+        <v>45144</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
       <c r="C23">
         <v>104</v>
@@ -5116,16 +4813,13 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
-        <v>45084</v>
+        <v>45113</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
       <c r="C24">
         <v>154</v>
@@ -5133,16 +4827,13 @@
       <c r="D24">
         <v>2</v>
       </c>
-      <c r="E24" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25">
         <v>55</v>
@@ -5150,16 +4841,13 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
-        <v>45081</v>
+        <v>45022</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
       <c r="C26">
         <v>17</v>
@@ -5167,16 +4855,13 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
-        <v>45080</v>
+        <v>44991</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27">
         <v>67</v>
@@ -5184,16 +4869,13 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
-        <v>45079</v>
+        <v>44963</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C28">
         <v>59</v>
@@ -5201,16 +4883,13 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="B29" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C29">
         <v>71</v>
@@ -5218,16 +4897,13 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
-        <v>45078</v>
+        <v>44932</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>82</v>
       </c>
       <c r="C30">
         <v>23</v>
@@ -5235,16 +4911,13 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
-        <v>45077</v>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C31">
         <v>43</v>
@@ -5252,16 +4925,13 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
-        <v>45076</v>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>43</v>
       </c>
       <c r="B32" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C32">
         <v>79</v>
@@ -5269,16 +4939,13 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
-        <v>45065</v>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>49</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>83</v>
       </c>
       <c r="C33">
         <v>80</v>
@@ -5286,16 +4953,13 @@
       <c r="D33">
         <v>6</v>
       </c>
-      <c r="E33" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
-        <v>45065</v>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>49</v>
       </c>
       <c r="B34" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C34">
         <v>87</v>
@@ -5303,16 +4967,13 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
-        <v>45064</v>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>50</v>
       </c>
       <c r="B35" t="s">
-        <v>23</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>25</v>
@@ -5320,16 +4981,13 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
-        <v>45062</v>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>57</v>
@@ -5337,16 +4995,13 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
-        <v>45062</v>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C37">
         <v>55</v>
@@ -5354,16 +5009,13 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
-        <v>45059</v>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>53</v>
       </c>
       <c r="B38" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C38">
         <v>119</v>
@@ -5371,16 +5023,13 @@
       <c r="D38">
         <v>1</v>
       </c>
-      <c r="E38" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
-        <v>45058</v>
+        <v>45265</v>
       </c>
       <c r="B39" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C39">
         <v>76</v>
@@ -5388,16 +5037,13 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
-        <v>45056</v>
+        <v>45204</v>
       </c>
       <c r="B40" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C40">
         <v>56</v>
@@ -5405,16 +5051,13 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
-        <v>45055</v>
+        <v>45174</v>
       </c>
       <c r="B41" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>44</v>
@@ -5422,16 +5065,13 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
-        <v>45054</v>
+        <v>45143</v>
       </c>
       <c r="B42" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C42">
         <v>45</v>
@@ -5439,16 +5079,13 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
-        <v>45053</v>
+        <v>45112</v>
       </c>
       <c r="B43" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C43">
         <v>93</v>
@@ -5456,16 +5093,13 @@
       <c r="D43">
         <v>5</v>
       </c>
-      <c r="E43" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
-        <v>45053</v>
+        <v>45112</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C44">
         <v>88</v>
@@ -5473,16 +5107,13 @@
       <c r="D44">
         <v>5</v>
       </c>
-      <c r="E44" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
-        <v>45052</v>
+        <v>45082</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
       <c r="C45">
         <v>63</v>
@@ -5490,16 +5121,13 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45051</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C46">
         <v>88</v>
@@ -5507,16 +5135,13 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
-        <v>45050</v>
+        <v>45021</v>
       </c>
       <c r="B47" t="s">
-        <v>37</v>
+        <v>87</v>
       </c>
       <c r="C47">
         <v>113</v>
@@ -5524,16 +5149,13 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
-        <v>45049</v>
+        <v>44990</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C48">
         <v>80</v>
@@ -5541,16 +5163,13 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
-        <v>45049</v>
+        <v>44990</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>28</v>
@@ -5558,16 +5177,13 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
-        <v>45048</v>
+        <v>44962</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>54</v>
@@ -5575,16 +5191,13 @@
       <c r="D50">
         <v>1</v>
       </c>
-      <c r="E50" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
-        <v>45048</v>
+        <v>44962</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>41</v>
@@ -5592,16 +5205,13 @@
       <c r="D51">
         <v>3</v>
       </c>
-      <c r="E51" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
-        <v>45047</v>
+        <v>44931</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="C52">
         <v>22</v>
@@ -5609,16 +5219,13 @@
       <c r="D52">
         <v>3</v>
       </c>
-      <c r="E52" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A53" s="2">
-        <v>45045</v>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C53">
         <v>63</v>
@@ -5626,16 +5233,13 @@
       <c r="D53">
         <v>3</v>
       </c>
-      <c r="E53" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="2">
-        <v>45045</v>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="B54" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C54">
         <v>44</v>
@@ -5643,16 +5247,13 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="2">
-        <v>45044</v>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>55</v>
       </c>
       <c r="B55" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C55">
         <v>39</v>
@@ -5660,16 +5261,13 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="2">
-        <v>45043</v>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C56">
         <v>95</v>
@@ -5677,16 +5275,13 @@
       <c r="D56">
         <v>2</v>
       </c>
-      <c r="E56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="2">
-        <v>45043</v>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C57">
         <v>102</v>
@@ -5694,16 +5289,13 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="2">
-        <v>45037</v>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
       <c r="C58">
         <v>54</v>
@@ -5711,16 +5303,13 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="2">
-        <v>45037</v>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>90</v>
       </c>
       <c r="C59">
         <v>27</v>
@@ -5728,16 +5317,13 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="2">
-        <v>45032</v>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C60">
         <v>77</v>
@@ -5745,16 +5331,13 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A61" s="2">
-        <v>45032</v>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C61">
         <v>40</v>
@@ -5762,16 +5345,13 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A62" s="2">
-        <v>45031</v>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C62">
         <v>60</v>
@@ -5779,16 +5359,13 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A63" s="2">
-        <v>45031</v>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="B63" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C63">
         <v>54</v>
@@ -5796,16 +5373,13 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="2">
-        <v>45030</v>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B64" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C64">
         <v>58</v>
@@ -5813,16 +5387,13 @@
       <c r="D64">
         <v>0</v>
       </c>
-      <c r="E64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="2">
-        <v>45030</v>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C65">
         <v>40</v>
@@ -5830,16 +5401,13 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="2">
-        <v>45029</v>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>38</v>
@@ -5847,16 +5415,13 @@
       <c r="D66">
         <v>2</v>
       </c>
-      <c r="E66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="2">
-        <v>45029</v>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>61</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C67">
         <v>73</v>
@@ -5864,16 +5429,13 @@
       <c r="D67">
         <v>3</v>
       </c>
-      <c r="E67" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="2">
-        <v>45028</v>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="3">
+        <v>45264</v>
       </c>
       <c r="B68" t="s">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="C68">
         <v>85</v>
@@ -5881,16 +5443,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="2">
-        <v>45028</v>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="3">
+        <v>45264</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C69">
         <v>43</v>
@@ -5898,16 +5457,13 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="2">
-        <v>45027</v>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="3">
+        <v>45234</v>
       </c>
       <c r="B70" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C70">
         <v>68</v>
@@ -5915,16 +5471,13 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="2">
-        <v>45027</v>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="3">
+        <v>45234</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C71">
         <v>70</v>
@@ -5932,16 +5485,13 @@
       <c r="D71">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="2">
-        <v>45026</v>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="3">
+        <v>45203</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C72">
         <v>75</v>
@@ -5949,16 +5499,13 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="2">
-        <v>45025</v>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="3">
+        <v>45173</v>
       </c>
       <c r="B73" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C73">
         <v>89</v>
@@ -5966,16 +5513,13 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="2">
-        <v>45024</v>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="3">
+        <v>45142</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="C74">
         <v>69</v>
@@ -5983,16 +5527,13 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2">
-        <v>45024</v>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="3">
+        <v>45142</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C75">
         <v>72</v>
@@ -6000,16 +5541,13 @@
       <c r="D75">
         <v>1</v>
       </c>
-      <c r="E75" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="2">
-        <v>45023</v>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="3">
+        <v>45111</v>
       </c>
       <c r="B76" t="s">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="C76">
         <v>12</v>
@@ -6017,16 +5555,13 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A77" s="2">
-        <v>45023</v>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="3">
+        <v>45111</v>
       </c>
       <c r="B77" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C77">
         <v>65</v>
@@ -6034,16 +5569,13 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="2">
-        <v>45022</v>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="3">
+        <v>45081</v>
       </c>
       <c r="B78" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C78">
         <v>69</v>
@@ -6051,16 +5583,13 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2">
-        <v>45021</v>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="3">
+        <v>45050</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C79">
         <v>115</v>
@@ -6068,16 +5597,13 @@
       <c r="D79">
         <v>8</v>
       </c>
-      <c r="E79" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="2">
-        <v>45021</v>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="3">
+        <v>45050</v>
       </c>
       <c r="B80" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C80">
         <v>53</v>
@@ -6085,16 +5611,13 @@
       <c r="D80">
         <v>1</v>
       </c>
-      <c r="E80" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="2">
-        <v>45021</v>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="3">
+        <v>45050</v>
       </c>
       <c r="B81" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C81">
         <v>55</v>
@@ -6102,16 +5625,13 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="2">
-        <v>45021</v>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="3">
+        <v>45050</v>
       </c>
       <c r="B82" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C82">
         <v>34</v>
@@ -6119,16 +5639,13 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="3">
         <v>45020</v>
       </c>
       <c r="B83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C83">
         <v>54</v>
@@ -6136,16 +5653,13 @@
       <c r="D83">
         <v>1</v>
       </c>
-      <c r="E83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="2">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="3">
         <v>45020</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C84">
         <v>67</v>
@@ -6153,16 +5667,13 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="2">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="3">
         <v>45020</v>
       </c>
       <c r="B85" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C85">
         <v>96</v>
@@ -6170,16 +5681,13 @@
       <c r="D85">
         <v>6</v>
       </c>
-      <c r="E85" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" s="2">
-        <v>45019</v>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="3">
+        <v>44989</v>
       </c>
       <c r="B86" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C86">
         <v>120</v>
@@ -6187,16 +5695,13 @@
       <c r="D86">
         <v>4</v>
       </c>
-      <c r="E86" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="2">
-        <v>45019</v>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="3">
+        <v>44989</v>
       </c>
       <c r="B87" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C87">
         <v>38</v>
@@ -6204,16 +5709,13 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="2">
-        <v>45019</v>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="3">
+        <v>44989</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C88">
         <v>170</v>
@@ -6221,16 +5723,13 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="2">
-        <v>45018</v>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="3">
+        <v>44961</v>
       </c>
       <c r="B89" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C89">
         <v>56</v>
@@ -6238,16 +5737,13 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="2">
-        <v>45017</v>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="3">
+        <v>44930</v>
       </c>
       <c r="B90" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C90">
         <v>52</v>
@@ -6255,16 +5751,13 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="2">
-        <v>45016</v>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>62</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C91">
         <v>53</v>
@@ -6272,16 +5765,13 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="2">
-        <v>45016</v>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>62</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="C92">
         <v>112</v>
@@ -6289,16 +5779,13 @@
       <c r="D92">
         <v>5</v>
       </c>
-      <c r="E92" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="2">
-        <v>45016</v>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>62</v>
       </c>
       <c r="B93" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C93">
         <v>57</v>
@@ -6306,16 +5793,13 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="2">
-        <v>45015</v>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>63</v>
       </c>
       <c r="B94" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C94">
         <v>32</v>
@@ -6323,16 +5807,13 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="2">
-        <v>45015</v>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>63</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C95">
         <v>51</v>
@@ -6340,16 +5821,13 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="2">
-        <v>45014</v>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>64</v>
       </c>
       <c r="B96" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C96">
         <v>38</v>
@@ -6357,16 +5835,13 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="2">
-        <v>45012</v>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>65</v>
       </c>
       <c r="B97" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C97">
         <v>75</v>
@@ -6374,16 +5849,13 @@
       <c r="D97">
         <v>1</v>
       </c>
-      <c r="E97" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="2">
-        <v>45012</v>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>65</v>
       </c>
       <c r="B98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C98">
         <v>27</v>
@@ -6391,16 +5863,13 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="2">
-        <v>45010</v>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C99">
         <v>219</v>
@@ -6408,16 +5877,13 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A100" s="2">
-        <v>45010</v>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C100">
         <v>54</v>
@@ -6425,16 +5891,13 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A101" s="2">
-        <v>45007</v>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>66</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>96</v>
       </c>
       <c r="C101">
         <v>52</v>
@@ -6442,16 +5905,13 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="2">
-        <v>45007</v>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>66</v>
       </c>
       <c r="B102" t="s">
-        <v>23</v>
+        <v>97</v>
       </c>
       <c r="C102">
         <v>35</v>
@@ -6459,16 +5919,13 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="2">
-        <v>45006</v>
-      </c>
       <c r="B103" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="C103">
         <v>57</v>
@@ -6476,16 +5933,13 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="2">
-        <v>45004</v>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>68</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C104">
         <v>61</v>
@@ -6493,16 +5947,13 @@
       <c r="D104">
         <v>2</v>
       </c>
-      <c r="E104" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="2">
-        <v>45004</v>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>68</v>
       </c>
       <c r="B105" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>31</v>
@@ -6510,16 +5961,13 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="2">
-        <v>45003</v>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>69</v>
       </c>
       <c r="B106" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C106">
         <v>42</v>
@@ -6527,16 +5975,13 @@
       <c r="D106">
         <v>1</v>
       </c>
-      <c r="E106" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="2">
-        <v>45003</v>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>69</v>
       </c>
       <c r="B107" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="C107">
         <v>54</v>
@@ -6544,16 +5989,13 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="2">
-        <v>45003</v>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>69</v>
       </c>
       <c r="B108" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C108">
         <v>48</v>
@@ -6561,16 +6003,13 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="2">
-        <v>45002</v>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>70</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C109">
         <v>37</v>
@@ -6578,16 +6017,13 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="2">
-        <v>45002</v>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>70</v>
       </c>
       <c r="B110" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C110">
         <v>70</v>
@@ -6595,16 +6031,13 @@
       <c r="D110">
         <v>1</v>
       </c>
-      <c r="E110" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="2">
-        <v>45001</v>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>71</v>
       </c>
       <c r="B111" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C111">
         <v>70</v>
@@ -6612,16 +6045,13 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="2">
-        <v>45001</v>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C112">
         <v>55</v>
@@ -6629,16 +6059,13 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A113" s="2">
-        <v>45000</v>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>72</v>
       </c>
       <c r="B113" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C113">
         <v>55</v>
@@ -6646,16 +6073,13 @@
       <c r="D113">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A114" s="2">
-        <v>45000</v>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>72</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C114">
         <v>68</v>
@@ -6663,16 +6087,13 @@
       <c r="D114">
         <v>1</v>
       </c>
-      <c r="E114" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A115" s="2">
-        <v>44999</v>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>73</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C115">
         <v>52</v>
@@ -6680,16 +6101,13 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A116" s="2">
-        <v>44999</v>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>73</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>37</v>
@@ -6697,16 +6115,13 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A117" s="2">
-        <v>44998</v>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>74</v>
       </c>
       <c r="B117" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C117">
         <v>42</v>
@@ -6714,16 +6129,13 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A118" s="2">
-        <v>44998</v>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>74</v>
       </c>
       <c r="B118" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C118">
         <v>71</v>
@@ -6731,16 +6143,13 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
-        <v>44997</v>
+        <v>45263</v>
       </c>
       <c r="B119" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C119">
         <v>78</v>
@@ -6748,16 +6157,13 @@
       <c r="D119">
         <v>4</v>
       </c>
-      <c r="E119" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
-        <v>44996</v>
+        <v>45233</v>
       </c>
       <c r="B120" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C120">
         <v>52</v>
@@ -6765,16 +6171,13 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
-        <v>44995</v>
+        <v>45202</v>
       </c>
       <c r="B121" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C121">
         <v>110</v>
@@ -6782,16 +6185,13 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
-        <v>44995</v>
+        <v>45202</v>
       </c>
       <c r="B122" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C122">
         <v>48</v>
@@ -6799,16 +6199,13 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
-        <v>44995</v>
+        <v>45202</v>
       </c>
       <c r="B123" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C123">
         <v>39</v>
@@ -6816,16 +6213,13 @@
       <c r="D123">
         <v>2</v>
       </c>
-      <c r="E123" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
-        <v>44994</v>
+        <v>45172</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C124">
         <v>136</v>
@@ -6833,16 +6227,13 @@
       <c r="D124">
         <v>8</v>
       </c>
-      <c r="E124" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
-        <v>44994</v>
+        <v>45172</v>
       </c>
       <c r="B125" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C125">
         <v>24</v>
@@ -6850,16 +6241,13 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
-        <v>44993</v>
+        <v>45141</v>
       </c>
       <c r="B126" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C126">
         <v>96</v>
@@ -6867,16 +6255,13 @@
       <c r="D126">
         <v>9</v>
       </c>
-      <c r="E126" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
-        <v>44992</v>
+        <v>45110</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C127">
         <v>49</v>
@@ -6884,16 +6269,13 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
-        <v>44991</v>
+        <v>45080</v>
       </c>
       <c r="B128" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C128">
         <v>34</v>
@@ -6901,16 +6283,13 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
-        <v>44990</v>
+        <v>45049</v>
       </c>
       <c r="B129" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C129">
         <v>47</v>
@@ -6918,16 +6297,13 @@
       <c r="D129">
         <v>3</v>
       </c>
-      <c r="E129" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
-        <v>44989</v>
+        <v>45019</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C130">
         <v>67</v>
@@ -6935,16 +6311,13 @@
       <c r="D130">
         <v>3</v>
       </c>
-      <c r="E130" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>44988</v>
       </c>
       <c r="B131" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C131">
         <v>61</v>
@@ -6952,16 +6325,13 @@
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>44988</v>
       </c>
       <c r="B132" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C132">
         <v>66</v>
@@ -6969,16 +6339,13 @@
       <c r="D132">
         <v>1</v>
       </c>
-      <c r="E132" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
-        <v>44987</v>
+        <v>44960</v>
       </c>
       <c r="B133" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C133">
         <v>79</v>
@@ -6986,16 +6353,13 @@
       <c r="D133">
         <v>2</v>
       </c>
-      <c r="E133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
-        <v>44986</v>
+        <v>44929</v>
       </c>
       <c r="B134" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C134">
         <v>136</v>
@@ -7003,25 +6367,19 @@
       <c r="D134">
         <v>5</v>
       </c>
-      <c r="E134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
-        <v>44986</v>
+        <v>44929</v>
       </c>
       <c r="B135" t="s">
-        <v>40</v>
+        <v>93</v>
       </c>
       <c r="C135">
         <v>58</v>
       </c>
       <c r="D135">
         <v>3</v>
-      </c>
-      <c r="E135" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/data ice.xlsx
+++ b/data ice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dqlab\Fast Track Program\Internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975B1C8E-00C3-4484-868F-FDFBE898AABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0FCAAB-AE69-46EE-871D-7503206BD5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,28 @@
     <sheet name="ig_JIEXPO" sheetId="4" r:id="rId6"/>
     <sheet name="ig_JCC" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="61">
   <si>
     <t>Bulan</t>
   </si>
@@ -87,16 +98,7 @@
     <t>Jumlah Komentar</t>
   </si>
   <si>
-    <t>15/07/2023</t>
-  </si>
-  <si>
     <t>Pameran</t>
-  </si>
-  <si>
-    <t>Reminder</t>
-  </si>
-  <si>
-    <t>13/07/2023</t>
   </si>
   <si>
     <t>Promosi</t>
@@ -111,46 +113,16 @@
     <t>Repost</t>
   </si>
   <si>
-    <t>29/06/2023</t>
-  </si>
-  <si>
     <t>Peringatan Hari Raya</t>
-  </si>
-  <si>
-    <t>28/06/2023</t>
-  </si>
-  <si>
-    <t>27/06/2023</t>
-  </si>
-  <si>
-    <t>25/06/2023</t>
   </si>
   <si>
     <t>Olahraga</t>
   </si>
   <si>
-    <t>24/06/2023</t>
-  </si>
-  <si>
     <t>Konser</t>
   </si>
   <si>
-    <t>23/06/2023</t>
-  </si>
-  <si>
-    <t>22/06/2023</t>
-  </si>
-  <si>
-    <t>21/06/2023</t>
-  </si>
-  <si>
-    <t>20/06/2023</t>
-  </si>
-  <si>
     <t>Gedung</t>
-  </si>
-  <si>
-    <t>19/06/2023</t>
   </si>
   <si>
     <t>Nikahan</t>
@@ -159,151 +131,22 @@
     <t>Perayaan</t>
   </si>
   <si>
-    <t>31/05/2023</t>
-  </si>
-  <si>
-    <t>30/05/2023</t>
-  </si>
-  <si>
-    <t>27/05/2023</t>
-  </si>
-  <si>
-    <t>26/05/2023</t>
-  </si>
-  <si>
-    <t>23/05/2023</t>
-  </si>
-  <si>
-    <t>22/05/2023</t>
-  </si>
-  <si>
-    <t>21/05/2023</t>
-  </si>
-  <si>
-    <t>19/05/2023</t>
-  </si>
-  <si>
-    <t>18/05/2023</t>
-  </si>
-  <si>
-    <t>16/05/2023</t>
-  </si>
-  <si>
-    <t>15/05/2023</t>
-  </si>
-  <si>
-    <t>13/05/2023</t>
-  </si>
-  <si>
-    <t>29/04/2023</t>
-  </si>
-  <si>
-    <t>28/04/2023</t>
-  </si>
-  <si>
-    <t>27/04/2023</t>
-  </si>
-  <si>
-    <t>21/04/2023</t>
-  </si>
-  <si>
-    <t>16/04/2023</t>
-  </si>
-  <si>
-    <t>15/04/2023</t>
-  </si>
-  <si>
-    <t>14/04/2023</t>
-  </si>
-  <si>
-    <t>13/04/2023</t>
-  </si>
-  <si>
-    <t>31/03/2023</t>
-  </si>
-  <si>
-    <t>30/03/2023</t>
-  </si>
-  <si>
-    <t>29/03/2023</t>
-  </si>
-  <si>
-    <t>27/03/2023</t>
-  </si>
-  <si>
-    <t>22/03/2023</t>
-  </si>
-  <si>
-    <t>21/03/2023</t>
-  </si>
-  <si>
-    <t>19/03/2023</t>
-  </si>
-  <si>
-    <t>18/03/2023</t>
-  </si>
-  <si>
-    <t>17/03/2023</t>
-  </si>
-  <si>
-    <t>16/03/2023</t>
-  </si>
-  <si>
-    <t>15/03/2023</t>
-  </si>
-  <si>
-    <t>14/03/2023</t>
-  </si>
-  <si>
-    <t>13/03/2023</t>
-  </si>
-  <si>
-    <t>Seminar &amp; Workshop</t>
-  </si>
-  <si>
     <t>Festival</t>
-  </si>
-  <si>
-    <t>Perayaan Idul Adha</t>
-  </si>
-  <si>
-    <t>Peringatan HUT Jakarta</t>
   </si>
   <si>
     <t>Kunjungan Menteri PUPR</t>
   </si>
   <si>
-    <t>Notifikasi Renovasi</t>
-  </si>
-  <si>
     <t>Perayaan Waisak</t>
-  </si>
-  <si>
-    <t>Perayaan Hari Pancasila</t>
   </si>
   <si>
     <t>Kontes</t>
   </si>
   <si>
-    <t>Peringatan Kenaikan Isa Alamasih</t>
-  </si>
-  <si>
     <t>Konferensi</t>
   </si>
   <si>
-    <t>Perayaan HUT</t>
-  </si>
-  <si>
     <t>Halal Bihalal</t>
-  </si>
-  <si>
-    <t>Peringatan Hari Buruh</t>
-  </si>
-  <si>
-    <t>Perayaan Idul Fitri</t>
-  </si>
-  <si>
-    <t>Perayaan Hari Kartini</t>
   </si>
   <si>
     <t>Turnamen</t>
@@ -318,61 +161,7 @@
     <t>Buka Bersama</t>
   </si>
   <si>
-    <t>Peringatan Jumat Agung</t>
-  </si>
-  <si>
-    <t>Peringatan Bulan Ramadhan</t>
-  </si>
-  <si>
-    <t>Peringatan Nyepi</t>
-  </si>
-  <si>
-    <t>Peringatan Idul adha</t>
-  </si>
-  <si>
-    <t>Festival Jakarta Fair</t>
-  </si>
-  <si>
     <t>Ucapan Ultah Jokowi</t>
-  </si>
-  <si>
-    <t>Pameran EXPO</t>
-  </si>
-  <si>
-    <t>Peringatan Hari Raya Waisak</t>
-  </si>
-  <si>
-    <t>Event Calendar</t>
-  </si>
-  <si>
-    <t>Peringatan Hari Lahir Pancasila</t>
-  </si>
-  <si>
-    <t>Konser Calendar</t>
-  </si>
-  <si>
-    <t>Pameran Calendar</t>
-  </si>
-  <si>
-    <t>Pameran SEA</t>
-  </si>
-  <si>
-    <t>Pameran PEVS</t>
-  </si>
-  <si>
-    <t>Peringatan Isa Almasih</t>
-  </si>
-  <si>
-    <t>Pameran Food</t>
-  </si>
-  <si>
-    <t>Konser atau Festival</t>
-  </si>
-  <si>
-    <t>Pameran GPPE</t>
-  </si>
-  <si>
-    <t>Festival Wedding</t>
   </si>
   <si>
     <t>Year</t>
@@ -387,19 +176,55 @@
     <t>Visitor</t>
   </si>
   <si>
-    <t>17/07/2023</t>
+    <t>ICE</t>
   </si>
   <si>
-    <t>30/06/2023</t>
-  </si>
-  <si>
-    <t>26/06/2023</t>
-  </si>
-  <si>
-    <t>25/03/2023</t>
+    <t>Festifal</t>
   </si>
   <si>
     <t xml:space="preserve">Pertanyaan </t>
+  </si>
+  <si>
+    <t>Perusahaan</t>
+  </si>
+  <si>
+    <t>JIEXPO</t>
+  </si>
+  <si>
+    <t>JCC</t>
+  </si>
+  <si>
+    <t>Expo</t>
+  </si>
+  <si>
+    <t>Peringatan</t>
+  </si>
+  <si>
+    <t>Buka puasa</t>
+  </si>
+  <si>
+    <t>MPL Game</t>
+  </si>
+  <si>
+    <t>Ceremony</t>
+  </si>
+  <si>
+    <t>Expo Intertex</t>
+  </si>
+  <si>
+    <t>Jadwal Ramadhan</t>
+  </si>
+  <si>
+    <t>Muslim Fair</t>
+  </si>
+  <si>
+    <t>Lowongan</t>
+  </si>
+  <si>
+    <t>Rapat</t>
+  </si>
+  <si>
+    <t>Jadwal March</t>
   </si>
 </sst>
 </file>
@@ -435,11 +260,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -757,12 +581,12 @@
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -820,7 +644,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -849,7 +673,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -878,7 +702,7 @@
         <v>30890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -907,7 +731,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -936,7 +760,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -965,7 +789,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -994,7 +818,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1023,7 +847,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1052,7 +876,7 @@
         <v>67150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1081,7 +905,7 @@
         <v>72874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1110,7 +934,7 @@
         <v>63256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1139,7 +963,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1168,7 +992,7 @@
         <v>19765</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1197,7 +1021,7 @@
         <v>36555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1236,20 +1060,20 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>114</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1257,7 +1081,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1265,7 +1089,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1273,7 +1097,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1281,7 +1105,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1289,7 +1113,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1297,7 +1121,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1305,7 +1129,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1313,7 +1137,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1331,20 +1155,20 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>116</v>
+        <v>42</v>
       </c>
       <c r="B1" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1352,7 +1176,7 @@
         <v>235595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1360,7 +1184,7 @@
         <v>1499357</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1368,7 +1192,7 @@
         <v>2530150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1376,7 +1200,7 @@
         <v>2947567</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1384,7 +1208,7 @@
         <v>2728421</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1392,7 +1216,7 @@
         <v>1165343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1400,7 +1224,7 @@
         <v>345093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1421,9 +1245,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1440,7 +1264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1458,7 +1282,7 @@
         <v>6.8300475978720954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -1476,7 +1300,7 @@
         <v>6.8225896584596173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -1494,7 +1318,7 @@
         <v>14.913402873450107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -1512,7 +1336,7 @@
         <v>7.879569611572812</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -1530,7 +1354,7 @@
         <v>4.9306068818263942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -1548,7 +1372,7 @@
         <v>12.788722271227417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -1566,7 +1390,7 @@
         <v>9.0671047067625139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1584,7 +1408,7 @@
         <v>16.135623523402082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1602,7 +1426,7 @@
         <v>30.989394383809067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1620,7 +1444,7 @@
         <v>28.21288901541827</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1638,7 +1462,7 @@
         <v>18.460997994642621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1656,7 +1480,7 @@
         <v>15.12099108486743</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1674,7 +1498,7 @@
         <v>13.856976056967408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1692,7 +1516,7 @@
         <v>19.158865367855839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1710,7 +1534,7 @@
         <v>60.546177568576532</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>45017</v>
       </c>
@@ -1728,7 +1552,7 @@
         <v>10.337609723160027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>45047</v>
       </c>
@@ -1753,15 +1577,22 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F2EAE-4643-4EEB-BCC2-1FDB6DC397DA}">
-  <dimension ref="A1:D162"/>
+  <dimension ref="A1:E162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="G79" sqref="G79"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1774,13 +1605,16 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>45122</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C2">
         <v>105</v>
@@ -1788,13 +1622,16 @@
       <c r="D2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>45121</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C3">
         <v>135</v>
@@ -1802,13 +1639,16 @@
       <c r="D3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>45120</v>
       </c>
       <c r="B4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -1816,13 +1656,16 @@
       <c r="D4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>45119</v>
       </c>
       <c r="B5" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C5">
         <v>485</v>
@@ -1830,13 +1673,16 @@
       <c r="D5">
         <v>9</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>45119</v>
       </c>
       <c r="B6" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C6">
         <v>66</v>
@@ -1844,13 +1690,16 @@
       <c r="D6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>45118</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1858,13 +1707,16 @@
       <c r="D7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>45116</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8">
         <v>107</v>
@@ -1872,13 +1724,16 @@
       <c r="D8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>45116</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9">
         <v>70</v>
@@ -1886,13 +1741,16 @@
       <c r="D9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>45115</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C10">
         <v>226</v>
@@ -1900,13 +1758,16 @@
       <c r="D10">
         <v>4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>45115</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C11">
         <v>122</v>
@@ -1914,13 +1775,16 @@
       <c r="D11">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>45114</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12">
         <v>628</v>
@@ -1928,13 +1792,16 @@
       <c r="D12">
         <v>13</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2">
         <v>45113</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13">
         <v>93</v>
@@ -1942,13 +1809,16 @@
       <c r="D13">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2">
         <v>45112</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C14">
         <v>80</v>
@@ -1956,13 +1826,16 @@
       <c r="D14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2">
         <v>45111</v>
       </c>
       <c r="B15" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C15">
         <v>62</v>
@@ -1970,13 +1843,16 @@
       <c r="D15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2">
         <v>45110</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C16">
         <v>265</v>
@@ -1984,13 +1860,16 @@
       <c r="D16">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2">
         <v>45110</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C17">
         <v>78</v>
@@ -1998,13 +1877,16 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2">
         <v>45109</v>
       </c>
       <c r="B18" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C18">
         <v>230</v>
@@ -2012,13 +1894,16 @@
       <c r="D18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2">
         <v>45108</v>
       </c>
       <c r="B19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C19">
         <v>158</v>
@@ -2026,13 +1911,16 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2">
         <v>45106</v>
       </c>
       <c r="B20" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C20">
         <v>78</v>
@@ -2040,13 +1928,16 @@
       <c r="D20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2">
         <v>45105</v>
       </c>
       <c r="B21" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C21">
         <v>528</v>
@@ -2054,13 +1945,16 @@
       <c r="D21">
         <v>9</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>45105</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C22">
         <v>63</v>
@@ -2068,13 +1962,16 @@
       <c r="D22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2">
         <v>45104</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C23">
         <v>80</v>
@@ -2082,13 +1979,16 @@
       <c r="D23">
         <v>2</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>45102</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C24">
         <v>74</v>
@@ -2096,13 +1996,16 @@
       <c r="D24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2">
         <v>45100</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25">
         <v>119</v>
@@ -2110,13 +2013,16 @@
       <c r="D25">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>45099</v>
       </c>
       <c r="B26" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C26">
         <v>591</v>
@@ -2124,13 +2030,16 @@
       <c r="D26">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2">
         <v>45099</v>
       </c>
       <c r="B27" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C27">
         <v>90</v>
@@ -2138,13 +2047,16 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2">
         <v>45099</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C28">
         <v>75</v>
@@ -2152,13 +2064,16 @@
       <c r="D28">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2">
         <v>45098</v>
       </c>
       <c r="B29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>186</v>
@@ -2166,13 +2081,16 @@
       <c r="D29">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2">
         <v>45097</v>
       </c>
       <c r="B30" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C30">
         <v>180</v>
@@ -2180,13 +2098,16 @@
       <c r="D30">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2">
         <v>45097</v>
       </c>
       <c r="B31" t="s">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="C31">
         <v>107</v>
@@ -2194,13 +2115,16 @@
       <c r="D31">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>45096</v>
       </c>
       <c r="B32" t="s">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="C32">
         <v>119</v>
@@ -2208,13 +2132,16 @@
       <c r="D32">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>45095</v>
       </c>
       <c r="B33" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C33">
         <v>517</v>
@@ -2222,13 +2149,16 @@
       <c r="D33">
         <v>11</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>45094</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C34">
         <v>108</v>
@@ -2236,13 +2166,16 @@
       <c r="D34">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>45093</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C35">
         <v>526</v>
@@ -2250,13 +2183,16 @@
       <c r="D35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45093</v>
       </c>
       <c r="B36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C36">
         <v>215</v>
@@ -2264,13 +2200,16 @@
       <c r="D36">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>45091</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="C37">
         <v>75</v>
@@ -2278,13 +2217,16 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>45090</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C38">
         <v>276</v>
@@ -2292,13 +2234,16 @@
       <c r="D38">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>45090</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C39">
         <v>241</v>
@@ -2306,13 +2251,16 @@
       <c r="D39">
         <v>13</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2">
         <v>45090</v>
       </c>
       <c r="B40" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C40">
         <v>63</v>
@@ -2320,13 +2268,16 @@
       <c r="D40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
         <v>45089</v>
       </c>
       <c r="B41" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C41">
         <v>42</v>
@@ -2334,13 +2285,16 @@
       <c r="D41">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
         <v>45088</v>
       </c>
       <c r="B42" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C42">
         <v>250</v>
@@ -2348,13 +2302,16 @@
       <c r="D42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
         <v>45087</v>
       </c>
       <c r="B43" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C43">
         <v>157</v>
@@ -2362,13 +2319,16 @@
       <c r="D43">
         <v>4</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
         <v>45087</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C44">
         <v>76</v>
@@ -2376,13 +2336,16 @@
       <c r="D44">
         <v>4</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
         <v>45086</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C45">
         <v>58</v>
@@ -2390,13 +2353,16 @@
       <c r="D45">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2">
         <v>45085</v>
       </c>
       <c r="B46" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C46">
         <v>113</v>
@@ -2404,13 +2370,16 @@
       <c r="D46">
         <v>6</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2">
         <v>45084</v>
       </c>
       <c r="B47" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C47">
         <v>63</v>
@@ -2418,13 +2387,16 @@
       <c r="D47">
         <v>2</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2">
         <v>45083</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C48">
         <v>67</v>
@@ -2432,13 +2404,16 @@
       <c r="D48">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2">
         <v>45082</v>
       </c>
       <c r="B49" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C49">
         <v>165</v>
@@ -2446,13 +2421,16 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2">
         <v>45081</v>
       </c>
       <c r="B50" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C50">
         <v>310</v>
@@ -2460,13 +2438,16 @@
       <c r="D50">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>45081</v>
       </c>
       <c r="B51" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C51">
         <v>155</v>
@@ -2474,13 +2455,16 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2">
         <v>45081</v>
       </c>
       <c r="B52" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C52">
         <v>76</v>
@@ -2488,13 +2472,16 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" s="2">
         <v>45080</v>
       </c>
       <c r="B53" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C53">
         <v>157</v>
@@ -2502,13 +2489,16 @@
       <c r="D53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2">
         <v>45079</v>
       </c>
       <c r="B54" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C54">
         <v>263</v>
@@ -2516,13 +2506,16 @@
       <c r="D54">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2">
         <v>45078</v>
       </c>
       <c r="B55" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C55">
         <v>134</v>
@@ -2530,13 +2523,16 @@
       <c r="D55">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>45077</v>
       </c>
       <c r="B56" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C56">
         <v>554</v>
@@ -2544,13 +2540,16 @@
       <c r="D56">
         <v>77</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>45076</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C57">
         <v>385</v>
@@ -2558,13 +2557,16 @@
       <c r="D57">
         <v>10</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>45075</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C58">
         <v>801</v>
@@ -2572,13 +2574,16 @@
       <c r="D58">
         <v>2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>45074</v>
       </c>
       <c r="B59" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C59">
         <v>652</v>
@@ -2586,13 +2591,16 @@
       <c r="D59">
         <v>8</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>45073</v>
       </c>
       <c r="B60" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60">
         <v>878</v>
@@ -2600,13 +2608,16 @@
       <c r="D60">
         <v>4</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>45072</v>
       </c>
       <c r="B61" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C61">
         <v>954</v>
@@ -2614,13 +2625,16 @@
       <c r="D61">
         <v>7</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>45071</v>
       </c>
       <c r="B62" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C62">
         <v>256</v>
@@ -2628,13 +2642,16 @@
       <c r="D62">
         <v>4</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>45070</v>
       </c>
       <c r="B63" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C63">
         <v>192</v>
@@ -2642,13 +2659,16 @@
       <c r="D63">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>45069</v>
       </c>
       <c r="B64" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C64">
         <v>560</v>
@@ -2656,13 +2676,16 @@
       <c r="D64">
         <v>31</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>45069</v>
       </c>
       <c r="B65" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C65">
         <v>211</v>
@@ -2670,13 +2693,16 @@
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <v>45068</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C66">
         <v>106</v>
@@ -2684,13 +2710,16 @@
       <c r="D66">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <v>45067</v>
       </c>
       <c r="B67" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C67">
         <v>92</v>
@@ -2698,13 +2727,16 @@
       <c r="D67">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <v>45065</v>
       </c>
       <c r="B68" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C68">
         <v>789</v>
@@ -2712,13 +2744,16 @@
       <c r="D68">
         <v>36</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <v>45064</v>
       </c>
       <c r="B69" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C69">
         <v>76</v>
@@ -2726,13 +2761,16 @@
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <v>45063</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70">
         <v>235</v>
@@ -2740,13 +2778,16 @@
       <c r="D70">
         <v>9</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <v>45062</v>
       </c>
       <c r="B71" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C71">
         <v>258</v>
@@ -2754,13 +2795,16 @@
       <c r="D71">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <v>45061</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C72">
         <v>174</v>
@@ -2768,13 +2812,16 @@
       <c r="D72">
         <v>2</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <v>45060</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C73">
         <v>1152</v>
@@ -2782,13 +2829,16 @@
       <c r="D73">
         <v>3</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <v>45059</v>
       </c>
       <c r="B74" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C74">
         <v>1098</v>
@@ -2796,13 +2846,16 @@
       <c r="D74">
         <v>25</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2">
         <v>45058</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C75">
         <v>121</v>
@@ -2810,13 +2863,16 @@
       <c r="D75">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="2">
         <v>45057</v>
       </c>
       <c r="B76" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C76">
         <v>685</v>
@@ -2824,13 +2880,16 @@
       <c r="D76">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="2">
         <v>45056</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C77">
         <v>233</v>
@@ -2838,13 +2897,16 @@
       <c r="D77">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>45055</v>
       </c>
       <c r="B78" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C78">
         <v>450</v>
@@ -2852,13 +2914,16 @@
       <c r="D78">
         <v>3</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2">
         <v>45054</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C79">
         <v>93</v>
@@ -2866,13 +2931,16 @@
       <c r="D79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2">
         <v>45053</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C80">
         <v>521</v>
@@ -2880,13 +2948,16 @@
       <c r="D80">
         <v>4</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="2">
         <v>45051</v>
       </c>
       <c r="B81" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C81">
         <v>1044</v>
@@ -2894,13 +2965,16 @@
       <c r="D81">
         <v>12</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2">
         <v>45051</v>
       </c>
       <c r="B82" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C82">
         <v>771</v>
@@ -2908,13 +2982,16 @@
       <c r="D82">
         <v>29</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2">
         <v>45051</v>
       </c>
       <c r="B83" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C83">
         <v>219</v>
@@ -2922,13 +2999,16 @@
       <c r="D83">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="2">
         <v>45049</v>
       </c>
       <c r="B84" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C84">
         <v>381</v>
@@ -2936,13 +3016,16 @@
       <c r="D84">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="2">
         <v>45048</v>
       </c>
       <c r="B85" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C85">
         <v>35</v>
@@ -2950,13 +3033,16 @@
       <c r="D85">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="2">
         <v>45047</v>
       </c>
       <c r="B86" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C86">
         <v>71</v>
@@ -2964,13 +3050,16 @@
       <c r="D86">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="2">
         <v>45046</v>
       </c>
       <c r="B87" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="C87">
         <v>96</v>
@@ -2978,13 +3067,16 @@
       <c r="D87">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="2">
         <v>45044</v>
       </c>
       <c r="B88" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C88">
         <v>62</v>
@@ -2992,13 +3084,16 @@
       <c r="D88">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="2">
         <v>45043</v>
       </c>
       <c r="B89" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C89">
         <v>125</v>
@@ -3006,13 +3101,16 @@
       <c r="D89">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="2">
         <v>45042</v>
       </c>
       <c r="B90" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C90">
         <v>78</v>
@@ -3020,13 +3118,16 @@
       <c r="D90">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="2">
         <v>45041</v>
       </c>
       <c r="B91" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C91">
         <v>55</v>
@@ -3034,13 +3135,16 @@
       <c r="D91">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" s="2">
         <v>45040</v>
       </c>
       <c r="B92" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C92">
         <v>169</v>
@@ -3048,13 +3152,16 @@
       <c r="D92">
         <v>2</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="2">
         <v>45039</v>
       </c>
       <c r="B93" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C93">
         <v>540</v>
@@ -3062,13 +3169,16 @@
       <c r="D93">
         <v>2</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="2">
         <v>45038</v>
       </c>
       <c r="B94" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C94">
         <v>15</v>
@@ -3076,13 +3186,16 @@
       <c r="D94">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="2">
         <v>45037</v>
       </c>
       <c r="B95" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C95">
         <v>55</v>
@@ -3090,13 +3203,16 @@
       <c r="D95">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="2">
         <v>45036</v>
       </c>
       <c r="B96" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C96">
         <v>43</v>
@@ -3104,13 +3220,16 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" s="2">
         <v>45035</v>
       </c>
       <c r="B97" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C97">
         <v>73</v>
@@ -3118,13 +3237,16 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" s="2">
         <v>45034</v>
       </c>
       <c r="B98" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C98">
         <v>48</v>
@@ -3132,13 +3254,16 @@
       <c r="D98">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" s="2">
         <v>45033</v>
       </c>
       <c r="B99" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C99">
         <v>35</v>
@@ -3146,13 +3271,16 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A100" s="2">
         <v>45032</v>
       </c>
       <c r="B100" t="s">
-        <v>122</v>
+        <v>46</v>
       </c>
       <c r="C100">
         <v>488</v>
@@ -3160,13 +3288,16 @@
       <c r="D100">
         <v>52</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A101" s="2">
         <v>45031</v>
       </c>
       <c r="B101" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C101">
         <v>896</v>
@@ -3174,13 +3305,16 @@
       <c r="D101">
         <v>22</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A102" s="2">
         <v>45030</v>
       </c>
       <c r="B102" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C102">
         <v>117</v>
@@ -3188,13 +3322,16 @@
       <c r="D102">
         <v>1</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A103" s="2">
         <v>45029</v>
       </c>
       <c r="B103" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C103">
         <v>99</v>
@@ -3202,13 +3339,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A104" s="2">
         <v>45028</v>
       </c>
       <c r="B104" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C104">
         <v>81</v>
@@ -3216,13 +3356,16 @@
       <c r="D104">
         <v>1</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A105" s="2">
         <v>45027</v>
       </c>
       <c r="B105" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C105">
         <v>59</v>
@@ -3230,13 +3373,16 @@
       <c r="D105">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A106" s="2">
         <v>45026</v>
       </c>
       <c r="B106" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C106">
         <v>55</v>
@@ -3244,13 +3390,16 @@
       <c r="D106">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A107" s="2">
         <v>45025</v>
       </c>
       <c r="B107" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C107">
         <v>62</v>
@@ -3258,13 +3407,16 @@
       <c r="D107">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A108" s="2">
         <v>45024</v>
       </c>
       <c r="B108" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C108">
         <v>56</v>
@@ -3272,13 +3424,16 @@
       <c r="D108">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A109" s="2">
         <v>45022</v>
       </c>
       <c r="B109" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C109">
         <v>113</v>
@@ -3286,13 +3441,16 @@
       <c r="D109">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A110" s="2">
         <v>45021</v>
       </c>
       <c r="B110" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C110">
         <v>89</v>
@@ -3300,13 +3458,16 @@
       <c r="D110">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A111" s="2">
         <v>45020</v>
       </c>
       <c r="B111" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C111">
         <v>202</v>
@@ -3314,13 +3475,16 @@
       <c r="D111">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A112" s="2">
         <v>45020</v>
       </c>
       <c r="B112" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C112">
         <v>57</v>
@@ -3328,13 +3492,16 @@
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A113" s="2">
         <v>45018</v>
       </c>
       <c r="B113" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C113">
         <v>120</v>
@@ -3342,13 +3509,16 @@
       <c r="D113">
         <v>1</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A114" s="2">
         <v>45017</v>
       </c>
       <c r="B114" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C114">
         <v>151</v>
@@ -3356,13 +3526,16 @@
       <c r="D114">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A115" s="2">
         <v>45016</v>
       </c>
       <c r="B115" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C115">
         <v>114</v>
@@ -3370,13 +3543,16 @@
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A116" s="2">
         <v>45015</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C116">
         <v>80</v>
@@ -3384,13 +3560,16 @@
       <c r="D116">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>45014</v>
       </c>
       <c r="B117" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C117">
         <v>959</v>
@@ -3398,13 +3577,16 @@
       <c r="D117">
         <v>151</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A118" s="2">
         <v>45014</v>
       </c>
       <c r="B118" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C118">
         <v>133</v>
@@ -3412,13 +3594,16 @@
       <c r="D118">
         <v>1</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A119" s="2">
         <v>45013</v>
       </c>
       <c r="B119" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C119">
         <v>86</v>
@@ -3426,13 +3611,16 @@
       <c r="D119">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A120" s="2">
         <v>45012</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C120">
         <v>63</v>
@@ -3440,13 +3628,16 @@
       <c r="D120">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A121" s="2">
         <v>45011</v>
       </c>
       <c r="B121" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C121">
         <v>274</v>
@@ -3454,13 +3645,16 @@
       <c r="D121">
         <v>22</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A122" s="2">
         <v>45009</v>
       </c>
       <c r="B122" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -3468,13 +3662,16 @@
       <c r="D122">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A123" s="2">
         <v>45008</v>
       </c>
       <c r="B123" t="s">
-        <v>93</v>
+        <v>37</v>
       </c>
       <c r="C123">
         <v>865</v>
@@ -3482,13 +3679,16 @@
       <c r="D123">
         <v>28</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A124" s="2">
         <v>45008</v>
       </c>
       <c r="B124" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C124">
         <v>76</v>
@@ -3496,13 +3696,16 @@
       <c r="D124">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A125" s="2">
         <v>45007</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C125">
         <v>101</v>
@@ -3510,13 +3713,16 @@
       <c r="D125">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A126" s="2">
         <v>45007</v>
       </c>
       <c r="B126" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C126">
         <v>81</v>
@@ -3524,13 +3730,16 @@
       <c r="D126">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A127" s="2">
         <v>45006</v>
       </c>
       <c r="B127" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C127">
         <v>232</v>
@@ -3538,13 +3747,16 @@
       <c r="D127">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A128" s="2">
         <v>45005</v>
       </c>
       <c r="B128" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C128">
         <v>105</v>
@@ -3552,13 +3764,16 @@
       <c r="D128">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="2">
         <v>45004</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C129">
         <v>264</v>
@@ -3566,13 +3781,16 @@
       <c r="D129">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="2">
         <v>45004</v>
       </c>
       <c r="B130" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C130">
         <v>152</v>
@@ -3580,13 +3798,16 @@
       <c r="D130">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A131" s="2">
         <v>45003</v>
       </c>
       <c r="B131" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C131">
         <v>278</v>
@@ -3594,13 +3815,16 @@
       <c r="D131">
         <v>1</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="2">
         <v>45002</v>
       </c>
       <c r="B132" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C132">
         <v>155</v>
@@ -3608,13 +3832,16 @@
       <c r="D132">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="2">
         <v>45002</v>
       </c>
       <c r="B133" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C133">
         <v>122</v>
@@ -3622,13 +3849,16 @@
       <c r="D133">
         <v>5</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A134" s="2">
         <v>45001</v>
       </c>
       <c r="B134" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C134">
         <v>691</v>
@@ -3636,13 +3866,16 @@
       <c r="D134">
         <v>13</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="2">
         <v>45000</v>
       </c>
       <c r="B135" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C135">
         <v>270</v>
@@ -3650,13 +3883,16 @@
       <c r="D135">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="2">
         <v>44999</v>
       </c>
       <c r="B136" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C136">
         <v>864</v>
@@ -3664,13 +3900,16 @@
       <c r="D136">
         <v>23</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="2">
         <v>44998</v>
       </c>
       <c r="B137" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C137">
         <v>97</v>
@@ -3678,13 +3917,16 @@
       <c r="D137">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="2">
         <v>44997</v>
       </c>
       <c r="B138" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C138">
         <v>440</v>
@@ -3692,13 +3934,16 @@
       <c r="D138">
         <v>1</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A139" s="2">
         <v>44995</v>
       </c>
       <c r="B139" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C139">
         <v>296</v>
@@ -3706,13 +3951,16 @@
       <c r="D139">
         <v>12</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A140" s="2">
         <v>44994</v>
       </c>
       <c r="B140" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C140">
         <v>80</v>
@@ -3720,13 +3968,16 @@
       <c r="D140">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="2">
         <v>44993</v>
       </c>
       <c r="B141" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C141">
         <v>195</v>
@@ -3734,13 +3985,16 @@
       <c r="D141">
         <v>2</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A142" s="2">
         <v>44993</v>
       </c>
       <c r="B142" t="s">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="C142">
         <v>110</v>
@@ -3748,13 +4002,16 @@
       <c r="D142">
         <v>2</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="2">
         <v>44991</v>
       </c>
       <c r="B143" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
       <c r="C143">
         <v>512</v>
@@ -3762,13 +4019,16 @@
       <c r="D143">
         <v>30</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="2">
         <v>44990</v>
       </c>
       <c r="B144" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C144">
         <v>264</v>
@@ -3776,13 +4036,16 @@
       <c r="D144">
         <v>1</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A145" s="2">
         <v>44989</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C145">
         <v>470</v>
@@ -3790,13 +4053,16 @@
       <c r="D145">
         <v>1</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A146" s="2">
         <v>44987</v>
       </c>
       <c r="B146" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C146">
         <v>1143</v>
@@ -3804,13 +4070,16 @@
       <c r="D146">
         <v>8</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A147" s="2">
         <v>44986</v>
       </c>
       <c r="B147" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C147">
         <v>306</v>
@@ -3818,218 +4087,56 @@
       <c r="D147">
         <v>7</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" t="s">
-        <v>74</v>
-      </c>
-      <c r="B148" t="s">
-        <v>24</v>
-      </c>
-      <c r="C148">
-        <v>97</v>
-      </c>
-      <c r="D148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2">
-        <v>45263</v>
-      </c>
-      <c r="B149" t="s">
-        <v>19</v>
-      </c>
-      <c r="C149">
-        <v>440</v>
-      </c>
-      <c r="D149">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2">
-        <v>45233</v>
-      </c>
-      <c r="B150" t="s">
-        <v>20</v>
-      </c>
-      <c r="C150">
-        <v>1328</v>
-      </c>
-      <c r="D150">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2">
-        <v>45202</v>
-      </c>
-      <c r="B151" t="s">
-        <v>19</v>
-      </c>
-      <c r="C151">
-        <v>296</v>
-      </c>
-      <c r="D151">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2">
-        <v>45171</v>
-      </c>
-      <c r="B152" t="s">
-        <v>23</v>
-      </c>
-      <c r="C152">
-        <v>80</v>
-      </c>
-      <c r="D152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2">
-        <v>45141</v>
-      </c>
-      <c r="B153" t="s">
-        <v>75</v>
-      </c>
-      <c r="C153">
-        <v>110</v>
-      </c>
-      <c r="D153">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2">
-        <v>45141</v>
-      </c>
-      <c r="B154" t="s">
-        <v>25</v>
-      </c>
-      <c r="C154">
-        <v>195</v>
-      </c>
-      <c r="D154">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2">
-        <v>45080</v>
-      </c>
-      <c r="B155" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155">
-        <v>14514</v>
-      </c>
-      <c r="D155">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2">
-        <v>45080</v>
-      </c>
-      <c r="B156" t="s">
-        <v>76</v>
-      </c>
-      <c r="C156">
-        <v>512</v>
-      </c>
-      <c r="D156">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B157" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157">
-        <v>5534</v>
-      </c>
-      <c r="D157">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B158" t="s">
-        <v>19</v>
-      </c>
-      <c r="C158">
-        <v>264</v>
-      </c>
-      <c r="D158">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2">
-        <v>45019</v>
-      </c>
-      <c r="B159" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159">
-        <v>6715</v>
-      </c>
-      <c r="D159">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2">
-        <v>45019</v>
-      </c>
-      <c r="B160" t="s">
-        <v>19</v>
-      </c>
-      <c r="C160">
-        <v>470</v>
-      </c>
-      <c r="D160">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B161" t="s">
-        <v>19</v>
-      </c>
-      <c r="C161">
-        <v>1143</v>
-      </c>
-      <c r="D161">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2">
-        <v>44929</v>
-      </c>
-      <c r="B162" t="s">
-        <v>19</v>
-      </c>
-      <c r="C162">
-        <v>306</v>
-      </c>
-      <c r="D162">
-        <v>7</v>
-      </c>
+      <c r="E147" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A150" s="2"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A152" s="2"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A153" s="2"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A154" s="2"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A155" s="2"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A156" s="2"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A157" s="2"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A158" s="2"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A159" s="2"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A160" s="2"/>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2"/>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
+    <sortCondition descending="1" ref="A118:A162"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4037,15 +4144,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92892356-4B9D-41CD-BE4A-8191C67F6A84}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4058,441 +4172,1430 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>26</v>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45117</v>
       </c>
       <c r="B2" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C2">
+        <v>450</v>
+      </c>
+      <c r="D2">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3">
         <v>105</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B3" t="s">
-        <v>99</v>
-      </c>
-      <c r="C3">
+      <c r="E3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
         <v>347</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>78</v>
-      </c>
-      <c r="C4">
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5">
         <v>194</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6">
         <v>167</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>45175</v>
-      </c>
-      <c r="B6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C6">
-        <v>3181</v>
-      </c>
       <c r="D6">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
-        <v>45113</v>
+        <v>45081</v>
       </c>
       <c r="B7" t="s">
-        <v>99</v>
+        <v>18</v>
       </c>
       <c r="C7">
-        <v>1089</v>
+        <v>258</v>
       </c>
       <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>113</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9">
+        <v>416</v>
+      </c>
+      <c r="D9">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10">
+        <v>124</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11">
+        <v>109</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B12" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>45052</v>
-      </c>
-      <c r="B8" t="s">
-        <v>33</v>
-      </c>
-      <c r="C8">
-        <v>595</v>
-      </c>
-      <c r="D8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B9" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9">
-        <v>258</v>
-      </c>
-      <c r="D9">
+      <c r="C12">
+        <v>220</v>
+      </c>
+      <c r="D12">
+        <v>7</v>
+      </c>
+      <c r="E12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45073</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>133</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45072</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>385</v>
+      </c>
+      <c r="D14">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B10" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10">
-        <v>113</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11">
-        <v>416</v>
-      </c>
-      <c r="D11">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B12" t="s">
-        <v>103</v>
-      </c>
-      <c r="C12">
-        <v>532</v>
-      </c>
-      <c r="D12">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B13" t="s">
-        <v>104</v>
-      </c>
-      <c r="C13">
-        <v>124</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>42</v>
-      </c>
-      <c r="B14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14">
-        <v>109</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>44</v>
+      <c r="E14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45069</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C15">
-        <v>133</v>
+        <v>189</v>
       </c>
       <c r="D15">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>44</v>
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45068</v>
       </c>
       <c r="B16" t="s">
-        <v>105</v>
+        <v>37</v>
       </c>
       <c r="C16">
-        <v>220</v>
+        <v>148</v>
       </c>
       <c r="D16">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>45</v>
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45067</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="C17">
-        <v>385</v>
+        <v>153</v>
       </c>
       <c r="D17">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>46</v>
+      <c r="E17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45065</v>
       </c>
       <c r="B18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C18">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="D18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>47</v>
+      <c r="E18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45065</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
       <c r="C19">
-        <v>148</v>
+        <v>166</v>
       </c>
       <c r="D19">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>48</v>
+        <v>0</v>
+      </c>
+      <c r="E19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45064</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="C20">
+        <v>58</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>182</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
+        <v>161</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>121</v>
+      </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24">
+        <v>207</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25">
         <v>153</v>
       </c>
-      <c r="D20">
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45061</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>108</v>
+      </c>
+      <c r="D26">
+        <v>10</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27">
+        <v>321</v>
+      </c>
+      <c r="D27">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <v>273</v>
+      </c>
+      <c r="D28">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29">
+        <v>79</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45057</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>79</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B31" t="s">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>123</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45054</v>
+      </c>
+      <c r="B32" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32">
+        <v>157</v>
+      </c>
+      <c r="D32">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>49</v>
-      </c>
-      <c r="B21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21">
-        <v>166</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="E32" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B33" t="s">
+        <v>50</v>
+      </c>
+      <c r="C33">
+        <v>368</v>
+      </c>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B34" t="s">
+        <v>29</v>
+      </c>
+      <c r="C34">
+        <v>195</v>
+      </c>
+      <c r="D34">
+        <v>0</v>
+      </c>
+      <c r="E34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45052</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>97</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B36" t="s">
+        <v>37</v>
+      </c>
+      <c r="C36">
+        <v>495</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+      <c r="E36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B37" t="s">
+        <v>51</v>
+      </c>
+      <c r="C37">
+        <v>58</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B38" t="s">
+        <v>51</v>
+      </c>
+      <c r="C38">
+        <v>54</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B39" t="s">
+        <v>50</v>
+      </c>
+      <c r="C39">
+        <v>87</v>
+      </c>
+      <c r="D39">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40">
+        <v>127</v>
+      </c>
+      <c r="D40">
+        <v>3</v>
+      </c>
+      <c r="E40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A41" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B41" t="s">
+        <v>51</v>
+      </c>
+      <c r="C41">
+        <v>76</v>
+      </c>
+      <c r="D41">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42">
+        <v>75</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A43" s="2">
+        <v>45034</v>
+      </c>
+      <c r="B43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C43">
+        <v>130</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A44" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+      <c r="C44">
+        <v>133</v>
+      </c>
+      <c r="D44">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A45" s="2">
+        <v>45027</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+      <c r="C45">
+        <v>101</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45024</v>
+      </c>
+      <c r="B46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C46">
+        <v>343</v>
+      </c>
+      <c r="D46">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45023</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47">
+        <v>68</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45022</v>
+      </c>
+      <c r="B48" t="s">
+        <v>54</v>
+      </c>
+      <c r="C48">
+        <v>140</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49">
+        <v>104</v>
+      </c>
+      <c r="D49">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45021</v>
+      </c>
+      <c r="B50" t="s">
+        <v>55</v>
+      </c>
+      <c r="C50">
+        <v>78</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B51" t="s">
+        <v>53</v>
+      </c>
+      <c r="C51">
+        <v>300</v>
+      </c>
+      <c r="D51">
+        <v>9</v>
+      </c>
+      <c r="E51" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B52" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52">
+        <v>115</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45013</v>
+      </c>
+      <c r="B53" t="s">
+        <v>55</v>
+      </c>
+      <c r="C53">
         <v>108</v>
       </c>
-      <c r="C22">
-        <v>194</v>
-      </c>
-      <c r="D22">
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B54" t="s">
+        <v>21</v>
+      </c>
+      <c r="C54">
+        <v>232</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B55" t="s">
+        <v>56</v>
+      </c>
+      <c r="C55">
+        <v>176</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45008</v>
+      </c>
+      <c r="B56" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56">
+        <v>54</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57">
+        <v>71</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B58" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58">
+        <v>65</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>184</v>
+      </c>
+      <c r="D59">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>49</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="E59" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45005</v>
+      </c>
+      <c r="B60" t="s">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <v>150</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B61" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61">
+        <v>286</v>
+      </c>
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62">
+        <v>78</v>
+      </c>
+      <c r="D62">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B63" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63">
+        <v>123</v>
+      </c>
+      <c r="D63">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B64" t="s">
+        <v>54</v>
+      </c>
+      <c r="C64">
+        <v>86</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B65" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65">
         <v>99</v>
       </c>
-      <c r="C23">
-        <v>3672</v>
-      </c>
-      <c r="D23">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="D65">
+        <v>6</v>
+      </c>
+      <c r="E65" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B66" t="s">
+        <v>25</v>
+      </c>
+      <c r="C66">
+        <v>77</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B67" t="s">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C67">
+        <v>130</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>44996</v>
+      </c>
+      <c r="B68" t="s">
+        <v>50</v>
+      </c>
+      <c r="C68">
+        <v>84</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B69" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69">
+        <v>42</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B70" t="s">
+        <v>50</v>
+      </c>
+      <c r="C70">
+        <v>95</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B71" t="s">
+        <v>58</v>
+      </c>
+      <c r="C71">
+        <v>229</v>
+      </c>
+      <c r="D71">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B72" t="s">
+        <v>23</v>
+      </c>
+      <c r="C72">
+        <v>163</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>54</v>
+      </c>
+      <c r="D73">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B74" t="s">
+        <v>50</v>
+      </c>
+      <c r="C74">
+        <v>251</v>
+      </c>
+      <c r="D74">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75">
+        <v>161</v>
+      </c>
+      <c r="D75">
+        <v>0</v>
+      </c>
+      <c r="E75" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B76" t="s">
+        <v>25</v>
+      </c>
+      <c r="C76">
+        <v>142</v>
+      </c>
+      <c r="D76">
+        <v>0</v>
+      </c>
+      <c r="E76" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B77" t="s">
+        <v>50</v>
+      </c>
+      <c r="C77">
+        <v>141</v>
+      </c>
+      <c r="D77">
+        <v>0</v>
+      </c>
+      <c r="E77" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B78" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78">
+        <v>113</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B79" t="s">
+        <v>58</v>
+      </c>
+      <c r="C79">
         <v>109</v>
       </c>
-      <c r="C24">
-        <v>58</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>51</v>
-      </c>
-      <c r="B25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C25">
-        <v>121</v>
-      </c>
-      <c r="D25">
+      <c r="D79">
+        <v>7</v>
+      </c>
+      <c r="E79" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80">
+        <v>91</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B81" t="s">
+        <v>25</v>
+      </c>
+      <c r="C81">
+        <v>393</v>
+      </c>
+      <c r="D81">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82">
+        <v>311</v>
+      </c>
+      <c r="D82">
+        <v>18</v>
+      </c>
+      <c r="E82" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C83">
+        <v>66</v>
+      </c>
+      <c r="D83">
         <v>2</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>51</v>
-      </c>
-      <c r="B26" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26">
-        <v>161</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>51</v>
-      </c>
-      <c r="B27" t="s">
-        <v>112</v>
-      </c>
-      <c r="C27">
-        <v>182</v>
-      </c>
-      <c r="D27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B28" t="s">
-        <v>111</v>
-      </c>
-      <c r="C28">
-        <v>207</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" t="s">
-        <v>106</v>
-      </c>
-      <c r="C29">
-        <v>108</v>
-      </c>
-      <c r="D29">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>52</v>
-      </c>
-      <c r="B30" t="s">
-        <v>113</v>
-      </c>
-      <c r="C30">
-        <v>153</v>
-      </c>
-      <c r="D30">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
-        <v>45235</v>
-      </c>
-      <c r="B31" t="s">
-        <v>111</v>
-      </c>
-      <c r="C31">
-        <v>321</v>
-      </c>
-      <c r="D31">
-        <v>4</v>
+      <c r="E83" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E94">
+    <sortCondition descending="1" ref="A1:A94"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E981620-C8DC-4991-BE0E-1E2BBD2B0740}">
-  <dimension ref="A1:D135"/>
+  <dimension ref="A1:E127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:D127"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4505,839 +5608,1019 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>118</v>
+      <c r="E1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>45122</v>
       </c>
       <c r="B2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C2">
+        <v>63</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>45120</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3">
+        <v>29</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>45119</v>
+      </c>
+      <c r="B4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4">
+        <v>100</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>45109</v>
+      </c>
+      <c r="B5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>75</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>45108</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="B7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7">
+        <v>28</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>45106</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8">
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>45105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>45104</v>
+      </c>
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>34</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>45103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11">
+        <v>20</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>45102</v>
+      </c>
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12">
+        <v>69</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>45101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13">
+        <v>69</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>45100</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14">
+        <v>43</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B15" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15">
+        <v>57</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>45099</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16">
+        <v>32</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>45098</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17">
+        <v>44</v>
+      </c>
+      <c r="D17">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>45097</v>
+      </c>
+      <c r="B18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18">
+        <v>27</v>
+      </c>
+      <c r="D18">
+        <v>3</v>
+      </c>
+      <c r="E18" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>45096</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>100</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>45085</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20">
+        <v>104</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>45081</v>
+      </c>
+      <c r="B22" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>17</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>45080</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>67</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>45079</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>59</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>71</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>45078</v>
+      </c>
+      <c r="B26" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <v>23</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>45077</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <v>43</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>45076</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>79</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
+        <v>87</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>45065</v>
+      </c>
+      <c r="B30" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30">
+        <v>80</v>
+      </c>
+      <c r="D30">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>45064</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
         <v>25</v>
-      </c>
-      <c r="C2">
-        <v>13</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>76</v>
-      </c>
-      <c r="C3">
-        <v>63</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>29</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>45267</v>
-      </c>
-      <c r="B5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5">
-        <v>100</v>
-      </c>
-      <c r="D5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>44964</v>
-      </c>
-      <c r="B6" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6">
-        <v>75</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <v>44933</v>
-      </c>
-      <c r="B7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C7">
-        <v>65</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>119</v>
-      </c>
-      <c r="B8" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8">
-        <v>134</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9">
-        <v>28</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10">
-        <v>52</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
-      </c>
-      <c r="C11">
-        <v>17</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12">
-        <v>34</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>120</v>
-      </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13">
-        <v>20</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C14">
-        <v>69</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C15">
-        <v>69</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>34</v>
-      </c>
-      <c r="B16" t="s">
-        <v>76</v>
-      </c>
-      <c r="C16">
-        <v>191</v>
-      </c>
-      <c r="D16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>34</v>
-      </c>
-      <c r="B17" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17">
-        <v>43</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>35</v>
-      </c>
-      <c r="B18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18">
-        <v>57</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" t="s">
-        <v>78</v>
-      </c>
-      <c r="C19">
-        <v>32</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20">
-        <v>44</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21">
-        <v>27</v>
-      </c>
-      <c r="D21">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>39</v>
-      </c>
-      <c r="B22" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22">
-        <v>100</v>
-      </c>
-      <c r="D22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
-        <v>45144</v>
-      </c>
-      <c r="B23" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23">
-        <v>104</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
-        <v>45113</v>
-      </c>
-      <c r="B24" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24">
-        <v>154</v>
-      </c>
-      <c r="D24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B25" t="s">
-        <v>19</v>
-      </c>
-      <c r="C25">
-        <v>55</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
-        <v>45022</v>
-      </c>
-      <c r="B26" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26">
-        <v>17</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
-        <v>44991</v>
-      </c>
-      <c r="B27" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27">
-        <v>67</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
-        <v>44963</v>
-      </c>
-      <c r="B28" t="s">
-        <v>19</v>
-      </c>
-      <c r="C28">
-        <v>59</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C29">
-        <v>71</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
-        <v>44932</v>
-      </c>
-      <c r="B30" t="s">
-        <v>82</v>
-      </c>
-      <c r="C30">
-        <v>23</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="B31" t="s">
-        <v>25</v>
-      </c>
-      <c r="C31">
-        <v>43</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>43</v>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>45062</v>
       </c>
       <c r="B32" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C32">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>45062</v>
+      </c>
+      <c r="B33" t="s">
+        <v>22</v>
+      </c>
+      <c r="C33">
+        <v>55</v>
+      </c>
+      <c r="D33">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C33">
-        <v>80</v>
-      </c>
-      <c r="D33">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>49</v>
+      <c r="E33" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>45059</v>
       </c>
       <c r="B34" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C34">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D34">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>50</v>
+      <c r="E34" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>45058</v>
       </c>
       <c r="B35" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>76</v>
       </c>
       <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>45056</v>
+      </c>
+      <c r="B36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36">
+        <v>56</v>
+      </c>
+      <c r="D36">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>51</v>
-      </c>
-      <c r="B36" t="s">
-        <v>85</v>
-      </c>
-      <c r="C36">
-        <v>57</v>
-      </c>
-      <c r="D36">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>51</v>
+      <c r="E36" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>45055</v>
       </c>
       <c r="B37" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C37">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="D37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>53</v>
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>45054</v>
       </c>
       <c r="B38" t="s">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>119</v>
+        <v>45</v>
       </c>
       <c r="D38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
-        <v>45265</v>
+        <v>45053</v>
       </c>
       <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>93</v>
+      </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
+      <c r="E39" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A40" s="2">
+        <v>45053</v>
+      </c>
+      <c r="B40" t="s">
         <v>22</v>
       </c>
-      <c r="C39">
-        <v>76</v>
-      </c>
-      <c r="D39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
-        <v>45204</v>
-      </c>
-      <c r="B40" t="s">
-        <v>76</v>
-      </c>
       <c r="C40">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="D40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+      <c r="E40" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2">
-        <v>45174</v>
+        <v>45052</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="D41">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2">
-        <v>45143</v>
+        <v>45051</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C42">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2">
-        <v>45112</v>
+        <v>45050</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>34</v>
       </c>
       <c r="C43">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="D43">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2">
-        <v>45112</v>
+        <v>45049</v>
       </c>
       <c r="B44" t="s">
         <v>25</v>
       </c>
       <c r="C44">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D44">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2">
-        <v>45082</v>
+        <v>45049</v>
       </c>
       <c r="B45" t="s">
-        <v>86</v>
+        <v>22</v>
       </c>
       <c r="C45">
+        <v>28</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A46" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C46">
+        <v>54</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2">
+        <v>45048</v>
+      </c>
+      <c r="B47" t="s">
+        <v>22</v>
+      </c>
+      <c r="C47">
+        <v>41</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2">
+        <v>45047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48">
+        <v>22</v>
+      </c>
+      <c r="D48">
+        <v>3</v>
+      </c>
+      <c r="E48" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B49" t="s">
+        <v>21</v>
+      </c>
+      <c r="C49">
         <v>63</v>
       </c>
-      <c r="D45">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
-        <v>45051</v>
-      </c>
-      <c r="B46" t="s">
-        <v>25</v>
-      </c>
-      <c r="C46">
-        <v>88</v>
-      </c>
-      <c r="D46">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
-        <v>45021</v>
-      </c>
-      <c r="B47" t="s">
-        <v>87</v>
-      </c>
-      <c r="C47">
-        <v>113</v>
-      </c>
-      <c r="D47">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
-        <v>44990</v>
-      </c>
-      <c r="B48" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48">
-        <v>80</v>
-      </c>
-      <c r="D48">
+      <c r="D49">
+        <v>3</v>
+      </c>
+      <c r="E49" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2">
+        <v>45045</v>
+      </c>
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="C50">
+        <v>44</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A51" s="2">
+        <v>45044</v>
+      </c>
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51">
+        <v>39</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B52" t="s">
+        <v>21</v>
+      </c>
+      <c r="C52">
+        <v>102</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A53" s="2">
+        <v>45043</v>
+      </c>
+      <c r="B53" t="s">
+        <v>21</v>
+      </c>
+      <c r="C53">
+        <v>95</v>
+      </c>
+      <c r="D53">
+        <v>2</v>
+      </c>
+      <c r="E53" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54">
+        <v>54</v>
+      </c>
+      <c r="D54">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2">
+        <v>45037</v>
+      </c>
+      <c r="B55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55">
+        <v>27</v>
+      </c>
+      <c r="D55">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
-        <v>44990</v>
-      </c>
-      <c r="B49" t="s">
-        <v>25</v>
-      </c>
-      <c r="C49">
-        <v>28</v>
-      </c>
-      <c r="D49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
-        <v>44962</v>
-      </c>
-      <c r="B50" t="s">
-        <v>25</v>
-      </c>
-      <c r="C50">
+      <c r="E55" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B56" t="s">
+        <v>35</v>
+      </c>
+      <c r="C56">
+        <v>77</v>
+      </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A57" s="2">
+        <v>45032</v>
+      </c>
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57">
+        <v>40</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A58" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B58" t="s">
+        <v>21</v>
+      </c>
+      <c r="C58">
+        <v>60</v>
+      </c>
+      <c r="D58">
+        <v>0</v>
+      </c>
+      <c r="E58" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A59" s="2">
+        <v>45031</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
         <v>54</v>
       </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
-        <v>44962</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51">
-        <v>41</v>
-      </c>
-      <c r="D51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
-        <v>44931</v>
-      </c>
-      <c r="B52" t="s">
-        <v>88</v>
-      </c>
-      <c r="C52">
-        <v>22</v>
-      </c>
-      <c r="D52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B53" t="s">
-        <v>24</v>
-      </c>
-      <c r="C53">
-        <v>63</v>
-      </c>
-      <c r="D53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B54" t="s">
-        <v>24</v>
-      </c>
-      <c r="C54">
-        <v>44</v>
-      </c>
-      <c r="D54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="B55" t="s">
-        <v>25</v>
-      </c>
-      <c r="C55">
-        <v>39</v>
-      </c>
-      <c r="D55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B56" t="s">
-        <v>24</v>
-      </c>
-      <c r="C56">
-        <v>95</v>
-      </c>
-      <c r="D56">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>24</v>
-      </c>
-      <c r="C57">
-        <v>102</v>
-      </c>
-      <c r="D57">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58">
-        <v>54</v>
-      </c>
-      <c r="D58">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59">
-        <v>27</v>
-      </c>
       <c r="D59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A60" s="2">
+        <v>45030</v>
+      </c>
+      <c r="B60" t="s">
+        <v>36</v>
+      </c>
+      <c r="C60">
         <v>58</v>
       </c>
-      <c r="B60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60">
-        <v>77</v>
-      </c>
       <c r="D60">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="3" t="s">
-        <v>58</v>
+      <c r="E60" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A61" s="2">
+        <v>45030</v>
       </c>
       <c r="B61" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C61">
         <v>40</v>
@@ -5345,181 +6628,220 @@
       <c r="D61">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="3" t="s">
-        <v>59</v>
+      <c r="E61" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2">
+        <v>45029</v>
       </c>
       <c r="B62" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C62">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="D62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="3" t="s">
-        <v>59</v>
+        <v>3</v>
+      </c>
+      <c r="E62" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A63" s="2">
+        <v>45029</v>
       </c>
       <c r="B63" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C63">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="D63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="3" t="s">
-        <v>60</v>
+        <v>2</v>
+      </c>
+      <c r="E63" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2">
+        <v>45028</v>
       </c>
       <c r="B64" t="s">
-        <v>92</v>
+        <v>36</v>
       </c>
       <c r="C64">
-        <v>58</v>
+        <v>85</v>
       </c>
       <c r="D64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="3" t="s">
-        <v>60</v>
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2">
+        <v>45028</v>
       </c>
       <c r="B65" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C65">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="D65">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="3" t="s">
-        <v>61</v>
+      <c r="E65" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A66" s="2">
+        <v>45027</v>
       </c>
       <c r="B66" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="D66">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="3" t="s">
-        <v>61</v>
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A67" s="2">
+        <v>45027</v>
       </c>
       <c r="B67" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C67">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="3">
-        <v>45264</v>
+        <v>0</v>
+      </c>
+      <c r="E67" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2">
+        <v>45026</v>
       </c>
       <c r="B68" t="s">
-        <v>92</v>
+        <v>29</v>
       </c>
       <c r="C68">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="3">
-        <v>45264</v>
+      <c r="E68" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2">
+        <v>45025</v>
       </c>
       <c r="B69" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C69">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="D69">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="3">
-        <v>45234</v>
+      <c r="E69" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A70" s="2">
+        <v>45024</v>
       </c>
       <c r="B70" t="s">
-        <v>93</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="3">
-        <v>45234</v>
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2">
+        <v>45024</v>
       </c>
       <c r="B71" t="s">
-        <v>76</v>
+        <v>38</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="3">
-        <v>45203</v>
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A72" s="2">
+        <v>45023</v>
       </c>
       <c r="B72" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C72">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="3">
-        <v>45173</v>
+      <c r="E72" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2">
+        <v>45023</v>
       </c>
       <c r="B73" t="s">
-        <v>76</v>
+        <v>23</v>
       </c>
       <c r="C73">
-        <v>89</v>
+        <v>12</v>
       </c>
       <c r="D73">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="3">
-        <v>45142</v>
+      <c r="E73" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A74" s="2">
+        <v>45022</v>
       </c>
       <c r="B74" t="s">
-        <v>94</v>
+        <v>29</v>
       </c>
       <c r="C74">
         <v>69</v>
@@ -5527,360 +6849,438 @@
       <c r="D74">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="3">
-        <v>45142</v>
+      <c r="E74" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2">
+        <v>45021</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C75">
-        <v>72</v>
+        <v>115</v>
       </c>
       <c r="D75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="3">
-        <v>45111</v>
+        <v>8</v>
+      </c>
+      <c r="E75" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A76" s="2">
+        <v>45021</v>
       </c>
       <c r="B76" t="s">
-        <v>95</v>
+        <v>21</v>
       </c>
       <c r="C76">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="3">
-        <v>45111</v>
+      <c r="E76" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A77" s="2">
+        <v>45021</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>29</v>
       </c>
       <c r="C77">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="3">
-        <v>45081</v>
+      <c r="E77" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="2">
+        <v>45021</v>
       </c>
       <c r="B78" t="s">
-        <v>76</v>
+        <v>37</v>
       </c>
       <c r="C78">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="D78">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="3">
-        <v>45050</v>
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2">
+        <v>45020</v>
       </c>
       <c r="B79" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C79">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="D79">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="3">
-        <v>45050</v>
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2">
+        <v>45020</v>
       </c>
       <c r="B80" t="s">
-        <v>76</v>
+        <v>22</v>
       </c>
       <c r="C80">
+        <v>67</v>
+      </c>
+      <c r="D80">
+        <v>0</v>
+      </c>
+      <c r="E80" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="2">
+        <v>45020</v>
+      </c>
+      <c r="B81" t="s">
+        <v>22</v>
+      </c>
+      <c r="C81">
+        <v>54</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="C82">
+        <v>120</v>
+      </c>
+      <c r="D82">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2">
+        <v>45019</v>
+      </c>
+      <c r="B83" t="s">
+        <v>22</v>
+      </c>
+      <c r="C83">
+        <v>38</v>
+      </c>
+      <c r="D83">
+        <v>0</v>
+      </c>
+      <c r="E83" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="2">
+        <v>45018</v>
+      </c>
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84">
+        <v>56</v>
+      </c>
+      <c r="D84">
+        <v>0</v>
+      </c>
+      <c r="E84" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="2">
+        <v>45017</v>
+      </c>
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85">
+        <v>52</v>
+      </c>
+      <c r="D85">
+        <v>0</v>
+      </c>
+      <c r="E85" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A86" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86">
+        <v>112</v>
+      </c>
+      <c r="D86">
+        <v>5</v>
+      </c>
+      <c r="E86" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B87" t="s">
+        <v>37</v>
+      </c>
+      <c r="C87">
+        <v>57</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="2">
+        <v>45016</v>
+      </c>
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88">
         <v>53</v>
       </c>
-      <c r="D80">
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B89" t="s">
+        <v>22</v>
+      </c>
+      <c r="C89">
+        <v>51</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="2">
+        <v>45015</v>
+      </c>
+      <c r="B90" t="s">
+        <v>22</v>
+      </c>
+      <c r="C90">
+        <v>32</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+      <c r="E90" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="2">
+        <v>45014</v>
+      </c>
+      <c r="B91" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91">
+        <v>38</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B92" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92">
+        <v>75</v>
+      </c>
+      <c r="D92">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="3">
-        <v>45050</v>
-      </c>
-      <c r="B81" t="s">
-        <v>24</v>
-      </c>
-      <c r="C81">
-        <v>55</v>
-      </c>
-      <c r="D81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="3">
-        <v>45050</v>
-      </c>
-      <c r="B82" t="s">
-        <v>93</v>
-      </c>
-      <c r="C82">
-        <v>34</v>
-      </c>
-      <c r="D82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B83" t="s">
-        <v>25</v>
-      </c>
-      <c r="C83">
+      <c r="E92" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="2">
+        <v>45012</v>
+      </c>
+      <c r="B93" t="s">
+        <v>22</v>
+      </c>
+      <c r="C93">
+        <v>27</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="2">
+        <v>45010</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94">
         <v>54</v>
       </c>
-      <c r="D83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B84" t="s">
-        <v>25</v>
-      </c>
-      <c r="C84">
-        <v>67</v>
-      </c>
-      <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="3">
-        <v>45020</v>
-      </c>
-      <c r="B85" t="s">
-        <v>25</v>
-      </c>
-      <c r="C85">
-        <v>96</v>
-      </c>
-      <c r="D85">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="3">
-        <v>44989</v>
-      </c>
-      <c r="B86" t="s">
-        <v>25</v>
-      </c>
-      <c r="C86">
-        <v>120</v>
-      </c>
-      <c r="D86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="3">
-        <v>44989</v>
-      </c>
-      <c r="B87" t="s">
-        <v>25</v>
-      </c>
-      <c r="C87">
-        <v>38</v>
-      </c>
-      <c r="D87">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="3">
-        <v>44989</v>
-      </c>
-      <c r="B88" t="s">
-        <v>25</v>
-      </c>
-      <c r="C88">
-        <v>170</v>
-      </c>
-      <c r="D88">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="3">
-        <v>44961</v>
-      </c>
-      <c r="B89" t="s">
-        <v>76</v>
-      </c>
-      <c r="C89">
-        <v>56</v>
-      </c>
-      <c r="D89">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="3">
-        <v>44930</v>
-      </c>
-      <c r="B90" t="s">
-        <v>76</v>
-      </c>
-      <c r="C90">
+      <c r="D94">
+        <v>0</v>
+      </c>
+      <c r="E94" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95">
         <v>52</v>
       </c>
-      <c r="D90">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" t="s">
-        <v>62</v>
-      </c>
-      <c r="B91" t="s">
-        <v>76</v>
-      </c>
-      <c r="C91">
-        <v>53</v>
-      </c>
-      <c r="D91">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" t="s">
-        <v>62</v>
-      </c>
-      <c r="B92" t="s">
-        <v>76</v>
-      </c>
-      <c r="C92">
-        <v>112</v>
-      </c>
-      <c r="D92">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
-        <v>62</v>
-      </c>
-      <c r="B93" t="s">
-        <v>93</v>
-      </c>
-      <c r="C93">
+      <c r="D95">
+        <v>0</v>
+      </c>
+      <c r="E95" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="2">
+        <v>45007</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>35</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="2">
+        <v>45006</v>
+      </c>
+      <c r="B97" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97">
         <v>57</v>
       </c>
-      <c r="D93">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" t="s">
-        <v>63</v>
-      </c>
-      <c r="B94" t="s">
-        <v>25</v>
-      </c>
-      <c r="C94">
-        <v>32</v>
-      </c>
-      <c r="D94">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" t="s">
-        <v>63</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95">
-        <v>51</v>
-      </c>
-      <c r="D95">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" t="s">
-        <v>64</v>
-      </c>
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="C96">
-        <v>38</v>
-      </c>
-      <c r="D96">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
-        <v>65</v>
-      </c>
-      <c r="B97" t="s">
-        <v>85</v>
-      </c>
-      <c r="C97">
-        <v>75</v>
-      </c>
       <c r="D97">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" t="s">
-        <v>65</v>
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="2">
+        <v>45004</v>
       </c>
       <c r="B98" t="s">
         <v>25</v>
       </c>
       <c r="C98">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="D98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" t="s">
-        <v>121</v>
+        <v>2</v>
+      </c>
+      <c r="E98" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="2">
+        <v>45004</v>
       </c>
       <c r="B99" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="C99">
-        <v>219</v>
+        <v>31</v>
       </c>
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" t="s">
-        <v>121</v>
+      <c r="E99" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A100" s="2">
+        <v>45003</v>
       </c>
       <c r="B100" t="s">
         <v>24</v>
@@ -5891,498 +7291,473 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
-        <v>66</v>
+      <c r="E100" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A101" s="2">
+        <v>45003</v>
       </c>
       <c r="B101" t="s">
-        <v>96</v>
+        <v>18</v>
       </c>
       <c r="C101">
+        <v>48</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="2">
+        <v>45003</v>
+      </c>
+      <c r="B102" t="s">
+        <v>25</v>
+      </c>
+      <c r="C102">
+        <v>42</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B103" t="s">
+        <v>18</v>
+      </c>
+      <c r="C103">
+        <v>70</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="2">
+        <v>45002</v>
+      </c>
+      <c r="B104" t="s">
+        <v>25</v>
+      </c>
+      <c r="C104">
+        <v>37</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B105" t="s">
+        <v>25</v>
+      </c>
+      <c r="C105">
+        <v>70</v>
+      </c>
+      <c r="D105">
+        <v>0</v>
+      </c>
+      <c r="E105" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="2">
+        <v>45001</v>
+      </c>
+      <c r="B106" t="s">
+        <v>18</v>
+      </c>
+      <c r="C106">
+        <v>55</v>
+      </c>
+      <c r="D106">
+        <v>0</v>
+      </c>
+      <c r="E106" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B107" t="s">
+        <v>18</v>
+      </c>
+      <c r="C107">
+        <v>68</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="2">
+        <v>45000</v>
+      </c>
+      <c r="B108" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108">
+        <v>55</v>
+      </c>
+      <c r="D108">
+        <v>0</v>
+      </c>
+      <c r="E108" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B109" t="s">
+        <v>22</v>
+      </c>
+      <c r="C109">
         <v>52</v>
       </c>
-      <c r="D101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" t="s">
-        <v>97</v>
-      </c>
-      <c r="C102">
-        <v>35</v>
-      </c>
-      <c r="D102">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" t="s">
-        <v>67</v>
-      </c>
-      <c r="B103" t="s">
-        <v>85</v>
-      </c>
-      <c r="C103">
-        <v>57</v>
-      </c>
-      <c r="D103">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104">
-        <v>61</v>
-      </c>
-      <c r="D104">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105">
-        <v>31</v>
-      </c>
-      <c r="D105">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
-        <v>69</v>
-      </c>
-      <c r="B106" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106">
+      <c r="D109">
+        <v>0</v>
+      </c>
+      <c r="E109" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="2">
+        <v>44999</v>
+      </c>
+      <c r="B110" t="s">
+        <v>18</v>
+      </c>
+      <c r="C110">
+        <v>37</v>
+      </c>
+      <c r="D110">
+        <v>0</v>
+      </c>
+      <c r="E110" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111">
+        <v>71</v>
+      </c>
+      <c r="D111">
+        <v>0</v>
+      </c>
+      <c r="E111" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="2">
+        <v>44998</v>
+      </c>
+      <c r="B112" t="s">
+        <v>22</v>
+      </c>
+      <c r="C112">
         <v>42</v>
       </c>
-      <c r="D106">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
-        <v>69</v>
-      </c>
-      <c r="B107" t="s">
-        <v>31</v>
-      </c>
-      <c r="C107">
-        <v>54</v>
-      </c>
-      <c r="D107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>69</v>
-      </c>
-      <c r="B108" t="s">
-        <v>19</v>
-      </c>
-      <c r="C108">
-        <v>48</v>
-      </c>
-      <c r="D108">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
-        <v>70</v>
-      </c>
-      <c r="B109" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109">
-        <v>37</v>
-      </c>
-      <c r="D109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>70</v>
-      </c>
-      <c r="B110" t="s">
-        <v>19</v>
-      </c>
-      <c r="C110">
-        <v>70</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" t="s">
-        <v>71</v>
-      </c>
-      <c r="B111" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111">
-        <v>70</v>
-      </c>
-      <c r="D111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
-        <v>71</v>
-      </c>
-      <c r="B112" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112">
-        <v>55</v>
-      </c>
       <c r="D112">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
-        <v>72</v>
+      <c r="E112" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A113" s="2">
+        <v>44997</v>
       </c>
       <c r="B113" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="C113">
-        <v>55</v>
+        <v>78</v>
       </c>
       <c r="D113">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>72</v>
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A114" s="2">
+        <v>44996</v>
       </c>
       <c r="B114" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C114">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D114">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" t="s">
-        <v>73</v>
+        <v>0</v>
+      </c>
+      <c r="E114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A115" s="2">
+        <v>44995</v>
       </c>
       <c r="B115" t="s">
         <v>25</v>
       </c>
       <c r="C115">
-        <v>52</v>
+        <v>110</v>
       </c>
       <c r="D115">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>73</v>
+      <c r="E115" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A116" s="2">
+        <v>44995</v>
       </c>
       <c r="B116" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C116">
+        <v>48</v>
+      </c>
+      <c r="D116">
+        <v>0</v>
+      </c>
+      <c r="E116" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A117" s="2">
+        <v>44995</v>
+      </c>
+      <c r="B117" t="s">
+        <v>22</v>
+      </c>
+      <c r="C117">
+        <v>39</v>
+      </c>
+      <c r="D117">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A118" s="2">
+        <v>44994</v>
+      </c>
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="C118">
+        <v>24</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A119" s="2">
+        <v>44993</v>
+      </c>
+      <c r="B119" t="s">
+        <v>22</v>
+      </c>
+      <c r="C119">
+        <v>96</v>
+      </c>
+      <c r="D119">
+        <v>9</v>
+      </c>
+      <c r="E119" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A120" s="2">
+        <v>44992</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>49</v>
+      </c>
+      <c r="D120">
+        <v>0</v>
+      </c>
+      <c r="E120" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A121" s="2">
+        <v>44991</v>
+      </c>
+      <c r="B121" t="s">
+        <v>22</v>
+      </c>
+      <c r="C121">
+        <v>34</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A122" s="2">
+        <v>44990</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="C122">
+        <v>47</v>
+      </c>
+      <c r="D122">
+        <v>3</v>
+      </c>
+      <c r="E122" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A123" s="2">
+        <v>44989</v>
+      </c>
+      <c r="B123" t="s">
+        <v>18</v>
+      </c>
+      <c r="C123">
+        <v>67</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+      <c r="E123" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A124" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B124" t="s">
+        <v>18</v>
+      </c>
+      <c r="C124">
+        <v>66</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A125" s="2">
+        <v>44988</v>
+      </c>
+      <c r="B125" t="s">
+        <v>22</v>
+      </c>
+      <c r="C125">
+        <v>61</v>
+      </c>
+      <c r="D125">
+        <v>0</v>
+      </c>
+      <c r="E125" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A126" s="2">
+        <v>44987</v>
+      </c>
+      <c r="B126" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126">
+        <v>79</v>
+      </c>
+      <c r="D126">
+        <v>2</v>
+      </c>
+      <c r="E126" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A127" s="2">
+        <v>44986</v>
+      </c>
+      <c r="B127" t="s">
         <v>37</v>
       </c>
-      <c r="D116">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>74</v>
-      </c>
-      <c r="B117" t="s">
-        <v>25</v>
-      </c>
-      <c r="C117">
-        <v>42</v>
-      </c>
-      <c r="D117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
-        <v>74</v>
-      </c>
-      <c r="B118" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118">
-        <v>71</v>
-      </c>
-      <c r="D118">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2">
-        <v>45263</v>
-      </c>
-      <c r="B119" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119">
-        <v>78</v>
-      </c>
-      <c r="D119">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2">
-        <v>45233</v>
-      </c>
-      <c r="B120" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120">
-        <v>52</v>
-      </c>
-      <c r="D120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2">
-        <v>45202</v>
-      </c>
-      <c r="B121" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121">
-        <v>110</v>
-      </c>
-      <c r="D121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2">
-        <v>45202</v>
-      </c>
-      <c r="B122" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122">
-        <v>48</v>
-      </c>
-      <c r="D122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2">
-        <v>45202</v>
-      </c>
-      <c r="B123" t="s">
-        <v>25</v>
-      </c>
-      <c r="C123">
-        <v>39</v>
-      </c>
-      <c r="D123">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2">
-        <v>45172</v>
-      </c>
-      <c r="B124" t="s">
-        <v>25</v>
-      </c>
-      <c r="C124">
-        <v>136</v>
-      </c>
-      <c r="D124">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2">
-        <v>45172</v>
-      </c>
-      <c r="B125" t="s">
-        <v>25</v>
-      </c>
-      <c r="C125">
-        <v>24</v>
-      </c>
-      <c r="D125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2">
-        <v>45141</v>
-      </c>
-      <c r="B126" t="s">
-        <v>25</v>
-      </c>
-      <c r="C126">
-        <v>96</v>
-      </c>
-      <c r="D126">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2">
-        <v>45110</v>
-      </c>
-      <c r="B127" t="s">
-        <v>25</v>
-      </c>
       <c r="C127">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="D127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2">
-        <v>45080</v>
-      </c>
-      <c r="B128" t="s">
-        <v>25</v>
-      </c>
-      <c r="C128">
-        <v>34</v>
-      </c>
-      <c r="D128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2">
-        <v>45049</v>
-      </c>
-      <c r="B129" t="s">
-        <v>19</v>
-      </c>
-      <c r="C129">
-        <v>47</v>
-      </c>
-      <c r="D129">
         <v>3</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2">
-        <v>45019</v>
-      </c>
-      <c r="B130" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130">
-        <v>67</v>
-      </c>
-      <c r="D130">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2">
-        <v>44988</v>
-      </c>
-      <c r="B131" t="s">
-        <v>25</v>
-      </c>
-      <c r="C131">
-        <v>61</v>
-      </c>
-      <c r="D131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2">
-        <v>44988</v>
-      </c>
-      <c r="B132" t="s">
-        <v>19</v>
-      </c>
-      <c r="C132">
-        <v>66</v>
-      </c>
-      <c r="D132">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2">
-        <v>44960</v>
-      </c>
-      <c r="B133" t="s">
-        <v>19</v>
-      </c>
-      <c r="C133">
-        <v>79</v>
-      </c>
-      <c r="D133">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2">
-        <v>44929</v>
-      </c>
-      <c r="B134" t="s">
-        <v>19</v>
-      </c>
-      <c r="C134">
-        <v>136</v>
-      </c>
-      <c r="D134">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2">
-        <v>44929</v>
-      </c>
-      <c r="B135" t="s">
-        <v>93</v>
-      </c>
-      <c r="C135">
-        <v>58</v>
-      </c>
-      <c r="D135">
-        <v>3</v>
+      <c r="E127" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E136">
+    <sortCondition descending="1" ref="A1:A136"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/data ice.xlsx
+++ b/data ice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dqlab\Fast Track Program\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF0FCAAB-AE69-46EE-871D-7503206BD5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{513839C6-E761-4C3E-8677-7E5E7A809A08}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="5" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -21,28 +21,17 @@
     <sheet name="ig_JIEXPO" sheetId="4" r:id="rId6"/>
     <sheet name="ig_JCC" sheetId="5" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="56">
   <si>
     <t>Bulan</t>
   </si>
@@ -176,22 +165,7 @@
     <t>Visitor</t>
   </si>
   <si>
-    <t>ICE</t>
-  </si>
-  <si>
-    <t>Festifal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pertanyaan </t>
-  </si>
-  <si>
-    <t>Perusahaan</t>
-  </si>
-  <si>
-    <t>JIEXPO</t>
-  </si>
-  <si>
-    <t>JCC</t>
   </si>
   <si>
     <t>Expo</t>
@@ -584,9 +558,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -615,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -644,7 +618,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -673,7 +647,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -702,7 +676,7 @@
         <v>30890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -731,7 +705,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -760,7 +734,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -789,7 +763,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -818,7 +792,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -847,7 +821,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -876,7 +850,7 @@
         <v>67150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -905,7 +879,7 @@
         <v>72874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -934,7 +908,7 @@
         <v>63256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -963,7 +937,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -992,7 +966,7 @@
         <v>19765</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1021,7 +995,7 @@
         <v>36555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1063,9 +1037,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1073,7 +1047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1081,7 +1055,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1089,7 +1063,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1097,7 +1071,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1105,7 +1079,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1113,7 +1087,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1121,7 +1095,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1129,7 +1103,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1137,7 +1111,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1158,9 +1132,9 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1168,7 +1142,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1176,7 +1150,7 @@
         <v>235595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1184,7 +1158,7 @@
         <v>1499357</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1192,7 +1166,7 @@
         <v>2530150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1200,7 +1174,7 @@
         <v>2947567</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1208,7 +1182,7 @@
         <v>2728421</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1216,7 +1190,7 @@
         <v>1165343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1224,7 +1198,7 @@
         <v>345093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1245,9 +1219,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1264,7 +1238,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1282,7 +1256,7 @@
         <v>6.8300475978720954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -1300,7 +1274,7 @@
         <v>6.8225896584596173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -1318,7 +1292,7 @@
         <v>14.913402873450107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -1336,7 +1310,7 @@
         <v>7.879569611572812</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -1354,7 +1328,7 @@
         <v>4.9306068818263942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -1372,7 +1346,7 @@
         <v>12.788722271227417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -1390,7 +1364,7 @@
         <v>9.0671047067625139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1408,7 +1382,7 @@
         <v>16.135623523402082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1426,7 +1400,7 @@
         <v>30.989394383809067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1444,7 +1418,7 @@
         <v>28.21288901541827</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1462,7 +1436,7 @@
         <v>18.460997994642621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1480,7 +1454,7 @@
         <v>15.12099108486743</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1498,7 +1472,7 @@
         <v>13.856976056967408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1516,7 +1490,7 @@
         <v>19.158865367855839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1534,7 +1508,7 @@
         <v>60.546177568576532</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45017</v>
       </c>
@@ -1552,7 +1526,7 @@
         <v>10.337609723160027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45047</v>
       </c>
@@ -1577,22 +1551,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F2EAE-4643-4EEB-BCC2-1FDB6DC397DA}">
-  <dimension ref="A1:E162"/>
+  <dimension ref="A1:D162"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1605,11 +1578,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45122</v>
       </c>
@@ -1622,11 +1592,8 @@
       <c r="D2">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45121</v>
       </c>
@@ -1639,16 +1606,13 @@
       <c r="D3">
         <v>3</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45120</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C4">
         <v>60</v>
@@ -1656,11 +1620,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45119</v>
       </c>
@@ -1673,11 +1634,8 @@
       <c r="D5">
         <v>9</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45119</v>
       </c>
@@ -1690,11 +1648,8 @@
       <c r="D6">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45118</v>
       </c>
@@ -1707,11 +1662,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45116</v>
       </c>
@@ -1724,11 +1676,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45116</v>
       </c>
@@ -1741,11 +1690,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45115</v>
       </c>
@@ -1758,11 +1704,8 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45115</v>
       </c>
@@ -1775,11 +1718,8 @@
       <c r="D11">
         <v>2</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45114</v>
       </c>
@@ -1792,11 +1732,8 @@
       <c r="D12">
         <v>13</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45113</v>
       </c>
@@ -1809,11 +1746,8 @@
       <c r="D13">
         <v>2</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45112</v>
       </c>
@@ -1826,11 +1760,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45111</v>
       </c>
@@ -1843,11 +1774,8 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45110</v>
       </c>
@@ -1860,11 +1788,8 @@
       <c r="D16">
         <v>7</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45110</v>
       </c>
@@ -1877,11 +1802,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45109</v>
       </c>
@@ -1894,11 +1816,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45108</v>
       </c>
@@ -1911,11 +1830,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45106</v>
       </c>
@@ -1928,11 +1844,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45105</v>
       </c>
@@ -1945,11 +1858,8 @@
       <c r="D21">
         <v>9</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45105</v>
       </c>
@@ -1962,11 +1872,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45104</v>
       </c>
@@ -1979,11 +1886,8 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45102</v>
       </c>
@@ -1996,11 +1900,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45100</v>
       </c>
@@ -2013,11 +1914,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45099</v>
       </c>
@@ -2030,11 +1928,8 @@
       <c r="D26">
         <v>16</v>
       </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45099</v>
       </c>
@@ -2047,11 +1942,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45099</v>
       </c>
@@ -2064,11 +1956,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45098</v>
       </c>
@@ -2081,11 +1970,8 @@
       <c r="D29">
         <v>2</v>
       </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45097</v>
       </c>
@@ -2098,11 +1984,8 @@
       <c r="D30">
         <v>13</v>
       </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45097</v>
       </c>
@@ -2115,11 +1998,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45096</v>
       </c>
@@ -2132,11 +2012,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45095</v>
       </c>
@@ -2149,11 +2026,8 @@
       <c r="D33">
         <v>11</v>
       </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45094</v>
       </c>
@@ -2166,11 +2040,8 @@
       <c r="D34">
         <v>2</v>
       </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45093</v>
       </c>
@@ -2183,11 +2054,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45093</v>
       </c>
@@ -2200,11 +2068,8 @@
       <c r="D36">
         <v>3</v>
       </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45091</v>
       </c>
@@ -2217,11 +2082,8 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45090</v>
       </c>
@@ -2234,11 +2096,8 @@
       <c r="D38">
         <v>2</v>
       </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45090</v>
       </c>
@@ -2251,11 +2110,8 @@
       <c r="D39">
         <v>13</v>
       </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45090</v>
       </c>
@@ -2268,11 +2124,8 @@
       <c r="D40">
         <v>1</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45089</v>
       </c>
@@ -2285,11 +2138,8 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45088</v>
       </c>
@@ -2302,11 +2152,8 @@
       <c r="D42">
         <v>2</v>
       </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45087</v>
       </c>
@@ -2319,11 +2166,8 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45087</v>
       </c>
@@ -2336,11 +2180,8 @@
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45086</v>
       </c>
@@ -2353,11 +2194,8 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45085</v>
       </c>
@@ -2370,11 +2208,8 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45084</v>
       </c>
@@ -2387,11 +2222,8 @@
       <c r="D47">
         <v>2</v>
       </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45083</v>
       </c>
@@ -2404,11 +2236,8 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45082</v>
       </c>
@@ -2421,11 +2250,8 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45081</v>
       </c>
@@ -2438,11 +2264,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45081</v>
       </c>
@@ -2455,11 +2278,8 @@
       <c r="D51">
         <v>1</v>
       </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45081</v>
       </c>
@@ -2472,11 +2292,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45080</v>
       </c>
@@ -2489,11 +2306,8 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45079</v>
       </c>
@@ -2506,11 +2320,8 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45078</v>
       </c>
@@ -2523,11 +2334,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45077</v>
       </c>
@@ -2540,11 +2348,8 @@
       <c r="D56">
         <v>77</v>
       </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45076</v>
       </c>
@@ -2557,11 +2362,8 @@
       <c r="D57">
         <v>10</v>
       </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45075</v>
       </c>
@@ -2574,11 +2376,8 @@
       <c r="D58">
         <v>2</v>
       </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45074</v>
       </c>
@@ -2591,11 +2390,8 @@
       <c r="D59">
         <v>8</v>
       </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45073</v>
       </c>
@@ -2608,11 +2404,8 @@
       <c r="D60">
         <v>4</v>
       </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45072</v>
       </c>
@@ -2625,11 +2418,8 @@
       <c r="D61">
         <v>7</v>
       </c>
-      <c r="E61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45071</v>
       </c>
@@ -2642,11 +2432,8 @@
       <c r="D62">
         <v>4</v>
       </c>
-      <c r="E62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45070</v>
       </c>
@@ -2659,11 +2446,8 @@
       <c r="D63">
         <v>0</v>
       </c>
-      <c r="E63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45069</v>
       </c>
@@ -2676,11 +2460,8 @@
       <c r="D64">
         <v>31</v>
       </c>
-      <c r="E64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45069</v>
       </c>
@@ -2693,11 +2474,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45068</v>
       </c>
@@ -2710,11 +2488,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45067</v>
       </c>
@@ -2727,11 +2502,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45065</v>
       </c>
@@ -2744,11 +2516,8 @@
       <c r="D68">
         <v>36</v>
       </c>
-      <c r="E68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45064</v>
       </c>
@@ -2761,11 +2530,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45063</v>
       </c>
@@ -2778,11 +2544,8 @@
       <c r="D70">
         <v>9</v>
       </c>
-      <c r="E70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45062</v>
       </c>
@@ -2795,11 +2558,8 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45061</v>
       </c>
@@ -2812,11 +2572,8 @@
       <c r="D72">
         <v>2</v>
       </c>
-      <c r="E72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45060</v>
       </c>
@@ -2829,11 +2586,8 @@
       <c r="D73">
         <v>3</v>
       </c>
-      <c r="E73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45059</v>
       </c>
@@ -2846,11 +2600,8 @@
       <c r="D74">
         <v>25</v>
       </c>
-      <c r="E74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45058</v>
       </c>
@@ -2863,11 +2614,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45057</v>
       </c>
@@ -2880,11 +2628,8 @@
       <c r="D76">
         <v>32</v>
       </c>
-      <c r="E76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45056</v>
       </c>
@@ -2897,11 +2642,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45055</v>
       </c>
@@ -2914,11 +2656,8 @@
       <c r="D78">
         <v>3</v>
       </c>
-      <c r="E78" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45054</v>
       </c>
@@ -2931,16 +2670,13 @@
       <c r="D79">
         <v>0</v>
       </c>
-      <c r="E79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45053</v>
       </c>
       <c r="B80" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C80">
         <v>521</v>
@@ -2948,11 +2684,8 @@
       <c r="D80">
         <v>4</v>
       </c>
-      <c r="E80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45051</v>
       </c>
@@ -2965,11 +2698,8 @@
       <c r="D81">
         <v>12</v>
       </c>
-      <c r="E81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45051</v>
       </c>
@@ -2982,11 +2712,8 @@
       <c r="D82">
         <v>29</v>
       </c>
-      <c r="E82" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45051</v>
       </c>
@@ -2999,11 +2726,8 @@
       <c r="D83">
         <v>3</v>
       </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45049</v>
       </c>
@@ -3016,11 +2740,8 @@
       <c r="D84">
         <v>3</v>
       </c>
-      <c r="E84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45048</v>
       </c>
@@ -3033,11 +2754,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45047</v>
       </c>
@@ -3050,11 +2768,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45046</v>
       </c>
@@ -3067,11 +2782,8 @@
       <c r="D87">
         <v>0</v>
       </c>
-      <c r="E87" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45044</v>
       </c>
@@ -3084,11 +2796,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45043</v>
       </c>
@@ -3101,11 +2810,8 @@
       <c r="D89">
         <v>1</v>
       </c>
-      <c r="E89" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45042</v>
       </c>
@@ -3118,11 +2824,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45041</v>
       </c>
@@ -3135,11 +2838,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45040</v>
       </c>
@@ -3152,11 +2852,8 @@
       <c r="D92">
         <v>2</v>
       </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45039</v>
       </c>
@@ -3169,11 +2866,8 @@
       <c r="D93">
         <v>2</v>
       </c>
-      <c r="E93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45038</v>
       </c>
@@ -3186,11 +2880,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45037</v>
       </c>
@@ -3203,16 +2894,13 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45036</v>
       </c>
       <c r="B96" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C96">
         <v>43</v>
@@ -3220,11 +2908,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45035</v>
       </c>
@@ -3237,11 +2922,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45034</v>
       </c>
@@ -3254,11 +2936,8 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45033</v>
       </c>
@@ -3271,16 +2950,13 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45032</v>
       </c>
       <c r="B100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C100">
         <v>488</v>
@@ -3288,11 +2964,8 @@
       <c r="D100">
         <v>52</v>
       </c>
-      <c r="E100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45031</v>
       </c>
@@ -3305,11 +2978,8 @@
       <c r="D101">
         <v>22</v>
       </c>
-      <c r="E101" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45030</v>
       </c>
@@ -3322,11 +2992,8 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45029</v>
       </c>
@@ -3339,11 +3006,8 @@
       <c r="D103">
         <v>0</v>
       </c>
-      <c r="E103" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45028</v>
       </c>
@@ -3356,11 +3020,8 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45027</v>
       </c>
@@ -3373,11 +3034,8 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45026</v>
       </c>
@@ -3390,11 +3048,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45025</v>
       </c>
@@ -3407,11 +3062,8 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45024</v>
       </c>
@@ -3424,11 +3076,8 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45022</v>
       </c>
@@ -3441,11 +3090,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45021</v>
       </c>
@@ -3458,11 +3104,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45020</v>
       </c>
@@ -3475,11 +3118,8 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45020</v>
       </c>
@@ -3492,16 +3132,13 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45018</v>
       </c>
       <c r="B113" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C113">
         <v>120</v>
@@ -3509,16 +3146,13 @@
       <c r="D113">
         <v>1</v>
       </c>
-      <c r="E113" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45017</v>
       </c>
       <c r="B114" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C114">
         <v>151</v>
@@ -3526,11 +3160,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45016</v>
       </c>
@@ -3543,11 +3174,8 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45015</v>
       </c>
@@ -3560,11 +3188,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45014</v>
       </c>
@@ -3577,11 +3202,8 @@
       <c r="D117">
         <v>151</v>
       </c>
-      <c r="E117" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45014</v>
       </c>
@@ -3594,16 +3216,13 @@
       <c r="D118">
         <v>1</v>
       </c>
-      <c r="E118" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45013</v>
       </c>
       <c r="B119" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C119">
         <v>86</v>
@@ -3611,11 +3230,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45012</v>
       </c>
@@ -3628,11 +3244,8 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45011</v>
       </c>
@@ -3645,16 +3258,13 @@
       <c r="D121">
         <v>22</v>
       </c>
-      <c r="E121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45009</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C122">
         <v>90</v>
@@ -3662,11 +3272,8 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45008</v>
       </c>
@@ -3679,11 +3286,8 @@
       <c r="D123">
         <v>28</v>
       </c>
-      <c r="E123" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45008</v>
       </c>
@@ -3696,11 +3300,8 @@
       <c r="D124">
         <v>0</v>
       </c>
-      <c r="E124" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45007</v>
       </c>
@@ -3713,11 +3314,8 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45007</v>
       </c>
@@ -3730,11 +3328,8 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45006</v>
       </c>
@@ -3747,11 +3342,8 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45005</v>
       </c>
@@ -3764,11 +3356,8 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45004</v>
       </c>
@@ -3781,11 +3370,8 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45004</v>
       </c>
@@ -3798,11 +3384,8 @@
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45003</v>
       </c>
@@ -3815,11 +3398,8 @@
       <c r="D131">
         <v>1</v>
       </c>
-      <c r="E131" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45002</v>
       </c>
@@ -3832,11 +3412,8 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45002</v>
       </c>
@@ -3849,11 +3426,8 @@
       <c r="D133">
         <v>5</v>
       </c>
-      <c r="E133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45001</v>
       </c>
@@ -3866,11 +3440,8 @@
       <c r="D134">
         <v>13</v>
       </c>
-      <c r="E134" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45000</v>
       </c>
@@ -3883,11 +3454,8 @@
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>44999</v>
       </c>
@@ -3900,11 +3468,8 @@
       <c r="D136">
         <v>23</v>
       </c>
-      <c r="E136" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>44998</v>
       </c>
@@ -3917,11 +3482,8 @@
       <c r="D137">
         <v>0</v>
       </c>
-      <c r="E137" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>44997</v>
       </c>
@@ -3934,11 +3496,8 @@
       <c r="D138">
         <v>1</v>
       </c>
-      <c r="E138" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44995</v>
       </c>
@@ -3951,11 +3510,8 @@
       <c r="D139">
         <v>12</v>
       </c>
-      <c r="E139" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44994</v>
       </c>
@@ -3968,11 +3524,8 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44993</v>
       </c>
@@ -3985,11 +3538,8 @@
       <c r="D141">
         <v>2</v>
       </c>
-      <c r="E141" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44993</v>
       </c>
@@ -4002,16 +3552,13 @@
       <c r="D142">
         <v>2</v>
       </c>
-      <c r="E142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44991</v>
       </c>
       <c r="B143" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C143">
         <v>512</v>
@@ -4019,11 +3566,8 @@
       <c r="D143">
         <v>30</v>
       </c>
-      <c r="E143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44990</v>
       </c>
@@ -4036,11 +3580,8 @@
       <c r="D144">
         <v>1</v>
       </c>
-      <c r="E144" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44989</v>
       </c>
@@ -4053,11 +3594,8 @@
       <c r="D145">
         <v>1</v>
       </c>
-      <c r="E145" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44987</v>
       </c>
@@ -4070,11 +3608,8 @@
       <c r="D146">
         <v>8</v>
       </c>
-      <c r="E146" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44986</v>
       </c>
@@ -4087,54 +3622,51 @@
       <c r="D147">
         <v>7</v>
       </c>
-      <c r="E147" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E162">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D162">
     <sortCondition descending="1" ref="A118:A162"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4144,22 +3676,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92892356-4B9D-41CD-BE4A-8191C67F6A84}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4172,11 +3703,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45117</v>
       </c>
@@ -4189,11 +3717,8 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45106</v>
       </c>
@@ -4206,11 +3731,8 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45105</v>
       </c>
@@ -4223,11 +3745,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45100</v>
       </c>
@@ -4240,11 +3759,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45098</v>
       </c>
@@ -4257,11 +3773,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45081</v>
       </c>
@@ -4274,11 +3787,8 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45081</v>
       </c>
@@ -4291,11 +3801,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45080</v>
       </c>
@@ -4308,11 +3815,8 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45078</v>
       </c>
@@ -4325,11 +3829,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45077</v>
       </c>
@@ -4342,11 +3843,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45073</v>
       </c>
@@ -4359,11 +3857,8 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45073</v>
       </c>
@@ -4376,11 +3871,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45072</v>
       </c>
@@ -4393,11 +3885,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45069</v>
       </c>
@@ -4410,11 +3899,8 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45068</v>
       </c>
@@ -4427,11 +3913,8 @@
       <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45067</v>
       </c>
@@ -4444,11 +3927,8 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45065</v>
       </c>
@@ -4461,11 +3941,8 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45065</v>
       </c>
@@ -4478,11 +3955,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45064</v>
       </c>
@@ -4495,11 +3969,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45062</v>
       </c>
@@ -4512,11 +3983,8 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45062</v>
       </c>
@@ -4529,11 +3997,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45062</v>
       </c>
@@ -4546,11 +4011,8 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45061</v>
       </c>
@@ -4563,11 +4025,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45061</v>
       </c>
@@ -4580,11 +4039,8 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45061</v>
       </c>
@@ -4597,11 +4053,8 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45057</v>
       </c>
@@ -4614,11 +4067,8 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45057</v>
       </c>
@@ -4631,11 +4081,8 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45057</v>
       </c>
@@ -4648,11 +4095,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45057</v>
       </c>
@@ -4665,16 +4109,13 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45056</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31">
         <v>123</v>
@@ -4682,16 +4123,13 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45054</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32">
         <v>157</v>
@@ -4699,16 +4137,13 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45052</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C33">
         <v>368</v>
@@ -4716,11 +4151,8 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45052</v>
       </c>
@@ -4733,11 +4165,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45052</v>
       </c>
@@ -4750,11 +4179,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45048</v>
       </c>
@@ -4767,16 +4193,13 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45048</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C37">
         <v>58</v>
@@ -4784,16 +4207,13 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45047</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C38">
         <v>54</v>
@@ -4801,16 +4221,13 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45045</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C39">
         <v>87</v>
@@ -4818,11 +4235,8 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45044</v>
       </c>
@@ -4835,16 +4249,13 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45037</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C41">
         <v>76</v>
@@ -4852,11 +4263,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45037</v>
       </c>
@@ -4869,16 +4277,13 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45034</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C43">
         <v>130</v>
@@ -4886,16 +4291,13 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45030</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C44">
         <v>133</v>
@@ -4903,16 +4305,13 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45027</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C45">
         <v>101</v>
@@ -4920,16 +4319,13 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45024</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C46">
         <v>343</v>
@@ -4937,16 +4333,13 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45023</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C47">
         <v>68</v>
@@ -4954,16 +4347,13 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45022</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C48">
         <v>140</v>
@@ -4971,16 +4361,13 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45021</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C49">
         <v>104</v>
@@ -4988,16 +4375,13 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45021</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C50">
         <v>78</v>
@@ -5005,16 +4389,13 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45019</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C51">
         <v>300</v>
@@ -5022,16 +4403,13 @@
       <c r="D51">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45015</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C52">
         <v>115</v>
@@ -5039,16 +4417,13 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45013</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C53">
         <v>108</v>
@@ -5056,11 +4431,8 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45008</v>
       </c>
@@ -5073,16 +4445,13 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45008</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C55">
         <v>176</v>
@@ -5090,16 +4459,13 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45008</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -5107,11 +4473,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45007</v>
       </c>
@@ -5124,11 +4487,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45007</v>
       </c>
@@ -5141,11 +4501,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45006</v>
       </c>
@@ -5158,16 +4515,13 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45005</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C60">
         <v>150</v>
@@ -5175,11 +4529,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45002</v>
       </c>
@@ -5192,16 +4543,13 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45002</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C62">
         <v>78</v>
@@ -5209,11 +4557,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44999</v>
       </c>
@@ -5226,16 +4571,13 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44999</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C64">
         <v>86</v>
@@ -5243,16 +4585,13 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44998</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C65">
         <v>99</v>
@@ -5260,11 +4599,8 @@
       <c r="D65">
         <v>6</v>
       </c>
-      <c r="E65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44998</v>
       </c>
@@ -5277,16 +4613,13 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44996</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C67">
         <v>130</v>
@@ -5294,16 +4627,13 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44996</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C68">
         <v>84</v>
@@ -5311,16 +4641,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44995</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C69">
         <v>42</v>
@@ -5328,16 +4655,13 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44994</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C70">
         <v>95</v>
@@ -5345,16 +4669,13 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44993</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C71">
         <v>229</v>
@@ -5362,11 +4683,8 @@
       <c r="D71">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44993</v>
       </c>
@@ -5379,11 +4697,8 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44993</v>
       </c>
@@ -5396,16 +4711,13 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44991</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C74">
         <v>251</v>
@@ -5413,11 +4725,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44991</v>
       </c>
@@ -5430,11 +4739,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44991</v>
       </c>
@@ -5447,16 +4753,13 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44991</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C77">
         <v>141</v>
@@ -5464,11 +4767,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44988</v>
       </c>
@@ -5481,16 +4781,13 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44988</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C79">
         <v>109</v>
@@ -5498,16 +4795,13 @@
       <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44988</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C80">
         <v>91</v>
@@ -5515,11 +4809,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44987</v>
       </c>
@@ -5532,11 +4823,8 @@
       <c r="D81">
         <v>11</v>
       </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44986</v>
       </c>
@@ -5549,16 +4837,13 @@
       <c r="D82">
         <v>18</v>
       </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44986</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C83">
         <v>66</v>
@@ -5566,12 +4851,9 @@
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
     <sortCondition descending="1" ref="A1:A94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5581,21 +4863,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E981620-C8DC-4991-BE0E-1E2BBD2B0740}">
-  <dimension ref="A1:E127"/>
+  <dimension ref="A1:D127"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:D127"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5608,11 +4890,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45122</v>
       </c>
@@ -5625,11 +4904,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45120</v>
       </c>
@@ -5642,11 +4918,8 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45119</v>
       </c>
@@ -5659,11 +4932,8 @@
       <c r="D4">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45109</v>
       </c>
@@ -5676,11 +4946,8 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45108</v>
       </c>
@@ -5693,11 +4960,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45107</v>
       </c>
@@ -5710,11 +4974,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45106</v>
       </c>
@@ -5727,11 +4988,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45105</v>
       </c>
@@ -5744,11 +5002,8 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45104</v>
       </c>
@@ -5761,11 +5016,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45103</v>
       </c>
@@ -5778,11 +5030,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45102</v>
       </c>
@@ -5795,11 +5044,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45101</v>
       </c>
@@ -5812,11 +5058,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45100</v>
       </c>
@@ -5829,11 +5072,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45099</v>
       </c>
@@ -5846,11 +5086,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45099</v>
       </c>
@@ -5863,11 +5100,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45098</v>
       </c>
@@ -5880,11 +5114,8 @@
       <c r="D17">
         <v>3</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45097</v>
       </c>
@@ -5897,11 +5128,8 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45096</v>
       </c>
@@ -5914,11 +5142,8 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45085</v>
       </c>
@@ -5931,11 +5156,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45081</v>
       </c>
@@ -5948,11 +5170,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45081</v>
       </c>
@@ -5965,11 +5184,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45080</v>
       </c>
@@ -5982,11 +5198,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45079</v>
       </c>
@@ -5999,11 +5212,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45078</v>
       </c>
@@ -6016,11 +5226,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45078</v>
       </c>
@@ -6033,11 +5240,8 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45077</v>
       </c>
@@ -6050,11 +5254,8 @@
       <c r="D27">
         <v>1</v>
       </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45076</v>
       </c>
@@ -6067,11 +5268,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45065</v>
       </c>
@@ -6084,11 +5282,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45065</v>
       </c>
@@ -6101,11 +5296,8 @@
       <c r="D30">
         <v>6</v>
       </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45064</v>
       </c>
@@ -6118,11 +5310,8 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45062</v>
       </c>
@@ -6135,11 +5324,8 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45062</v>
       </c>
@@ -6152,11 +5338,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45059</v>
       </c>
@@ -6169,11 +5352,8 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45058</v>
       </c>
@@ -6186,11 +5366,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45056</v>
       </c>
@@ -6203,11 +5380,8 @@
       <c r="D36">
         <v>1</v>
       </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45055</v>
       </c>
@@ -6220,11 +5394,8 @@
       <c r="D37">
         <v>0</v>
       </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45054</v>
       </c>
@@ -6237,11 +5408,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45053</v>
       </c>
@@ -6254,11 +5422,8 @@
       <c r="D39">
         <v>5</v>
       </c>
-      <c r="E39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45053</v>
       </c>
@@ -6271,11 +5436,8 @@
       <c r="D40">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45052</v>
       </c>
@@ -6288,11 +5450,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45051</v>
       </c>
@@ -6305,11 +5464,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45050</v>
       </c>
@@ -6322,11 +5478,8 @@
       <c r="D43">
         <v>4</v>
       </c>
-      <c r="E43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45049</v>
       </c>
@@ -6339,11 +5492,8 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45049</v>
       </c>
@@ -6356,11 +5506,8 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45048</v>
       </c>
@@ -6373,11 +5520,8 @@
       <c r="D46">
         <v>1</v>
       </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45048</v>
       </c>
@@ -6390,11 +5534,8 @@
       <c r="D47">
         <v>3</v>
       </c>
-      <c r="E47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45047</v>
       </c>
@@ -6407,11 +5548,8 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45045</v>
       </c>
@@ -6424,11 +5562,8 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45045</v>
       </c>
@@ -6441,11 +5576,8 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45044</v>
       </c>
@@ -6458,11 +5590,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45043</v>
       </c>
@@ -6475,11 +5604,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45043</v>
       </c>
@@ -6492,11 +5618,8 @@
       <c r="D53">
         <v>2</v>
       </c>
-      <c r="E53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45037</v>
       </c>
@@ -6509,11 +5632,8 @@
       <c r="D54">
         <v>0</v>
       </c>
-      <c r="E54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45037</v>
       </c>
@@ -6526,11 +5646,8 @@
       <c r="D55">
         <v>1</v>
       </c>
-      <c r="E55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45032</v>
       </c>
@@ -6543,11 +5660,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45032</v>
       </c>
@@ -6560,11 +5674,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45031</v>
       </c>
@@ -6577,11 +5688,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45031</v>
       </c>
@@ -6594,11 +5702,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45030</v>
       </c>
@@ -6611,11 +5716,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45030</v>
       </c>
@@ -6628,11 +5730,8 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45029</v>
       </c>
@@ -6645,11 +5744,8 @@
       <c r="D62">
         <v>3</v>
       </c>
-      <c r="E62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45029</v>
       </c>
@@ -6662,11 +5758,8 @@
       <c r="D63">
         <v>2</v>
       </c>
-      <c r="E63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45028</v>
       </c>
@@ -6679,11 +5772,8 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45028</v>
       </c>
@@ -6696,11 +5786,8 @@
       <c r="D65">
         <v>0</v>
       </c>
-      <c r="E65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45027</v>
       </c>
@@ -6713,11 +5800,8 @@
       <c r="D66">
         <v>4</v>
       </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45027</v>
       </c>
@@ -6730,11 +5814,8 @@
       <c r="D67">
         <v>0</v>
       </c>
-      <c r="E67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45026</v>
       </c>
@@ -6747,11 +5828,8 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45025</v>
       </c>
@@ -6764,11 +5842,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45024</v>
       </c>
@@ -6781,11 +5856,8 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45024</v>
       </c>
@@ -6798,11 +5870,8 @@
       <c r="D71">
         <v>0</v>
       </c>
-      <c r="E71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45023</v>
       </c>
@@ -6815,11 +5884,8 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45023</v>
       </c>
@@ -6832,11 +5898,8 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45022</v>
       </c>
@@ -6849,11 +5912,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45021</v>
       </c>
@@ -6866,11 +5926,8 @@
       <c r="D75">
         <v>8</v>
       </c>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45021</v>
       </c>
@@ -6883,11 +5940,8 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45021</v>
       </c>
@@ -6900,11 +5954,8 @@
       <c r="D77">
         <v>1</v>
       </c>
-      <c r="E77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45021</v>
       </c>
@@ -6917,11 +5968,8 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45020</v>
       </c>
@@ -6934,11 +5982,8 @@
       <c r="D79">
         <v>6</v>
       </c>
-      <c r="E79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45020</v>
       </c>
@@ -6951,11 +5996,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45020</v>
       </c>
@@ -6968,11 +6010,8 @@
       <c r="D81">
         <v>1</v>
       </c>
-      <c r="E81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45019</v>
       </c>
@@ -6985,11 +6024,8 @@
       <c r="D82">
         <v>4</v>
       </c>
-      <c r="E82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45019</v>
       </c>
@@ -7002,11 +6038,8 @@
       <c r="D83">
         <v>0</v>
       </c>
-      <c r="E83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45018</v>
       </c>
@@ -7019,11 +6052,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45017</v>
       </c>
@@ -7036,11 +6066,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45016</v>
       </c>
@@ -7053,11 +6080,8 @@
       <c r="D86">
         <v>5</v>
       </c>
-      <c r="E86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45016</v>
       </c>
@@ -7070,11 +6094,8 @@
       <c r="D87">
         <v>1</v>
       </c>
-      <c r="E87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45016</v>
       </c>
@@ -7087,11 +6108,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45015</v>
       </c>
@@ -7104,11 +6122,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45015</v>
       </c>
@@ -7121,11 +6136,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45014</v>
       </c>
@@ -7138,11 +6150,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45012</v>
       </c>
@@ -7155,11 +6164,8 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45012</v>
       </c>
@@ -7172,11 +6178,8 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45010</v>
       </c>
@@ -7189,11 +6192,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45007</v>
       </c>
@@ -7206,11 +6206,8 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45007</v>
       </c>
@@ -7223,11 +6220,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45006</v>
       </c>
@@ -7240,11 +6234,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45004</v>
       </c>
@@ -7257,11 +6248,8 @@
       <c r="D98">
         <v>2</v>
       </c>
-      <c r="E98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45004</v>
       </c>
@@ -7274,11 +6262,8 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45003</v>
       </c>
@@ -7291,11 +6276,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45003</v>
       </c>
@@ -7308,11 +6290,8 @@
       <c r="D101">
         <v>1</v>
       </c>
-      <c r="E101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45003</v>
       </c>
@@ -7325,11 +6304,8 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45002</v>
       </c>
@@ -7342,11 +6318,8 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45002</v>
       </c>
@@ -7359,11 +6332,8 @@
       <c r="D104">
         <v>0</v>
       </c>
-      <c r="E104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45001</v>
       </c>
@@ -7376,11 +6346,8 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45001</v>
       </c>
@@ -7393,11 +6360,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45000</v>
       </c>
@@ -7410,11 +6374,8 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45000</v>
       </c>
@@ -7427,11 +6388,8 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>44999</v>
       </c>
@@ -7444,11 +6402,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44999</v>
       </c>
@@ -7461,11 +6416,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44998</v>
       </c>
@@ -7478,11 +6430,8 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44998</v>
       </c>
@@ -7495,11 +6444,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44997</v>
       </c>
@@ -7512,11 +6458,8 @@
       <c r="D113">
         <v>4</v>
       </c>
-      <c r="E113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44996</v>
       </c>
@@ -7529,11 +6472,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44995</v>
       </c>
@@ -7546,11 +6486,8 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44995</v>
       </c>
@@ -7563,11 +6500,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44995</v>
       </c>
@@ -7580,11 +6514,8 @@
       <c r="D117">
         <v>2</v>
       </c>
-      <c r="E117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44994</v>
       </c>
@@ -7597,11 +6528,8 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44993</v>
       </c>
@@ -7614,11 +6542,8 @@
       <c r="D119">
         <v>9</v>
       </c>
-      <c r="E119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44992</v>
       </c>
@@ -7631,11 +6556,8 @@
       <c r="D120">
         <v>0</v>
       </c>
-      <c r="E120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44991</v>
       </c>
@@ -7648,11 +6570,8 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44990</v>
       </c>
@@ -7665,11 +6584,8 @@
       <c r="D122">
         <v>3</v>
       </c>
-      <c r="E122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44989</v>
       </c>
@@ -7682,11 +6598,8 @@
       <c r="D123">
         <v>3</v>
       </c>
-      <c r="E123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44988</v>
       </c>
@@ -7699,11 +6612,8 @@
       <c r="D124">
         <v>1</v>
       </c>
-      <c r="E124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44988</v>
       </c>
@@ -7716,11 +6626,8 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44987</v>
       </c>
@@ -7733,11 +6640,8 @@
       <c r="D126">
         <v>2</v>
       </c>
-      <c r="E126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44986</v>
       </c>
@@ -7750,12 +6654,9 @@
       <c r="D127">
         <v>3</v>
       </c>
-      <c r="E127" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E136">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D136">
     <sortCondition descending="1" ref="A1:A136"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data ice.xlsx
+++ b/data ice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\dqlab\Fast Track Program\Internship\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\new internship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CC42A-EE60-4AA0-B00A-BC663CC83CAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB44C9BB-B0BC-49D5-B934-795357D67635}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="8" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{26FF4E0C-9A0F-4382-85F0-870B9B10C7F1}"/>
   </bookViews>
   <sheets>
     <sheet name="Event" sheetId="1" r:id="rId1"/>
@@ -23,28 +23,17 @@
     <sheet name="ER_IG" sheetId="8" r:id="rId8"/>
     <sheet name="ER_IG2" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="455" uniqueCount="66">
   <si>
     <t>Bulan</t>
   </si>
@@ -179,9 +168,6 @@
   </si>
   <si>
     <t>ICE</t>
-  </si>
-  <si>
-    <t>Festifal</t>
   </si>
   <si>
     <t xml:space="preserve">Pertanyaan </t>
@@ -608,9 +594,9 @@
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -639,7 +625,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -668,7 +654,7 @@
         <v>2820</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -697,7 +683,7 @@
         <v>2277</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -726,7 +712,7 @@
         <v>30890</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -755,7 +741,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -784,7 +770,7 @@
         <v>2274</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -813,7 +799,7 @@
         <v>8595</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -842,7 +828,7 @@
         <v>6338</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -871,7 +857,7 @@
         <v>33939</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -900,7 +886,7 @@
         <v>67150</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -929,7 +915,7 @@
         <v>72874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -958,7 +944,7 @@
         <v>63256</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -987,7 +973,7 @@
         <v>43665</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1016,7 +1002,7 @@
         <v>19765</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1045,7 +1031,7 @@
         <v>36555</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1087,9 +1073,9 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>40</v>
       </c>
@@ -1097,7 +1083,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1105,7 +1091,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1113,7 +1099,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1121,7 +1107,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1129,7 +1115,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1137,7 +1123,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1145,7 +1131,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1153,7 +1139,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1161,7 +1147,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2023</v>
       </c>
@@ -1182,9 +1168,9 @@
       <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>42</v>
       </c>
@@ -1192,7 +1178,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2015</v>
       </c>
@@ -1200,7 +1186,7 @@
         <v>235595</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2016</v>
       </c>
@@ -1208,7 +1194,7 @@
         <v>1499357</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2017</v>
       </c>
@@ -1216,7 +1202,7 @@
         <v>2530150</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
@@ -1224,7 +1210,7 @@
         <v>2947567</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2019</v>
       </c>
@@ -1232,7 +1218,7 @@
         <v>2728421</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2020</v>
       </c>
@@ -1240,7 +1226,7 @@
         <v>1165343</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2021</v>
       </c>
@@ -1248,7 +1234,7 @@
         <v>345093</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2022</v>
       </c>
@@ -1269,9 +1255,9 @@
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>9</v>
       </c>
@@ -1288,7 +1274,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>44562</v>
       </c>
@@ -1306,7 +1292,7 @@
         <v>6.8300475978720954</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>44593</v>
       </c>
@@ -1324,7 +1310,7 @@
         <v>6.8225896584596173</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>44621</v>
       </c>
@@ -1342,7 +1328,7 @@
         <v>14.913402873450107</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>44652</v>
       </c>
@@ -1360,7 +1346,7 @@
         <v>7.879569611572812</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>44682</v>
       </c>
@@ -1378,7 +1364,7 @@
         <v>4.9306068818263942</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>44713</v>
       </c>
@@ -1396,7 +1382,7 @@
         <v>12.788722271227417</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>44743</v>
       </c>
@@ -1414,7 +1400,7 @@
         <v>9.0671047067625139</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>44774</v>
       </c>
@@ -1432,7 +1418,7 @@
         <v>16.135623523402082</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44805</v>
       </c>
@@ -1450,7 +1436,7 @@
         <v>30.989394383809067</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44835</v>
       </c>
@@ -1468,7 +1454,7 @@
         <v>28.21288901541827</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44866</v>
       </c>
@@ -1486,7 +1472,7 @@
         <v>18.460997994642621</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44896</v>
       </c>
@@ -1504,7 +1490,7 @@
         <v>15.12099108486743</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>44927</v>
       </c>
@@ -1522,7 +1508,7 @@
         <v>13.856976056967408</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>44958</v>
       </c>
@@ -1540,7 +1526,7 @@
         <v>19.158865367855839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>44986</v>
       </c>
@@ -1558,7 +1544,7 @@
         <v>60.546177568576532</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>45017</v>
       </c>
@@ -1576,7 +1562,7 @@
         <v>10.337609723160027</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>45047</v>
       </c>
@@ -1601,22 +1587,21 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F22F2EAE-4643-4EEB-BCC2-1FDB6DC397DA}">
-  <dimension ref="A1:E165"/>
+  <dimension ref="A1:D165"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -1629,11 +1614,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45123</v>
       </c>
@@ -1646,11 +1628,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45123</v>
       </c>
@@ -1663,11 +1642,8 @@
       <c r="D3">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45122</v>
       </c>
@@ -1680,11 +1656,8 @@
       <c r="D4">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45122</v>
       </c>
@@ -1697,11 +1670,8 @@
       <c r="D5">
         <v>3</v>
       </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45121</v>
       </c>
@@ -1714,16 +1684,13 @@
       <c r="D6">
         <v>3</v>
       </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45120</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C7">
         <v>60</v>
@@ -1731,11 +1698,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45119</v>
       </c>
@@ -1748,11 +1712,8 @@
       <c r="D8">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45119</v>
       </c>
@@ -1765,11 +1726,8 @@
       <c r="D9">
         <v>2</v>
       </c>
-      <c r="E9" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45118</v>
       </c>
@@ -1782,11 +1740,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45116</v>
       </c>
@@ -1799,11 +1754,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45116</v>
       </c>
@@ -1816,11 +1768,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45115</v>
       </c>
@@ -1833,11 +1782,8 @@
       <c r="D13">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45115</v>
       </c>
@@ -1850,11 +1796,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45114</v>
       </c>
@@ -1867,11 +1810,8 @@
       <c r="D15">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45113</v>
       </c>
@@ -1884,11 +1824,8 @@
       <c r="D16">
         <v>2</v>
       </c>
-      <c r="E16" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45112</v>
       </c>
@@ -1901,11 +1838,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45111</v>
       </c>
@@ -1918,11 +1852,8 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="E18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45110</v>
       </c>
@@ -1935,11 +1866,8 @@
       <c r="D19">
         <v>7</v>
       </c>
-      <c r="E19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45110</v>
       </c>
@@ -1952,11 +1880,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45109</v>
       </c>
@@ -1969,11 +1894,8 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="E21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45108</v>
       </c>
@@ -1986,11 +1908,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45106</v>
       </c>
@@ -2003,11 +1922,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45105</v>
       </c>
@@ -2020,11 +1936,8 @@
       <c r="D24">
         <v>9</v>
       </c>
-      <c r="E24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45105</v>
       </c>
@@ -2037,11 +1950,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45104</v>
       </c>
@@ -2054,11 +1964,8 @@
       <c r="D26">
         <v>2</v>
       </c>
-      <c r="E26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45102</v>
       </c>
@@ -2071,11 +1978,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45100</v>
       </c>
@@ -2088,11 +1992,8 @@
       <c r="D28">
         <v>0</v>
       </c>
-      <c r="E28" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45099</v>
       </c>
@@ -2105,11 +2006,8 @@
       <c r="D29">
         <v>16</v>
       </c>
-      <c r="E29" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45099</v>
       </c>
@@ -2122,11 +2020,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45099</v>
       </c>
@@ -2139,11 +2034,8 @@
       <c r="D31">
         <v>0</v>
       </c>
-      <c r="E31" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45098</v>
       </c>
@@ -2156,11 +2048,8 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45097</v>
       </c>
@@ -2173,11 +2062,8 @@
       <c r="D33">
         <v>13</v>
       </c>
-      <c r="E33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45097</v>
       </c>
@@ -2190,11 +2076,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45096</v>
       </c>
@@ -2207,11 +2090,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45095</v>
       </c>
@@ -2224,11 +2104,8 @@
       <c r="D36">
         <v>11</v>
       </c>
-      <c r="E36" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45094</v>
       </c>
@@ -2241,11 +2118,8 @@
       <c r="D37">
         <v>2</v>
       </c>
-      <c r="E37" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45093</v>
       </c>
@@ -2258,11 +2132,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45093</v>
       </c>
@@ -2275,11 +2146,8 @@
       <c r="D39">
         <v>3</v>
       </c>
-      <c r="E39" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45091</v>
       </c>
@@ -2292,11 +2160,8 @@
       <c r="D40">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45090</v>
       </c>
@@ -2309,11 +2174,8 @@
       <c r="D41">
         <v>2</v>
       </c>
-      <c r="E41" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45090</v>
       </c>
@@ -2326,11 +2188,8 @@
       <c r="D42">
         <v>13</v>
       </c>
-      <c r="E42" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45090</v>
       </c>
@@ -2343,11 +2202,8 @@
       <c r="D43">
         <v>1</v>
       </c>
-      <c r="E43" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45089</v>
       </c>
@@ -2360,11 +2216,8 @@
       <c r="D44">
         <v>1</v>
       </c>
-      <c r="E44" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45088</v>
       </c>
@@ -2377,11 +2230,8 @@
       <c r="D45">
         <v>2</v>
       </c>
-      <c r="E45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45087</v>
       </c>
@@ -2394,11 +2244,8 @@
       <c r="D46">
         <v>4</v>
       </c>
-      <c r="E46" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45087</v>
       </c>
@@ -2411,11 +2258,8 @@
       <c r="D47">
         <v>4</v>
       </c>
-      <c r="E47" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45086</v>
       </c>
@@ -2428,11 +2272,8 @@
       <c r="D48">
         <v>1</v>
       </c>
-      <c r="E48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45085</v>
       </c>
@@ -2445,11 +2286,8 @@
       <c r="D49">
         <v>6</v>
       </c>
-      <c r="E49" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45084</v>
       </c>
@@ -2462,11 +2300,8 @@
       <c r="D50">
         <v>2</v>
       </c>
-      <c r="E50" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45083</v>
       </c>
@@ -2479,11 +2314,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45082</v>
       </c>
@@ -2496,11 +2328,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45081</v>
       </c>
@@ -2513,11 +2342,8 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45081</v>
       </c>
@@ -2530,11 +2356,8 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45081</v>
       </c>
@@ -2547,11 +2370,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45080</v>
       </c>
@@ -2564,11 +2384,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45079</v>
       </c>
@@ -2581,11 +2398,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45078</v>
       </c>
@@ -2598,11 +2412,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45077</v>
       </c>
@@ -2615,11 +2426,8 @@
       <c r="D59">
         <v>77</v>
       </c>
-      <c r="E59" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45076</v>
       </c>
@@ -2632,11 +2440,8 @@
       <c r="D60">
         <v>10</v>
       </c>
-      <c r="E60" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45075</v>
       </c>
@@ -2649,11 +2454,8 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45074</v>
       </c>
@@ -2666,11 +2468,8 @@
       <c r="D62">
         <v>8</v>
       </c>
-      <c r="E62" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45073</v>
       </c>
@@ -2683,11 +2482,8 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45072</v>
       </c>
@@ -2700,11 +2496,8 @@
       <c r="D64">
         <v>7</v>
       </c>
-      <c r="E64" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45071</v>
       </c>
@@ -2717,11 +2510,8 @@
       <c r="D65">
         <v>4</v>
       </c>
-      <c r="E65" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45070</v>
       </c>
@@ -2734,11 +2524,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45069</v>
       </c>
@@ -2751,11 +2538,8 @@
       <c r="D67">
         <v>31</v>
       </c>
-      <c r="E67" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45069</v>
       </c>
@@ -2768,11 +2552,8 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45068</v>
       </c>
@@ -2785,11 +2566,8 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45067</v>
       </c>
@@ -2802,11 +2580,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45065</v>
       </c>
@@ -2819,11 +2594,8 @@
       <c r="D71">
         <v>36</v>
       </c>
-      <c r="E71" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45064</v>
       </c>
@@ -2836,11 +2608,8 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45063</v>
       </c>
@@ -2853,11 +2622,8 @@
       <c r="D73">
         <v>9</v>
       </c>
-      <c r="E73" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45062</v>
       </c>
@@ -2870,11 +2636,8 @@
       <c r="D74">
         <v>1</v>
       </c>
-      <c r="E74" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45061</v>
       </c>
@@ -2887,11 +2650,8 @@
       <c r="D75">
         <v>2</v>
       </c>
-      <c r="E75" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45060</v>
       </c>
@@ -2904,11 +2664,8 @@
       <c r="D76">
         <v>3</v>
       </c>
-      <c r="E76" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45059</v>
       </c>
@@ -2921,11 +2678,8 @@
       <c r="D77">
         <v>25</v>
       </c>
-      <c r="E77" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45058</v>
       </c>
@@ -2938,11 +2692,8 @@
       <c r="D78">
         <v>0</v>
       </c>
-      <c r="E78" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45057</v>
       </c>
@@ -2955,11 +2706,8 @@
       <c r="D79">
         <v>32</v>
       </c>
-      <c r="E79" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45056</v>
       </c>
@@ -2972,11 +2720,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45055</v>
       </c>
@@ -2989,11 +2734,8 @@
       <c r="D81">
         <v>3</v>
       </c>
-      <c r="E81" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45054</v>
       </c>
@@ -3006,16 +2748,13 @@
       <c r="D82">
         <v>0</v>
       </c>
-      <c r="E82" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45053</v>
       </c>
       <c r="B83" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C83">
         <v>521</v>
@@ -3023,11 +2762,8 @@
       <c r="D83">
         <v>4</v>
       </c>
-      <c r="E83" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45051</v>
       </c>
@@ -3040,11 +2776,8 @@
       <c r="D84">
         <v>12</v>
       </c>
-      <c r="E84" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45051</v>
       </c>
@@ -3057,11 +2790,8 @@
       <c r="D85">
         <v>29</v>
       </c>
-      <c r="E85" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45051</v>
       </c>
@@ -3074,11 +2804,8 @@
       <c r="D86">
         <v>3</v>
       </c>
-      <c r="E86" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45049</v>
       </c>
@@ -3091,11 +2818,8 @@
       <c r="D87">
         <v>3</v>
       </c>
-      <c r="E87" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45048</v>
       </c>
@@ -3108,11 +2832,8 @@
       <c r="D88">
         <v>0</v>
       </c>
-      <c r="E88" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45047</v>
       </c>
@@ -3125,11 +2846,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45046</v>
       </c>
@@ -3142,11 +2860,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45044</v>
       </c>
@@ -3159,11 +2874,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45043</v>
       </c>
@@ -3176,11 +2888,8 @@
       <c r="D92">
         <v>1</v>
       </c>
-      <c r="E92" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45042</v>
       </c>
@@ -3193,11 +2902,8 @@
       <c r="D93">
         <v>0</v>
       </c>
-      <c r="E93" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45041</v>
       </c>
@@ -3210,11 +2916,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45040</v>
       </c>
@@ -3227,11 +2930,8 @@
       <c r="D95">
         <v>2</v>
       </c>
-      <c r="E95" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45039</v>
       </c>
@@ -3244,11 +2944,8 @@
       <c r="D96">
         <v>2</v>
       </c>
-      <c r="E96" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45038</v>
       </c>
@@ -3261,11 +2958,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45037</v>
       </c>
@@ -3278,16 +2972,13 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45036</v>
       </c>
       <c r="B99" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C99">
         <v>43</v>
@@ -3295,11 +2986,8 @@
       <c r="D99">
         <v>0</v>
       </c>
-      <c r="E99" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45035</v>
       </c>
@@ -3312,11 +3000,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45034</v>
       </c>
@@ -3329,11 +3014,8 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45033</v>
       </c>
@@ -3346,16 +3028,13 @@
       <c r="D102">
         <v>0</v>
       </c>
-      <c r="E102" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45032</v>
       </c>
       <c r="B103" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C103">
         <v>488</v>
@@ -3363,11 +3042,8 @@
       <c r="D103">
         <v>52</v>
       </c>
-      <c r="E103" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45031</v>
       </c>
@@ -3380,11 +3056,8 @@
       <c r="D104">
         <v>22</v>
       </c>
-      <c r="E104" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45030</v>
       </c>
@@ -3397,11 +3070,8 @@
       <c r="D105">
         <v>1</v>
       </c>
-      <c r="E105" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45029</v>
       </c>
@@ -3414,11 +3084,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45028</v>
       </c>
@@ -3431,11 +3098,8 @@
       <c r="D107">
         <v>1</v>
       </c>
-      <c r="E107" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45027</v>
       </c>
@@ -3448,11 +3112,8 @@
       <c r="D108">
         <v>0</v>
       </c>
-      <c r="E108" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45026</v>
       </c>
@@ -3465,11 +3126,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>45025</v>
       </c>
@@ -3482,11 +3140,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>45024</v>
       </c>
@@ -3499,11 +3154,8 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>45022</v>
       </c>
@@ -3516,11 +3168,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>45021</v>
       </c>
@@ -3533,11 +3182,8 @@
       <c r="D113">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>45020</v>
       </c>
@@ -3550,11 +3196,8 @@
       <c r="D114">
         <v>0</v>
       </c>
-      <c r="E114" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>45020</v>
       </c>
@@ -3567,16 +3210,13 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>45018</v>
       </c>
       <c r="B116" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C116">
         <v>120</v>
@@ -3584,16 +3224,13 @@
       <c r="D116">
         <v>1</v>
       </c>
-      <c r="E116" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>45017</v>
       </c>
       <c r="B117" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C117">
         <v>151</v>
@@ -3601,11 +3238,8 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>45016</v>
       </c>
@@ -3618,11 +3252,8 @@
       <c r="D118">
         <v>0</v>
       </c>
-      <c r="E118" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>45015</v>
       </c>
@@ -3635,11 +3266,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>45014</v>
       </c>
@@ -3652,11 +3280,8 @@
       <c r="D120">
         <v>151</v>
       </c>
-      <c r="E120" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>45014</v>
       </c>
@@ -3669,16 +3294,13 @@
       <c r="D121">
         <v>1</v>
       </c>
-      <c r="E121" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>45013</v>
       </c>
       <c r="B122" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C122">
         <v>86</v>
@@ -3686,11 +3308,8 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>45012</v>
       </c>
@@ -3703,11 +3322,8 @@
       <c r="D123">
         <v>0</v>
       </c>
-      <c r="E123" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>45011</v>
       </c>
@@ -3720,16 +3336,13 @@
       <c r="D124">
         <v>22</v>
       </c>
-      <c r="E124" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>45009</v>
       </c>
       <c r="B125" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C125">
         <v>90</v>
@@ -3737,11 +3350,8 @@
       <c r="D125">
         <v>0</v>
       </c>
-      <c r="E125" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>45008</v>
       </c>
@@ -3754,11 +3364,8 @@
       <c r="D126">
         <v>28</v>
       </c>
-      <c r="E126" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>45008</v>
       </c>
@@ -3771,11 +3378,8 @@
       <c r="D127">
         <v>0</v>
       </c>
-      <c r="E127" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>45007</v>
       </c>
@@ -3788,11 +3392,8 @@
       <c r="D128">
         <v>0</v>
       </c>
-      <c r="E128" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>45007</v>
       </c>
@@ -3805,11 +3406,8 @@
       <c r="D129">
         <v>0</v>
       </c>
-      <c r="E129" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>45006</v>
       </c>
@@ -3822,11 +3420,8 @@
       <c r="D130">
         <v>0</v>
       </c>
-      <c r="E130" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>45005</v>
       </c>
@@ -3839,11 +3434,8 @@
       <c r="D131">
         <v>0</v>
       </c>
-      <c r="E131" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>45004</v>
       </c>
@@ -3856,11 +3448,8 @@
       <c r="D132">
         <v>0</v>
       </c>
-      <c r="E132" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>45004</v>
       </c>
@@ -3873,11 +3462,8 @@
       <c r="D133">
         <v>0</v>
       </c>
-      <c r="E133" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>45003</v>
       </c>
@@ -3890,11 +3476,8 @@
       <c r="D134">
         <v>1</v>
       </c>
-      <c r="E134" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>45002</v>
       </c>
@@ -3907,11 +3490,8 @@
       <c r="D135">
         <v>0</v>
       </c>
-      <c r="E135" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>45002</v>
       </c>
@@ -3924,11 +3504,8 @@
       <c r="D136">
         <v>5</v>
       </c>
-      <c r="E136" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>45001</v>
       </c>
@@ -3941,11 +3518,8 @@
       <c r="D137">
         <v>13</v>
       </c>
-      <c r="E137" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>45000</v>
       </c>
@@ -3958,11 +3532,8 @@
       <c r="D138">
         <v>0</v>
       </c>
-      <c r="E138" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>44999</v>
       </c>
@@ -3975,11 +3546,8 @@
       <c r="D139">
         <v>23</v>
       </c>
-      <c r="E139" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>44998</v>
       </c>
@@ -3992,11 +3560,8 @@
       <c r="D140">
         <v>0</v>
       </c>
-      <c r="E140" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>44997</v>
       </c>
@@ -4009,11 +3574,8 @@
       <c r="D141">
         <v>1</v>
       </c>
-      <c r="E141" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>44995</v>
       </c>
@@ -4026,11 +3588,8 @@
       <c r="D142">
         <v>12</v>
       </c>
-      <c r="E142" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>44994</v>
       </c>
@@ -4043,11 +3602,8 @@
       <c r="D143">
         <v>0</v>
       </c>
-      <c r="E143" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>44993</v>
       </c>
@@ -4060,11 +3616,8 @@
       <c r="D144">
         <v>2</v>
       </c>
-      <c r="E144" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>44993</v>
       </c>
@@ -4077,16 +3630,13 @@
       <c r="D145">
         <v>2</v>
       </c>
-      <c r="E145" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>44991</v>
       </c>
       <c r="B146" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="C146">
         <v>512</v>
@@ -4094,11 +3644,8 @@
       <c r="D146">
         <v>30</v>
       </c>
-      <c r="E146" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>44990</v>
       </c>
@@ -4111,11 +3658,8 @@
       <c r="D147">
         <v>1</v>
       </c>
-      <c r="E147" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>44989</v>
       </c>
@@ -4128,11 +3672,8 @@
       <c r="D148">
         <v>1</v>
       </c>
-      <c r="E148" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>44987</v>
       </c>
@@ -4145,11 +3686,8 @@
       <c r="D149">
         <v>8</v>
       </c>
-      <c r="E149" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>44986</v>
       </c>
@@ -4162,54 +3700,51 @@
       <c r="D150">
         <v>7</v>
       </c>
-      <c r="E150" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:E165">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:D165">
     <sortCondition descending="1" ref="A121:A165"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4219,22 +3754,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92892356-4B9D-41CD-BE4A-8191C67F6A84}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:D83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -4247,11 +3781,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45117</v>
       </c>
@@ -4264,11 +3795,8 @@
       <c r="D2">
         <v>4</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45106</v>
       </c>
@@ -4281,11 +3809,8 @@
       <c r="D3">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45105</v>
       </c>
@@ -4298,11 +3823,8 @@
       <c r="D4">
         <v>0</v>
       </c>
-      <c r="E4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45100</v>
       </c>
@@ -4315,11 +3837,8 @@
       <c r="D5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45098</v>
       </c>
@@ -4332,11 +3851,8 @@
       <c r="D6">
         <v>0</v>
       </c>
-      <c r="E6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45081</v>
       </c>
@@ -4349,11 +3865,8 @@
       <c r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45081</v>
       </c>
@@ -4366,11 +3879,8 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="E8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45080</v>
       </c>
@@ -4383,11 +3893,8 @@
       <c r="D9">
         <v>10</v>
       </c>
-      <c r="E9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45078</v>
       </c>
@@ -4400,11 +3907,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45077</v>
       </c>
@@ -4417,11 +3921,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45073</v>
       </c>
@@ -4434,11 +3935,8 @@
       <c r="D12">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45073</v>
       </c>
@@ -4451,11 +3949,8 @@
       <c r="D13">
         <v>3</v>
       </c>
-      <c r="E13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45072</v>
       </c>
@@ -4468,11 +3963,8 @@
       <c r="D14">
         <v>2</v>
       </c>
-      <c r="E14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45069</v>
       </c>
@@ -4485,11 +3977,8 @@
       <c r="D15">
         <v>2</v>
       </c>
-      <c r="E15" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45068</v>
       </c>
@@ -4502,11 +3991,8 @@
       <c r="D16">
         <v>20</v>
       </c>
-      <c r="E16" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45067</v>
       </c>
@@ -4519,11 +4005,8 @@
       <c r="D17">
         <v>2</v>
       </c>
-      <c r="E17" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45065</v>
       </c>
@@ -4536,11 +4019,8 @@
       <c r="D18">
         <v>2</v>
       </c>
-      <c r="E18" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45065</v>
       </c>
@@ -4553,11 +4033,8 @@
       <c r="D19">
         <v>0</v>
       </c>
-      <c r="E19" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45064</v>
       </c>
@@ -4570,11 +4047,8 @@
       <c r="D20">
         <v>0</v>
       </c>
-      <c r="E20" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45062</v>
       </c>
@@ -4587,11 +4061,8 @@
       <c r="D21">
         <v>2</v>
       </c>
-      <c r="E21" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45062</v>
       </c>
@@ -4604,11 +4075,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45062</v>
       </c>
@@ -4621,11 +4089,8 @@
       <c r="D23">
         <v>2</v>
       </c>
-      <c r="E23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45061</v>
       </c>
@@ -4638,11 +4103,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45061</v>
       </c>
@@ -4655,11 +4117,8 @@
       <c r="D25">
         <v>3</v>
       </c>
-      <c r="E25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45061</v>
       </c>
@@ -4672,11 +4131,8 @@
       <c r="D26">
         <v>10</v>
       </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45057</v>
       </c>
@@ -4689,11 +4145,8 @@
       <c r="D27">
         <v>4</v>
       </c>
-      <c r="E27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45057</v>
       </c>
@@ -4706,11 +4159,8 @@
       <c r="D28">
         <v>4</v>
       </c>
-      <c r="E28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45057</v>
       </c>
@@ -4723,11 +4173,8 @@
       <c r="D29">
         <v>0</v>
       </c>
-      <c r="E29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45057</v>
       </c>
@@ -4740,16 +4187,13 @@
       <c r="D30">
         <v>0</v>
       </c>
-      <c r="E30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45056</v>
       </c>
       <c r="B31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C31">
         <v>123</v>
@@ -4757,16 +4201,13 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45054</v>
       </c>
       <c r="B32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C32">
         <v>157</v>
@@ -4774,16 +4215,13 @@
       <c r="D32">
         <v>2</v>
       </c>
-      <c r="E32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45052</v>
       </c>
       <c r="B33" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C33">
         <v>368</v>
@@ -4791,11 +4229,8 @@
       <c r="D33">
         <v>5</v>
       </c>
-      <c r="E33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45052</v>
       </c>
@@ -4808,11 +4243,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="E34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45052</v>
       </c>
@@ -4825,11 +4257,8 @@
       <c r="D35">
         <v>0</v>
       </c>
-      <c r="E35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45048</v>
       </c>
@@ -4842,16 +4271,13 @@
       <c r="D36">
         <v>24</v>
       </c>
-      <c r="E36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45048</v>
       </c>
       <c r="B37" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C37">
         <v>58</v>
@@ -4859,16 +4285,13 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45047</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C38">
         <v>54</v>
@@ -4876,16 +4299,13 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45045</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C39">
         <v>87</v>
@@ -4893,11 +4313,8 @@
       <c r="D39">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45044</v>
       </c>
@@ -4910,16 +4327,13 @@
       <c r="D40">
         <v>3</v>
       </c>
-      <c r="E40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45037</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C41">
         <v>76</v>
@@ -4927,11 +4341,8 @@
       <c r="D41">
         <v>0</v>
       </c>
-      <c r="E41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45037</v>
       </c>
@@ -4944,16 +4355,13 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45034</v>
       </c>
       <c r="B43" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C43">
         <v>130</v>
@@ -4961,16 +4369,13 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45030</v>
       </c>
       <c r="B44" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C44">
         <v>133</v>
@@ -4978,16 +4383,13 @@
       <c r="D44">
         <v>0</v>
       </c>
-      <c r="E44" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45027</v>
       </c>
       <c r="B45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C45">
         <v>101</v>
@@ -4995,16 +4397,13 @@
       <c r="D45">
         <v>0</v>
       </c>
-      <c r="E45" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45024</v>
       </c>
       <c r="B46" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C46">
         <v>343</v>
@@ -5012,16 +4411,13 @@
       <c r="D46">
         <v>6</v>
       </c>
-      <c r="E46" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45023</v>
       </c>
       <c r="B47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C47">
         <v>68</v>
@@ -5029,16 +4425,13 @@
       <c r="D47">
         <v>0</v>
       </c>
-      <c r="E47" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45022</v>
       </c>
       <c r="B48" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C48">
         <v>140</v>
@@ -5046,16 +4439,13 @@
       <c r="D48">
         <v>0</v>
       </c>
-      <c r="E48" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45021</v>
       </c>
       <c r="B49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C49">
         <v>104</v>
@@ -5063,16 +4453,13 @@
       <c r="D49">
         <v>0</v>
       </c>
-      <c r="E49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45021</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C50">
         <v>78</v>
@@ -5080,16 +4467,13 @@
       <c r="D50">
         <v>0</v>
       </c>
-      <c r="E50" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45019</v>
       </c>
       <c r="B51" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C51">
         <v>300</v>
@@ -5097,16 +4481,13 @@
       <c r="D51">
         <v>9</v>
       </c>
-      <c r="E51" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45015</v>
       </c>
       <c r="B52" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C52">
         <v>115</v>
@@ -5114,16 +4495,13 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45013</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C53">
         <v>108</v>
@@ -5131,11 +4509,8 @@
       <c r="D53">
         <v>1</v>
       </c>
-      <c r="E53" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45008</v>
       </c>
@@ -5148,16 +4523,13 @@
       <c r="D54">
         <v>1</v>
       </c>
-      <c r="E54" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45008</v>
       </c>
       <c r="B55" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C55">
         <v>176</v>
@@ -5165,16 +4537,13 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45008</v>
       </c>
       <c r="B56" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C56">
         <v>54</v>
@@ -5182,11 +4551,8 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45007</v>
       </c>
@@ -5199,11 +4565,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45007</v>
       </c>
@@ -5216,11 +4579,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45006</v>
       </c>
@@ -5233,16 +4593,13 @@
       <c r="D59">
         <v>2</v>
       </c>
-      <c r="E59" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45005</v>
       </c>
       <c r="B60" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C60">
         <v>150</v>
@@ -5250,11 +4607,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45002</v>
       </c>
@@ -5267,16 +4621,13 @@
       <c r="D61">
         <v>2</v>
       </c>
-      <c r="E61" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45002</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C62">
         <v>78</v>
@@ -5284,11 +4635,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>44999</v>
       </c>
@@ -5301,16 +4649,13 @@
       <c r="D63">
         <v>4</v>
       </c>
-      <c r="E63" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>44999</v>
       </c>
       <c r="B64" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>86</v>
@@ -5318,16 +4663,13 @@
       <c r="D64">
         <v>1</v>
       </c>
-      <c r="E64" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>44998</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C65">
         <v>99</v>
@@ -5335,11 +4677,8 @@
       <c r="D65">
         <v>6</v>
       </c>
-      <c r="E65" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>44998</v>
       </c>
@@ -5352,16 +4691,13 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>44996</v>
       </c>
       <c r="B67" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C67">
         <v>130</v>
@@ -5369,16 +4705,13 @@
       <c r="D67">
         <v>1</v>
       </c>
-      <c r="E67" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>44996</v>
       </c>
       <c r="B68" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C68">
         <v>84</v>
@@ -5386,16 +4719,13 @@
       <c r="D68">
         <v>1</v>
       </c>
-      <c r="E68" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>44995</v>
       </c>
       <c r="B69" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C69">
         <v>42</v>
@@ -5403,16 +4733,13 @@
       <c r="D69">
         <v>0</v>
       </c>
-      <c r="E69" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>44994</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C70">
         <v>95</v>
@@ -5420,16 +4747,13 @@
       <c r="D70">
         <v>1</v>
       </c>
-      <c r="E70" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>44993</v>
       </c>
       <c r="B71" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C71">
         <v>229</v>
@@ -5437,11 +4761,8 @@
       <c r="D71">
         <v>4</v>
       </c>
-      <c r="E71" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>44993</v>
       </c>
@@ -5454,11 +4775,8 @@
       <c r="D72">
         <v>1</v>
       </c>
-      <c r="E72" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>44993</v>
       </c>
@@ -5471,16 +4789,13 @@
       <c r="D73">
         <v>0</v>
       </c>
-      <c r="E73" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>44991</v>
       </c>
       <c r="B74" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C74">
         <v>251</v>
@@ -5488,11 +4803,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>44991</v>
       </c>
@@ -5505,11 +4817,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>44991</v>
       </c>
@@ -5522,16 +4831,13 @@
       <c r="D76">
         <v>0</v>
       </c>
-      <c r="E76" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>44991</v>
       </c>
       <c r="B77" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C77">
         <v>141</v>
@@ -5539,11 +4845,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>44988</v>
       </c>
@@ -5556,16 +4859,13 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>44988</v>
       </c>
       <c r="B79" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C79">
         <v>109</v>
@@ -5573,16 +4873,13 @@
       <c r="D79">
         <v>7</v>
       </c>
-      <c r="E79" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>44988</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C80">
         <v>91</v>
@@ -5590,11 +4887,8 @@
       <c r="D80">
         <v>0</v>
       </c>
-      <c r="E80" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>44987</v>
       </c>
@@ -5607,11 +4901,8 @@
       <c r="D81">
         <v>11</v>
       </c>
-      <c r="E81" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>44986</v>
       </c>
@@ -5624,16 +4915,13 @@
       <c r="D82">
         <v>18</v>
       </c>
-      <c r="E82" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>44986</v>
       </c>
       <c r="B83" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C83">
         <v>66</v>
@@ -5641,12 +4929,9 @@
       <c r="D83">
         <v>2</v>
       </c>
-      <c r="E83" t="s">
-        <v>48</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E94">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D94">
     <sortCondition descending="1" ref="A1:A94"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5656,21 +4941,21 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E981620-C8DC-4991-BE0E-1E2BBD2B0740}">
-  <dimension ref="A1:E128"/>
+  <dimension ref="A1:D128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -5683,11 +4968,8 @@
       <c r="D1" t="s">
         <v>17</v>
       </c>
-      <c r="E1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>45124</v>
       </c>
@@ -5700,11 +4982,8 @@
       <c r="D2">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>45122</v>
       </c>
@@ -5717,11 +4996,8 @@
       <c r="D3">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>45120</v>
       </c>
@@ -5734,11 +5010,8 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>45119</v>
       </c>
@@ -5751,11 +5024,8 @@
       <c r="D5">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>45109</v>
       </c>
@@ -5768,11 +5038,8 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>45108</v>
       </c>
@@ -5785,11 +5052,8 @@
       <c r="D7">
         <v>0</v>
       </c>
-      <c r="E7" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>45107</v>
       </c>
@@ -5802,11 +5066,8 @@
       <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>45106</v>
       </c>
@@ -5819,11 +5080,8 @@
       <c r="D9">
         <v>1</v>
       </c>
-      <c r="E9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>45105</v>
       </c>
@@ -5836,11 +5094,8 @@
       <c r="D10">
         <v>0</v>
       </c>
-      <c r="E10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>45104</v>
       </c>
@@ -5853,11 +5108,8 @@
       <c r="D11">
         <v>0</v>
       </c>
-      <c r="E11" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>45103</v>
       </c>
@@ -5870,11 +5122,8 @@
       <c r="D12">
         <v>0</v>
       </c>
-      <c r="E12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>45102</v>
       </c>
@@ -5887,11 +5136,8 @@
       <c r="D13">
         <v>0</v>
       </c>
-      <c r="E13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>45101</v>
       </c>
@@ -5904,11 +5150,8 @@
       <c r="D14">
         <v>0</v>
       </c>
-      <c r="E14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>45100</v>
       </c>
@@ -5921,11 +5164,8 @@
       <c r="D15">
         <v>0</v>
       </c>
-      <c r="E15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>45099</v>
       </c>
@@ -5938,11 +5178,8 @@
       <c r="D16">
         <v>0</v>
       </c>
-      <c r="E16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>45099</v>
       </c>
@@ -5955,11 +5192,8 @@
       <c r="D17">
         <v>0</v>
       </c>
-      <c r="E17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>45098</v>
       </c>
@@ -5972,11 +5206,8 @@
       <c r="D18">
         <v>3</v>
       </c>
-      <c r="E18" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>45097</v>
       </c>
@@ -5989,11 +5220,8 @@
       <c r="D19">
         <v>3</v>
       </c>
-      <c r="E19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>45096</v>
       </c>
@@ -6006,11 +5234,8 @@
       <c r="D20">
         <v>3</v>
       </c>
-      <c r="E20" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>45085</v>
       </c>
@@ -6023,11 +5248,8 @@
       <c r="D21">
         <v>0</v>
       </c>
-      <c r="E21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>45081</v>
       </c>
@@ -6040,11 +5262,8 @@
       <c r="D22">
         <v>0</v>
       </c>
-      <c r="E22" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>45081</v>
       </c>
@@ -6057,11 +5276,8 @@
       <c r="D23">
         <v>0</v>
       </c>
-      <c r="E23" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>45080</v>
       </c>
@@ -6074,11 +5290,8 @@
       <c r="D24">
         <v>0</v>
       </c>
-      <c r="E24" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>45079</v>
       </c>
@@ -6091,11 +5304,8 @@
       <c r="D25">
         <v>0</v>
       </c>
-      <c r="E25" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>45078</v>
       </c>
@@ -6108,11 +5318,8 @@
       <c r="D26">
         <v>0</v>
       </c>
-      <c r="E26" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>45078</v>
       </c>
@@ -6125,11 +5332,8 @@
       <c r="D27">
         <v>0</v>
       </c>
-      <c r="E27" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>45077</v>
       </c>
@@ -6142,11 +5346,8 @@
       <c r="D28">
         <v>1</v>
       </c>
-      <c r="E28" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>45076</v>
       </c>
@@ -6159,11 +5360,8 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="E29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>45065</v>
       </c>
@@ -6176,11 +5374,8 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="E30" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>45065</v>
       </c>
@@ -6193,11 +5388,8 @@
       <c r="D31">
         <v>6</v>
       </c>
-      <c r="E31" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>45064</v>
       </c>
@@ -6210,11 +5402,8 @@
       <c r="D32">
         <v>1</v>
       </c>
-      <c r="E32" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>45062</v>
       </c>
@@ -6227,11 +5416,8 @@
       <c r="D33">
         <v>0</v>
       </c>
-      <c r="E33" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>45062</v>
       </c>
@@ -6244,11 +5430,8 @@
       <c r="D34">
         <v>1</v>
       </c>
-      <c r="E34" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>45059</v>
       </c>
@@ -6261,11 +5444,8 @@
       <c r="D35">
         <v>1</v>
       </c>
-      <c r="E35" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45058</v>
       </c>
@@ -6278,11 +5458,8 @@
       <c r="D36">
         <v>0</v>
       </c>
-      <c r="E36" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>45056</v>
       </c>
@@ -6295,11 +5472,8 @@
       <c r="D37">
         <v>1</v>
       </c>
-      <c r="E37" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>45055</v>
       </c>
@@ -6312,11 +5486,8 @@
       <c r="D38">
         <v>0</v>
       </c>
-      <c r="E38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>45054</v>
       </c>
@@ -6329,11 +5500,8 @@
       <c r="D39">
         <v>0</v>
       </c>
-      <c r="E39" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>45053</v>
       </c>
@@ -6346,11 +5514,8 @@
       <c r="D40">
         <v>5</v>
       </c>
-      <c r="E40" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>45053</v>
       </c>
@@ -6363,11 +5528,8 @@
       <c r="D41">
         <v>5</v>
       </c>
-      <c r="E41" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>45052</v>
       </c>
@@ -6380,11 +5542,8 @@
       <c r="D42">
         <v>0</v>
       </c>
-      <c r="E42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>45051</v>
       </c>
@@ -6397,11 +5556,8 @@
       <c r="D43">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>45050</v>
       </c>
@@ -6414,11 +5570,8 @@
       <c r="D44">
         <v>4</v>
       </c>
-      <c r="E44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>45049</v>
       </c>
@@ -6431,11 +5584,8 @@
       <c r="D45">
         <v>1</v>
       </c>
-      <c r="E45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45049</v>
       </c>
@@ -6448,11 +5598,8 @@
       <c r="D46">
         <v>0</v>
       </c>
-      <c r="E46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>45048</v>
       </c>
@@ -6465,11 +5612,8 @@
       <c r="D47">
         <v>1</v>
       </c>
-      <c r="E47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>45048</v>
       </c>
@@ -6482,11 +5626,8 @@
       <c r="D48">
         <v>3</v>
       </c>
-      <c r="E48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>45047</v>
       </c>
@@ -6499,11 +5640,8 @@
       <c r="D49">
         <v>3</v>
       </c>
-      <c r="E49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>45045</v>
       </c>
@@ -6516,11 +5654,8 @@
       <c r="D50">
         <v>3</v>
       </c>
-      <c r="E50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>45045</v>
       </c>
@@ -6533,11 +5668,8 @@
       <c r="D51">
         <v>0</v>
       </c>
-      <c r="E51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>45044</v>
       </c>
@@ -6550,11 +5682,8 @@
       <c r="D52">
         <v>0</v>
       </c>
-      <c r="E52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>45043</v>
       </c>
@@ -6567,11 +5696,8 @@
       <c r="D53">
         <v>0</v>
       </c>
-      <c r="E53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>45043</v>
       </c>
@@ -6584,11 +5710,8 @@
       <c r="D54">
         <v>2</v>
       </c>
-      <c r="E54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>45037</v>
       </c>
@@ -6601,11 +5724,8 @@
       <c r="D55">
         <v>0</v>
       </c>
-      <c r="E55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>45037</v>
       </c>
@@ -6618,11 +5738,8 @@
       <c r="D56">
         <v>1</v>
       </c>
-      <c r="E56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>45032</v>
       </c>
@@ -6635,11 +5752,8 @@
       <c r="D57">
         <v>0</v>
       </c>
-      <c r="E57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>45032</v>
       </c>
@@ -6652,11 +5766,8 @@
       <c r="D58">
         <v>0</v>
       </c>
-      <c r="E58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>45031</v>
       </c>
@@ -6669,11 +5780,8 @@
       <c r="D59">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>45031</v>
       </c>
@@ -6686,11 +5794,8 @@
       <c r="D60">
         <v>0</v>
       </c>
-      <c r="E60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>45030</v>
       </c>
@@ -6703,11 +5808,8 @@
       <c r="D61">
         <v>0</v>
       </c>
-      <c r="E61" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>45030</v>
       </c>
@@ -6720,11 +5822,8 @@
       <c r="D62">
         <v>0</v>
       </c>
-      <c r="E62" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>45029</v>
       </c>
@@ -6737,11 +5836,8 @@
       <c r="D63">
         <v>3</v>
       </c>
-      <c r="E63" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>45029</v>
       </c>
@@ -6754,11 +5850,8 @@
       <c r="D64">
         <v>2</v>
       </c>
-      <c r="E64" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>45028</v>
       </c>
@@ -6771,11 +5864,8 @@
       <c r="D65">
         <v>1</v>
       </c>
-      <c r="E65" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>45028</v>
       </c>
@@ -6788,11 +5878,8 @@
       <c r="D66">
         <v>0</v>
       </c>
-      <c r="E66" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>45027</v>
       </c>
@@ -6805,11 +5892,8 @@
       <c r="D67">
         <v>4</v>
       </c>
-      <c r="E67" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>45027</v>
       </c>
@@ -6822,11 +5906,8 @@
       <c r="D68">
         <v>0</v>
       </c>
-      <c r="E68" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>45026</v>
       </c>
@@ -6839,11 +5920,8 @@
       <c r="D69">
         <v>1</v>
       </c>
-      <c r="E69" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>45025</v>
       </c>
@@ -6856,11 +5934,8 @@
       <c r="D70">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>45024</v>
       </c>
@@ -6873,11 +5948,8 @@
       <c r="D71">
         <v>1</v>
       </c>
-      <c r="E71" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>45024</v>
       </c>
@@ -6890,11 +5962,8 @@
       <c r="D72">
         <v>0</v>
       </c>
-      <c r="E72" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>45023</v>
       </c>
@@ -6907,11 +5976,8 @@
       <c r="D73">
         <v>1</v>
       </c>
-      <c r="E73" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>45023</v>
       </c>
@@ -6924,11 +5990,8 @@
       <c r="D74">
         <v>0</v>
       </c>
-      <c r="E74" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>45022</v>
       </c>
@@ -6941,11 +6004,8 @@
       <c r="D75">
         <v>0</v>
       </c>
-      <c r="E75" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>45021</v>
       </c>
@@ -6958,11 +6018,8 @@
       <c r="D76">
         <v>8</v>
       </c>
-      <c r="E76" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>45021</v>
       </c>
@@ -6975,11 +6032,8 @@
       <c r="D77">
         <v>0</v>
       </c>
-      <c r="E77" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>45021</v>
       </c>
@@ -6992,11 +6046,8 @@
       <c r="D78">
         <v>1</v>
       </c>
-      <c r="E78" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>45021</v>
       </c>
@@ -7009,11 +6060,8 @@
       <c r="D79">
         <v>1</v>
       </c>
-      <c r="E79" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>45020</v>
       </c>
@@ -7026,11 +6074,8 @@
       <c r="D80">
         <v>6</v>
       </c>
-      <c r="E80" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>45020</v>
       </c>
@@ -7043,11 +6088,8 @@
       <c r="D81">
         <v>0</v>
       </c>
-      <c r="E81" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>45020</v>
       </c>
@@ -7060,11 +6102,8 @@
       <c r="D82">
         <v>1</v>
       </c>
-      <c r="E82" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>45019</v>
       </c>
@@ -7077,11 +6116,8 @@
       <c r="D83">
         <v>4</v>
       </c>
-      <c r="E83" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>45019</v>
       </c>
@@ -7094,11 +6130,8 @@
       <c r="D84">
         <v>0</v>
       </c>
-      <c r="E84" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>45018</v>
       </c>
@@ -7111,11 +6144,8 @@
       <c r="D85">
         <v>0</v>
       </c>
-      <c r="E85" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>45017</v>
       </c>
@@ -7128,11 +6158,8 @@
       <c r="D86">
         <v>0</v>
       </c>
-      <c r="E86" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>45016</v>
       </c>
@@ -7145,11 +6172,8 @@
       <c r="D87">
         <v>5</v>
       </c>
-      <c r="E87" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>45016</v>
       </c>
@@ -7162,11 +6186,8 @@
       <c r="D88">
         <v>1</v>
       </c>
-      <c r="E88" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>45016</v>
       </c>
@@ -7179,11 +6200,8 @@
       <c r="D89">
         <v>0</v>
       </c>
-      <c r="E89" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>45015</v>
       </c>
@@ -7196,11 +6214,8 @@
       <c r="D90">
         <v>0</v>
       </c>
-      <c r="E90" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>45015</v>
       </c>
@@ -7213,11 +6228,8 @@
       <c r="D91">
         <v>0</v>
       </c>
-      <c r="E91" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>45014</v>
       </c>
@@ -7230,11 +6242,8 @@
       <c r="D92">
         <v>0</v>
       </c>
-      <c r="E92" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>45012</v>
       </c>
@@ -7247,11 +6256,8 @@
       <c r="D93">
         <v>1</v>
       </c>
-      <c r="E93" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>45012</v>
       </c>
@@ -7264,11 +6270,8 @@
       <c r="D94">
         <v>0</v>
       </c>
-      <c r="E94" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>45010</v>
       </c>
@@ -7281,11 +6284,8 @@
       <c r="D95">
         <v>0</v>
       </c>
-      <c r="E95" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>45007</v>
       </c>
@@ -7298,11 +6298,8 @@
       <c r="D96">
         <v>0</v>
       </c>
-      <c r="E96" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>45007</v>
       </c>
@@ -7315,11 +6312,8 @@
       <c r="D97">
         <v>0</v>
       </c>
-      <c r="E97" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>45006</v>
       </c>
@@ -7332,11 +6326,8 @@
       <c r="D98">
         <v>0</v>
       </c>
-      <c r="E98" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>45004</v>
       </c>
@@ -7349,11 +6340,8 @@
       <c r="D99">
         <v>2</v>
       </c>
-      <c r="E99" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>45004</v>
       </c>
@@ -7366,11 +6354,8 @@
       <c r="D100">
         <v>0</v>
       </c>
-      <c r="E100" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>45003</v>
       </c>
@@ -7383,11 +6368,8 @@
       <c r="D101">
         <v>0</v>
       </c>
-      <c r="E101" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>45003</v>
       </c>
@@ -7400,11 +6382,8 @@
       <c r="D102">
         <v>1</v>
       </c>
-      <c r="E102" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>45003</v>
       </c>
@@ -7417,11 +6396,8 @@
       <c r="D103">
         <v>1</v>
       </c>
-      <c r="E103" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>45002</v>
       </c>
@@ -7434,11 +6410,8 @@
       <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>45002</v>
       </c>
@@ -7451,11 +6424,8 @@
       <c r="D105">
         <v>0</v>
       </c>
-      <c r="E105" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>45001</v>
       </c>
@@ -7468,11 +6438,8 @@
       <c r="D106">
         <v>0</v>
       </c>
-      <c r="E106" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>45001</v>
       </c>
@@ -7485,11 +6452,8 @@
       <c r="D107">
         <v>0</v>
       </c>
-      <c r="E107" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>45000</v>
       </c>
@@ -7502,11 +6466,8 @@
       <c r="D108">
         <v>1</v>
       </c>
-      <c r="E108" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>45000</v>
       </c>
@@ -7519,11 +6480,8 @@
       <c r="D109">
         <v>0</v>
       </c>
-      <c r="E109" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>44999</v>
       </c>
@@ -7536,11 +6494,8 @@
       <c r="D110">
         <v>0</v>
       </c>
-      <c r="E110" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>44999</v>
       </c>
@@ -7553,11 +6508,8 @@
       <c r="D111">
         <v>0</v>
       </c>
-      <c r="E111" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>44998</v>
       </c>
@@ -7570,11 +6522,8 @@
       <c r="D112">
         <v>0</v>
       </c>
-      <c r="E112" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>44998</v>
       </c>
@@ -7587,11 +6536,8 @@
       <c r="D113">
         <v>0</v>
       </c>
-      <c r="E113" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>44997</v>
       </c>
@@ -7604,11 +6550,8 @@
       <c r="D114">
         <v>4</v>
       </c>
-      <c r="E114" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>44996</v>
       </c>
@@ -7621,11 +6564,8 @@
       <c r="D115">
         <v>0</v>
       </c>
-      <c r="E115" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>44995</v>
       </c>
@@ -7638,11 +6578,8 @@
       <c r="D116">
         <v>0</v>
       </c>
-      <c r="E116" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>44995</v>
       </c>
@@ -7655,11 +6592,8 @@
       <c r="D117">
         <v>0</v>
       </c>
-      <c r="E117" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>44995</v>
       </c>
@@ -7672,11 +6606,8 @@
       <c r="D118">
         <v>2</v>
       </c>
-      <c r="E118" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>44994</v>
       </c>
@@ -7689,11 +6620,8 @@
       <c r="D119">
         <v>0</v>
       </c>
-      <c r="E119" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>44993</v>
       </c>
@@ -7706,11 +6634,8 @@
       <c r="D120">
         <v>9</v>
       </c>
-      <c r="E120" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>44992</v>
       </c>
@@ -7723,11 +6648,8 @@
       <c r="D121">
         <v>0</v>
       </c>
-      <c r="E121" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>44991</v>
       </c>
@@ -7740,11 +6662,8 @@
       <c r="D122">
         <v>0</v>
       </c>
-      <c r="E122" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>44990</v>
       </c>
@@ -7757,11 +6676,8 @@
       <c r="D123">
         <v>3</v>
       </c>
-      <c r="E123" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>44989</v>
       </c>
@@ -7774,11 +6690,8 @@
       <c r="D124">
         <v>3</v>
       </c>
-      <c r="E124" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>44988</v>
       </c>
@@ -7791,11 +6704,8 @@
       <c r="D125">
         <v>1</v>
       </c>
-      <c r="E125" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>44988</v>
       </c>
@@ -7808,11 +6718,8 @@
       <c r="D126">
         <v>0</v>
       </c>
-      <c r="E126" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>44987</v>
       </c>
@@ -7825,11 +6732,8 @@
       <c r="D127">
         <v>2</v>
       </c>
-      <c r="E127" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>44986</v>
       </c>
@@ -7842,12 +6746,9 @@
       <c r="D128">
         <v>3</v>
       </c>
-      <c r="E128" t="s">
-        <v>49</v>
-      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:E137">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D137">
     <sortCondition descending="1" ref="A1:A137"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7863,29 +6764,29 @@
       <selection activeCell="A20" sqref="A20:A21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>62</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>63</v>
       </c>
-      <c r="D1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45103</v>
       </c>
@@ -7899,7 +6800,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45104</v>
       </c>
@@ -7913,7 +6814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45105</v>
       </c>
@@ -7927,7 +6828,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45106</v>
       </c>
@@ -7941,7 +6842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45107</v>
       </c>
@@ -7955,7 +6856,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45108</v>
       </c>
@@ -7969,7 +6870,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45109</v>
       </c>
@@ -7983,7 +6884,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45110</v>
       </c>
@@ -7997,7 +6898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45111</v>
       </c>
@@ -8011,7 +6912,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45114</v>
       </c>
@@ -8025,7 +6926,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45115</v>
       </c>
@@ -8039,7 +6940,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45116</v>
       </c>
@@ -8053,7 +6954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45117</v>
       </c>
@@ -8067,7 +6968,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45118</v>
       </c>
@@ -8081,7 +6982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45119</v>
       </c>
@@ -8095,7 +6996,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45120</v>
       </c>
@@ -8109,7 +7010,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45121</v>
       </c>
@@ -8123,7 +7024,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45122</v>
       </c>
@@ -8137,7 +7038,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45123</v>
       </c>
@@ -8151,7 +7052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45124</v>
       </c>
@@ -8165,7 +7066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45126</v>
       </c>
@@ -8179,7 +7080,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45127</v>
       </c>
@@ -8193,7 +7094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45128</v>
       </c>
@@ -8207,7 +7108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45129</v>
       </c>
@@ -8221,7 +7122,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45130</v>
       </c>
@@ -8244,30 +7145,30 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20DDF452-6B05-4F8D-A133-394DD41DEDD1}">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1" t="s">
         <v>65</v>
       </c>
-      <c r="B1" t="s">
-        <v>66</v>
-      </c>
       <c r="C1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>45103</v>
       </c>
@@ -8278,7 +7179,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>45104</v>
       </c>
@@ -8289,7 +7190,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>45105</v>
       </c>
@@ -8300,7 +7201,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>45106</v>
       </c>
@@ -8311,7 +7212,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>45107</v>
       </c>
@@ -8322,7 +7223,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>45108</v>
       </c>
@@ -8333,7 +7234,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>45109</v>
       </c>
@@ -8344,7 +7245,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>45110</v>
       </c>
@@ -8355,7 +7256,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>45111</v>
       </c>
@@ -8366,7 +7267,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>45114</v>
       </c>
@@ -8377,7 +7278,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>45115</v>
       </c>
@@ -8388,7 +7289,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>45116</v>
       </c>
@@ -8399,7 +7300,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>45117</v>
       </c>
@@ -8410,7 +7311,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>45118</v>
       </c>
@@ -8421,7 +7322,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>45119</v>
       </c>
@@ -8432,7 +7333,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>45120</v>
       </c>
@@ -8443,7 +7344,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>45121</v>
       </c>
@@ -8454,7 +7355,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>45122</v>
       </c>
@@ -8465,7 +7366,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>45123</v>
       </c>
@@ -8476,7 +7377,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>45124</v>
       </c>
@@ -8487,7 +7388,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>45103</v>
       </c>
@@ -8495,10 +7396,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>45104</v>
       </c>
@@ -8506,10 +7407,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>45105</v>
       </c>
@@ -8517,10 +7418,10 @@
         <v>1</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>45106</v>
       </c>
@@ -8528,10 +7429,10 @@
         <v>1</v>
       </c>
       <c r="C25" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>45107</v>
       </c>
@@ -8539,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>45108</v>
       </c>
@@ -8550,10 +7451,10 @@
         <v>0</v>
       </c>
       <c r="C27" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>45109</v>
       </c>
@@ -8561,10 +7462,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>45110</v>
       </c>
@@ -8572,10 +7473,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>45111</v>
       </c>
@@ -8583,10 +7484,10 @@
         <v>0</v>
       </c>
       <c r="C30" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>45114</v>
       </c>
@@ -8594,10 +7495,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>45115</v>
       </c>
@@ -8605,10 +7506,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>45116</v>
       </c>
@@ -8616,10 +7517,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>45117</v>
       </c>
@@ -8627,10 +7528,10 @@
         <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>45118</v>
       </c>
@@ -8638,10 +7539,10 @@
         <v>1</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>45119</v>
       </c>
@@ -8649,10 +7550,10 @@
         <v>0</v>
       </c>
       <c r="C36" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>45120</v>
       </c>
@@ -8660,10 +7561,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>45121</v>
       </c>
@@ -8671,10 +7572,10 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>45122</v>
       </c>
@@ -8682,10 +7583,10 @@
         <v>0</v>
       </c>
       <c r="C39" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>45123</v>
       </c>
@@ -8693,10 +7594,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>45124</v>
       </c>
@@ -8704,10 +7605,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>45103</v>
       </c>
@@ -8715,10 +7616,10 @@
         <v>1</v>
       </c>
       <c r="C42" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>45104</v>
       </c>
@@ -8726,10 +7627,10 @@
         <v>1</v>
       </c>
       <c r="C43" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>45105</v>
       </c>
@@ -8737,10 +7638,10 @@
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>45106</v>
       </c>
@@ -8748,10 +7649,10 @@
         <v>1</v>
       </c>
       <c r="C45" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>45107</v>
       </c>
@@ -8759,10 +7660,10 @@
         <v>2</v>
       </c>
       <c r="C46" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>45108</v>
       </c>
@@ -8770,10 +7671,10 @@
         <v>1</v>
       </c>
       <c r="C47" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>45109</v>
       </c>
@@ -8781,10 +7682,10 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>45110</v>
       </c>
@@ -8792,10 +7693,10 @@
         <v>0</v>
       </c>
       <c r="C49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>45111</v>
       </c>
@@ -8803,10 +7704,10 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>45114</v>
       </c>
@@ -8814,10 +7715,10 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>45115</v>
       </c>
@@ -8825,10 +7726,10 @@
         <v>0</v>
       </c>
       <c r="C52" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>45116</v>
       </c>
@@ -8836,10 +7737,10 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>45117</v>
       </c>
@@ -8847,10 +7748,10 @@
         <v>0</v>
       </c>
       <c r="C54" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>45118</v>
       </c>
@@ -8858,10 +7759,10 @@
         <v>0</v>
       </c>
       <c r="C55" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>45119</v>
       </c>
@@ -8869,10 +7770,10 @@
         <v>1</v>
       </c>
       <c r="C56" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>45120</v>
       </c>
@@ -8880,10 +7781,10 @@
         <v>1</v>
       </c>
       <c r="C57" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>45121</v>
       </c>
@@ -8891,10 +7792,10 @@
         <v>0</v>
       </c>
       <c r="C58" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="3">
         <v>45122</v>
       </c>
@@ -8902,10 +7803,10 @@
         <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="3">
         <v>45123</v>
       </c>
@@ -8913,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="C60" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="3">
         <v>45124</v>
       </c>
@@ -8924,7 +7825,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
